--- a/BackTest/2019-10-19 BackTest ELF.xlsx
+++ b/BackTest/2019-10-19 BackTest ELF.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.40000000000002</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-38.46153846153813</v>
+      </c>
       <c r="L12" t="n">
         <v>98.43000000000001</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.600000000000023</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-19.99999999999962</v>
+      </c>
       <c r="L13" t="n">
         <v>98.40000000000001</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.600000000000023</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-14.28571428571342</v>
+      </c>
       <c r="L14" t="n">
         <v>98.37</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.700000000000031</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-19.99999999999962</v>
+      </c>
       <c r="L15" t="n">
         <v>98.34</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.700000000000031</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-7.692307692308196</v>
+      </c>
       <c r="L16" t="n">
         <v>98.31</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2.000000000000028</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>19.99999999999962</v>
+      </c>
       <c r="L17" t="n">
         <v>98.33000000000001</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2.200000000000031</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L18" t="n">
         <v>98.38000000000002</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2.600000000000037</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>84.6153846153836</v>
+      </c>
       <c r="L19" t="n">
         <v>98.44000000000003</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2.600000000000037</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>84.6153846153836</v>
+      </c>
       <c r="L20" t="n">
         <v>98.55000000000001</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>2.80000000000004</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>85.7142857142847</v>
+      </c>
       <c r="L21" t="n">
         <v>98.68000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>3.30000000000004</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>29.41176470588206</v>
+      </c>
       <c r="L22" t="n">
         <v>98.75</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>3.600000000000037</v>
       </c>
       <c r="K23" t="n">
-        <v>14.28571428571417</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L23" t="n">
         <v>98.83000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>3.600000000000037</v>
       </c>
       <c r="K24" t="n">
-        <v>14.28571428571417</v>
+        <v>47.36842105263174</v>
       </c>
       <c r="L24" t="n">
         <v>98.91</v>
@@ -1515,7 +1537,7 @@
         <v>3.700000000000045</v>
       </c>
       <c r="K25" t="n">
-        <v>14.28571428571417</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L25" t="n">
         <v>98.99000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>3.700000000000045</v>
       </c>
       <c r="K26" t="n">
-        <v>14.28571428571417</v>
+        <v>29.41176470588206</v>
       </c>
       <c r="L26" t="n">
         <v>99.07000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>4.600000000000051</v>
       </c>
       <c r="K27" t="n">
-        <v>38.09523809523755</v>
+        <v>49.99999999999971</v>
       </c>
       <c r="L27" t="n">
         <v>99.21000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>4.700000000000045</v>
       </c>
       <c r="K28" t="n">
-        <v>38.09523809523802</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L28" t="n">
         <v>99.32000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>5.80000000000004</v>
       </c>
       <c r="K30" t="n">
-        <v>64.44444444444416</v>
+        <v>53.33333333333314</v>
       </c>
       <c r="L30" t="n">
         <v>99.57000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>5.80000000000004</v>
       </c>
       <c r="K31" t="n">
-        <v>64.44444444444416</v>
+        <v>83.99999999999977</v>
       </c>
       <c r="L31" t="n">
         <v>99.73</v>
@@ -1860,7 +1882,7 @@
         <v>5.80000000000004</v>
       </c>
       <c r="K32" t="n">
-        <v>63.63636363636328</v>
+        <v>81.81818181818159</v>
       </c>
       <c r="L32" t="n">
         <v>99.94000000000003</v>
@@ -1911,7 +1933,7 @@
         <v>6.80000000000004</v>
       </c>
       <c r="K33" t="n">
-        <v>69.2307692307689</v>
+        <v>87.49999999999983</v>
       </c>
       <c r="L33" t="n">
         <v>100.22</v>
@@ -1962,7 +1984,7 @@
         <v>6.80000000000004</v>
       </c>
       <c r="K34" t="n">
-        <v>69.2307692307689</v>
+        <v>93.54838709677455</v>
       </c>
       <c r="L34" t="n">
         <v>100.5</v>
@@ -2013,7 +2035,7 @@
         <v>6.80000000000004</v>
       </c>
       <c r="K35" t="n">
-        <v>72.54901960784306</v>
+        <v>93.54838709677455</v>
       </c>
       <c r="L35" t="n">
         <v>100.79</v>
@@ -2064,7 +2086,7 @@
         <v>6.80000000000004</v>
       </c>
       <c r="K36" t="n">
-        <v>72.54901960784306</v>
+        <v>90.90909090909139</v>
       </c>
       <c r="L36" t="n">
         <v>101.08</v>
@@ -2115,7 +2137,7 @@
         <v>7.80000000000004</v>
       </c>
       <c r="K37" t="n">
-        <v>75.8620689655172</v>
+        <v>100</v>
       </c>
       <c r="L37" t="n">
         <v>101.38</v>
@@ -2166,7 +2188,7 @@
         <v>7.80000000000004</v>
       </c>
       <c r="K38" t="n">
-        <v>74.99999999999993</v>
+        <v>100</v>
       </c>
       <c r="L38" t="n">
         <v>101.69</v>
@@ -2217,7 +2239,7 @@
         <v>8.80000000000004</v>
       </c>
       <c r="K39" t="n">
-        <v>45.16129032258058</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>101.9</v>
@@ -2268,7 +2290,7 @@
         <v>9.80000000000004</v>
       </c>
       <c r="K40" t="n">
-        <v>52.77777777777771</v>
+        <v>50</v>
       </c>
       <c r="L40" t="n">
         <v>102.1</v>
@@ -2319,7 +2341,7 @@
         <v>10.80000000000004</v>
       </c>
       <c r="K41" t="n">
-        <v>32.49999999999993</v>
+        <v>20</v>
       </c>
       <c r="L41" t="n">
         <v>102.2</v>
@@ -2370,7 +2392,7 @@
         <v>10.80000000000004</v>
       </c>
       <c r="K42" t="n">
-        <v>41.33333333333326</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>102.3</v>
@@ -2421,7 +2443,7 @@
         <v>10.80000000000004</v>
       </c>
       <c r="K43" t="n">
-        <v>38.88888888888884</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>102.3</v>
@@ -2472,7 +2494,7 @@
         <v>10.80000000000004</v>
       </c>
       <c r="K44" t="n">
-        <v>38.88888888888884</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>102.3</v>
@@ -2523,7 +2545,7 @@
         <v>11.80000000000004</v>
       </c>
       <c r="K45" t="n">
-        <v>23.45679012345688</v>
+        <v>-20</v>
       </c>
       <c r="L45" t="n">
         <v>102.2</v>
@@ -2574,7 +2596,7 @@
         <v>11.80000000000004</v>
       </c>
       <c r="K46" t="n">
-        <v>23.45679012345688</v>
+        <v>-50</v>
       </c>
       <c r="L46" t="n">
         <v>102.1</v>
@@ -2625,7 +2647,7 @@
         <v>11.80000000000004</v>
       </c>
       <c r="K47" t="n">
-        <v>13.88888888888891</v>
+        <v>-50</v>
       </c>
       <c r="L47" t="n">
         <v>101.9</v>
@@ -2676,7 +2698,7 @@
         <v>12.80000000000004</v>
       </c>
       <c r="K48" t="n">
-        <v>1.234567901234499</v>
+        <v>-50</v>
       </c>
       <c r="L48" t="n">
         <v>101.6</v>
@@ -2727,7 +2749,7 @@
         <v>12.80000000000004</v>
       </c>
       <c r="K49" t="n">
-        <v>1.234567901234499</v>
+        <v>-100</v>
       </c>
       <c r="L49" t="n">
         <v>101.4</v>
@@ -2778,7 +2800,7 @@
         <v>12.80000000000004</v>
       </c>
       <c r="K50" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L50" t="n">
         <v>101.1</v>
@@ -2829,7 +2851,7 @@
         <v>12.80000000000004</v>
       </c>
       <c r="K51" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L51" t="n">
         <v>100.9</v>
@@ -2880,7 +2902,7 @@
         <v>13.00000000000004</v>
       </c>
       <c r="K52" t="n">
-        <v>-16.6666666666667</v>
+        <v>-100</v>
       </c>
       <c r="L52" t="n">
         <v>100.68</v>
@@ -2931,7 +2953,7 @@
         <v>13.10000000000004</v>
       </c>
       <c r="K53" t="n">
-        <v>-36.50793650793648</v>
+        <v>-100</v>
       </c>
       <c r="L53" t="n">
         <v>100.45</v>
@@ -2982,7 +3004,7 @@
         <v>13.30000000000004</v>
       </c>
       <c r="K54" t="n">
-        <v>-32.30769230769222</v>
+        <v>-73.33333333333294</v>
       </c>
       <c r="L54" t="n">
         <v>100.24</v>
@@ -3033,7 +3055,7 @@
         <v>14.40000000000003</v>
       </c>
       <c r="K55" t="n">
-        <v>-13.15789473684212</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>100.24</v>
@@ -3084,7 +3106,7 @@
         <v>14.40000000000003</v>
       </c>
       <c r="K56" t="n">
-        <v>-13.15789473684212</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>100.24</v>
@@ -3135,7 +3157,7 @@
         <v>14.40000000000003</v>
       </c>
       <c r="K57" t="n">
-        <v>-30.30303030303033</v>
+        <v>62.50000000000022</v>
       </c>
       <c r="L57" t="n">
         <v>100.24</v>
@@ -3186,7 +3208,7 @@
         <v>14.40000000000003</v>
       </c>
       <c r="K58" t="n">
-        <v>-30.30303030303033</v>
+        <v>62.50000000000022</v>
       </c>
       <c r="L58" t="n">
         <v>100.34</v>
@@ -3237,7 +3259,7 @@
         <v>14.40000000000003</v>
       </c>
       <c r="K59" t="n">
-        <v>-17.85714285714288</v>
+        <v>62.50000000000022</v>
       </c>
       <c r="L59" t="n">
         <v>100.44</v>
@@ -3288,7 +3310,7 @@
         <v>14.40000000000003</v>
       </c>
       <c r="K60" t="n">
-        <v>-43.47826086956527</v>
+        <v>62.50000000000022</v>
       </c>
       <c r="L60" t="n">
         <v>100.54</v>
@@ -3339,7 +3361,7 @@
         <v>15.40000000000003</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>91.66666666666711</v>
       </c>
       <c r="L61" t="n">
         <v>100.74</v>
@@ -3390,7 +3412,7 @@
         <v>16.40000000000003</v>
       </c>
       <c r="K62" t="n">
-        <v>-17.85714285714288</v>
+        <v>39.39393939393934</v>
       </c>
       <c r="L62" t="n">
         <v>100.86</v>
@@ -3441,7 +3463,7 @@
         <v>16.40000000000003</v>
       </c>
       <c r="K63" t="n">
-        <v>-17.85714285714288</v>
+        <v>35.48387096774182</v>
       </c>
       <c r="L63" t="n">
         <v>100.99</v>
@@ -3492,7 +3514,7 @@
         <v>16.40000000000003</v>
       </c>
       <c r="K64" t="n">
-        <v>-17.85714285714288</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>101.1</v>
@@ -3594,7 +3616,7 @@
         <v>17.40000000000003</v>
       </c>
       <c r="K66" t="n">
-        <v>17.85714285714288</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L66" t="n">
         <v>101.2</v>
@@ -3696,7 +3718,7 @@
         <v>18.40000000000003</v>
       </c>
       <c r="K68" t="n">
-        <v>17.85714285714288</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>101.2</v>
@@ -3747,7 +3769,7 @@
         <v>18.40000000000003</v>
       </c>
       <c r="K69" t="n">
-        <v>17.85714285714288</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>101.2</v>
@@ -3798,7 +3820,7 @@
         <v>18.40000000000003</v>
       </c>
       <c r="K70" t="n">
-        <v>17.85714285714288</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L70" t="n">
         <v>101.2</v>
@@ -3849,7 +3871,7 @@
         <v>19.40000000000003</v>
       </c>
       <c r="K71" t="n">
-        <v>30.30303030303033</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L71" t="n">
         <v>101.2</v>
@@ -3900,7 +3922,7 @@
         <v>21.40000000000003</v>
       </c>
       <c r="K72" t="n">
-        <v>2.380952380952417</v>
+        <v>-20</v>
       </c>
       <c r="L72" t="n">
         <v>101.1</v>
@@ -3951,7 +3973,7 @@
         <v>22.40000000000003</v>
       </c>
       <c r="K73" t="n">
-        <v>13.97849462365589</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>101.1</v>
@@ -4002,7 +4024,7 @@
         <v>23.40000000000003</v>
       </c>
       <c r="K74" t="n">
-        <v>0.9900990099009345</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L74" t="n">
         <v>101</v>
@@ -4053,7 +4075,7 @@
         <v>23.60000000000004</v>
       </c>
       <c r="K75" t="n">
-        <v>-13.04347826086959</v>
+        <v>-35.48387096774196</v>
       </c>
       <c r="L75" t="n">
         <v>100.88</v>
@@ -4104,7 +4126,7 @@
         <v>23.70000000000003</v>
       </c>
       <c r="K76" t="n">
-        <v>-13.97849462365589</v>
+        <v>-24.52830188679241</v>
       </c>
       <c r="L76" t="n">
         <v>100.65</v>
@@ -4155,7 +4177,7 @@
         <v>25.40000000000003</v>
       </c>
       <c r="K77" t="n">
-        <v>-27.27272727272727</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L77" t="n">
         <v>100.35</v>
@@ -4206,7 +4228,7 @@
         <v>25.40000000000003</v>
       </c>
       <c r="K78" t="n">
-        <v>-27.27272727272727</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L78" t="n">
         <v>100.05</v>
@@ -4257,7 +4279,7 @@
         <v>25.50000000000003</v>
       </c>
       <c r="K79" t="n">
-        <v>-27.92792792792789</v>
+        <v>-43.66197183098587</v>
       </c>
       <c r="L79" t="n">
         <v>99.74000000000001</v>
@@ -4308,7 +4330,7 @@
         <v>25.60000000000002</v>
       </c>
       <c r="K80" t="n">
-        <v>-26.78571428571431</v>
+        <v>-64.51612903225819</v>
       </c>
       <c r="L80" t="n">
         <v>99.44000000000001</v>
@@ -4359,7 +4381,7 @@
         <v>25.70000000000002</v>
       </c>
       <c r="K81" t="n">
-        <v>-39.80582524271846</v>
+        <v>-48.83720930232564</v>
       </c>
       <c r="L81" t="n">
         <v>99.03000000000002</v>
@@ -4410,7 +4432,7 @@
         <v>26.20000000000002</v>
       </c>
       <c r="K82" t="n">
-        <v>-26.53061224489795</v>
+        <v>-68.4210526315791</v>
       </c>
       <c r="L82" t="n">
         <v>98.87000000000003</v>
@@ -4461,7 +4483,7 @@
         <v>26.50000000000001</v>
       </c>
       <c r="K83" t="n">
-        <v>-22.77227722772279</v>
+        <v>-41.93548387096792</v>
       </c>
       <c r="L83" t="n">
         <v>98.64000000000003</v>
@@ -4512,7 +4534,7 @@
         <v>26.90000000000002</v>
       </c>
       <c r="K84" t="n">
-        <v>-25.71428571428578</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L84" t="n">
         <v>98.47000000000003</v>
@@ -4563,7 +4585,7 @@
         <v>27.20000000000002</v>
       </c>
       <c r="K85" t="n">
-        <v>-27.77777777777782</v>
+        <v>-48.57142857142885</v>
       </c>
       <c r="L85" t="n">
         <v>98.29000000000003</v>
@@ -4614,7 +4636,7 @@
         <v>27.20000000000002</v>
       </c>
       <c r="K86" t="n">
-        <v>-40.81632653061232</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>98.12000000000003</v>
@@ -4665,7 +4687,7 @@
         <v>27.90000000000002</v>
       </c>
       <c r="K87" t="n">
-        <v>-24.21052631578948</v>
+        <v>28.00000000000027</v>
       </c>
       <c r="L87" t="n">
         <v>98.19000000000003</v>
@@ -4716,7 +4738,7 @@
         <v>28.50000000000003</v>
       </c>
       <c r="K88" t="n">
-        <v>-28.71287128712878</v>
+        <v>6.666666666666288</v>
       </c>
       <c r="L88" t="n">
         <v>98.20000000000002</v>
@@ -4767,7 +4789,7 @@
         <v>29.20000000000003</v>
       </c>
       <c r="K89" t="n">
-        <v>-20.3703703703704</v>
+        <v>22.22222222222209</v>
       </c>
       <c r="L89" t="n">
         <v>98.29000000000002</v>
@@ -4818,7 +4840,7 @@
         <v>29.30000000000004</v>
       </c>
       <c r="K90" t="n">
-        <v>-19.2660550458715</v>
+        <v>27.7777777777776</v>
       </c>
       <c r="L90" t="n">
         <v>98.38000000000002</v>
@@ -4869,7 +4891,7 @@
         <v>29.60000000000005</v>
       </c>
       <c r="K91" t="n">
-        <v>-33.33333333333333</v>
+        <v>5.882352941176077</v>
       </c>
       <c r="L91" t="n">
         <v>98.45000000000002</v>
@@ -4920,7 +4942,7 @@
         <v>29.90000000000005</v>
       </c>
       <c r="K92" t="n">
-        <v>-20</v>
+        <v>-11.76470588235299</v>
       </c>
       <c r="L92" t="n">
         <v>98.44000000000003</v>
@@ -4971,7 +4993,7 @@
         <v>30.10000000000005</v>
       </c>
       <c r="K93" t="n">
-        <v>-37.66233766233766</v>
+        <v>-6.250000000000028</v>
       </c>
       <c r="L93" t="n">
         <v>98.38000000000002</v>
@@ -5022,7 +5044,7 @@
         <v>30.40000000000006</v>
       </c>
       <c r="K94" t="n">
-        <v>-22.85714285714268</v>
+        <v>12.5</v>
       </c>
       <c r="L94" t="n">
         <v>98.39000000000003</v>
@@ -5073,7 +5095,7 @@
         <v>30.60000000000005</v>
       </c>
       <c r="K95" t="n">
-        <v>-17.14285714285715</v>
+        <v>17.64705882352907</v>
       </c>
       <c r="L95" t="n">
         <v>98.45000000000002</v>
@@ -5124,7 +5146,7 @@
         <v>30.60000000000005</v>
       </c>
       <c r="K96" t="n">
-        <v>-15.94202898550732</v>
+        <v>-3.703703703703977</v>
       </c>
       <c r="L96" t="n">
         <v>98.51000000000002</v>
@@ -5175,7 +5197,7 @@
         <v>30.60000000000005</v>
       </c>
       <c r="K97" t="n">
-        <v>11.53846153846139</v>
+        <v>23.80952380952355</v>
       </c>
       <c r="L97" t="n">
         <v>98.5</v>
@@ -5226,7 +5248,7 @@
         <v>30.60000000000005</v>
       </c>
       <c r="K98" t="n">
-        <v>11.53846153846139</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L98" t="n">
         <v>98.54999999999998</v>
@@ -5277,7 +5299,7 @@
         <v>30.60000000000005</v>
       </c>
       <c r="K99" t="n">
-        <v>13.72549019607815</v>
+        <v>-23.07692307692375</v>
       </c>
       <c r="L99" t="n">
         <v>98.53</v>
@@ -5328,7 +5350,7 @@
         <v>30.60000000000005</v>
       </c>
       <c r="K100" t="n">
-        <v>11.99999999999982</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>98.49999999999999</v>
@@ -5379,7 +5401,7 @@
         <v>30.60000000000005</v>
       </c>
       <c r="K101" t="n">
-        <v>14.28571428571395</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L101" t="n">
         <v>98.49999999999999</v>
@@ -5430,7 +5452,7 @@
         <v>31.00000000000004</v>
       </c>
       <c r="K102" t="n">
-        <v>-4.166666666666704</v>
+        <v>11.11111111111216</v>
       </c>
       <c r="L102" t="n">
         <v>98.48999999999998</v>
@@ -5481,7 +5503,7 @@
         <v>31.10000000000004</v>
       </c>
       <c r="K103" t="n">
-        <v>-8.695652173913123</v>
+        <v>-14.28571428571603</v>
       </c>
       <c r="L103" t="n">
         <v>98.50999999999998</v>
@@ -5532,7 +5554,7 @@
         <v>32.20000000000005</v>
       </c>
       <c r="K104" t="n">
-        <v>20.75471698113214</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L104" t="n">
         <v>98.60999999999999</v>
@@ -5583,7 +5605,7 @@
         <v>32.60000000000005</v>
       </c>
       <c r="K105" t="n">
-        <v>18.5185185185184</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L105" t="n">
         <v>98.64999999999999</v>
@@ -5634,7 +5656,7 @@
         <v>33.10000000000005</v>
       </c>
       <c r="K106" t="n">
-        <v>25.42372881355918</v>
+        <v>36.00000000000023</v>
       </c>
       <c r="L106" t="n">
         <v>98.73999999999999</v>
@@ -5685,7 +5707,7 @@
         <v>33.10000000000005</v>
       </c>
       <c r="K107" t="n">
-        <v>15.38461538461524</v>
+        <v>36.00000000000023</v>
       </c>
       <c r="L107" t="n">
         <v>98.83000000000001</v>
@@ -5736,7 +5758,7 @@
         <v>33.20000000000005</v>
       </c>
       <c r="K108" t="n">
-        <v>31.91489361702116</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L108" t="n">
         <v>98.93000000000001</v>
@@ -5787,7 +5809,7 @@
         <v>33.40000000000003</v>
       </c>
       <c r="K109" t="n">
-        <v>14.28571428571448</v>
+        <v>28.57142857142915</v>
       </c>
       <c r="L109" t="n">
         <v>99.01000000000001</v>
@@ -5838,7 +5860,7 @@
         <v>35.00000000000003</v>
       </c>
       <c r="K110" t="n">
-        <v>36.84210526315787</v>
+        <v>54.54545454545495</v>
       </c>
       <c r="L110" t="n">
         <v>99.24999999999999</v>
@@ -5889,7 +5911,7 @@
         <v>36.30000000000003</v>
       </c>
       <c r="K111" t="n">
-        <v>16.41791044776138</v>
+        <v>28.30188679245292</v>
       </c>
       <c r="L111" t="n">
         <v>99.35999999999999</v>
@@ -5940,7 +5962,7 @@
         <v>36.40000000000002</v>
       </c>
       <c r="K112" t="n">
-        <v>23.07692307692318</v>
+        <v>28.30188679245292</v>
       </c>
       <c r="L112" t="n">
         <v>99.51999999999998</v>
@@ -5991,7 +6013,7 @@
         <v>36.50000000000003</v>
       </c>
       <c r="K113" t="n">
-        <v>28.12500000000028</v>
+        <v>11.62790697674423</v>
       </c>
       <c r="L113" t="n">
         <v>99.67999999999999</v>
@@ -6042,7 +6064,7 @@
         <v>36.50000000000003</v>
       </c>
       <c r="K114" t="n">
-        <v>24.59016393442637</v>
+        <v>23.07692307692336</v>
       </c>
       <c r="L114" t="n">
         <v>99.73</v>
@@ -6093,7 +6115,7 @@
         <v>36.50000000000003</v>
       </c>
       <c r="K115" t="n">
-        <v>22.03389830508502</v>
+        <v>11.76470588235319</v>
       </c>
       <c r="L115" t="n">
         <v>99.82000000000001</v>
@@ -6144,7 +6166,7 @@
         <v>36.50000000000003</v>
       </c>
       <c r="K116" t="n">
-        <v>22.03389830508502</v>
+        <v>11.76470588235319</v>
       </c>
       <c r="L116" t="n">
         <v>99.86000000000001</v>
@@ -6195,7 +6217,7 @@
         <v>37.00000000000003</v>
       </c>
       <c r="K117" t="n">
-        <v>12.50000000000022</v>
+        <v>-5.263157894736566</v>
       </c>
       <c r="L117" t="n">
         <v>99.85000000000002</v>
@@ -6246,7 +6268,7 @@
         <v>37.10000000000002</v>
       </c>
       <c r="K118" t="n">
-        <v>13.84615384615399</v>
+        <v>2.702702702702557</v>
       </c>
       <c r="L118" t="n">
         <v>99.84000000000002</v>
@@ -6297,7 +6319,7 @@
         <v>37.40000000000002</v>
       </c>
       <c r="K119" t="n">
-        <v>8.823529411764872</v>
+        <v>-75.00000000000014</v>
       </c>
       <c r="L119" t="n">
         <v>99.82000000000002</v>
@@ -6348,7 +6370,7 @@
         <v>37.90000000000002</v>
       </c>
       <c r="K120" t="n">
-        <v>15.06849315068511</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>99.69000000000001</v>
@@ -6399,7 +6421,7 @@
         <v>38.00000000000003</v>
       </c>
       <c r="K121" t="n">
-        <v>13.51351351351356</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L121" t="n">
         <v>99.67999999999999</v>
@@ -6450,7 +6472,7 @@
         <v>38.00000000000003</v>
       </c>
       <c r="K122" t="n">
-        <v>19.99999999999992</v>
+        <v>-20.00000000000076</v>
       </c>
       <c r="L122" t="n">
         <v>99.66</v>
@@ -6501,7 +6523,7 @@
         <v>38.20000000000002</v>
       </c>
       <c r="K123" t="n">
-        <v>15.49295774647904</v>
+        <v>-29.41176470588255</v>
       </c>
       <c r="L123" t="n">
         <v>99.61</v>
@@ -6552,7 +6574,7 @@
         <v>38.50000000000001</v>
       </c>
       <c r="K124" t="n">
-        <v>4.761904761904741</v>
+        <v>-10.00000000000021</v>
       </c>
       <c r="L124" t="n">
         <v>99.59</v>
@@ -6603,7 +6625,7 @@
         <v>38.60000000000002</v>
       </c>
       <c r="K125" t="n">
-        <v>9.999999999999952</v>
+        <v>-14.28571428571487</v>
       </c>
       <c r="L125" t="n">
         <v>99.56</v>
@@ -6654,7 +6676,7 @@
         <v>38.60000000000002</v>
       </c>
       <c r="K126" t="n">
-        <v>1.818181818181724</v>
+        <v>12.49999999999933</v>
       </c>
       <c r="L126" t="n">
         <v>99.53</v>
@@ -6756,7 +6778,7 @@
         <v>38.70000000000002</v>
       </c>
       <c r="K128" t="n">
-        <v>-1.818181818181724</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L128" t="n">
         <v>99.54000000000001</v>
@@ -6807,7 +6829,7 @@
         <v>38.70000000000002</v>
       </c>
       <c r="K129" t="n">
-        <v>1.886792452830088</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L129" t="n">
         <v>99.57000000000001</v>
@@ -6858,7 +6880,7 @@
         <v>39.20000000000002</v>
       </c>
       <c r="K130" t="n">
-        <v>-23.80952380952387</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L130" t="n">
         <v>99.59999999999999</v>
@@ -6909,7 +6931,7 @@
         <v>39.30000000000001</v>
       </c>
       <c r="K131" t="n">
-        <v>6.666666666666793</v>
+        <v>23.07692307692426</v>
       </c>
       <c r="L131" t="n">
         <v>99.63000000000001</v>
@@ -6960,7 +6982,7 @@
         <v>39.40000000000001</v>
       </c>
       <c r="K132" t="n">
-        <v>6.666666666666793</v>
+        <v>50</v>
       </c>
       <c r="L132" t="n">
         <v>99.67000000000002</v>
@@ -7011,7 +7033,7 @@
         <v>39.40000000000001</v>
       </c>
       <c r="K133" t="n">
-        <v>3.448275862068797</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L133" t="n">
         <v>99.73000000000003</v>
@@ -7062,7 +7084,7 @@
         <v>40.40000000000001</v>
       </c>
       <c r="K134" t="n">
-        <v>28.20512820512822</v>
+        <v>77.77777777777884</v>
       </c>
       <c r="L134" t="n">
         <v>99.86000000000001</v>
@@ -7113,7 +7135,7 @@
         <v>40.40000000000001</v>
       </c>
       <c r="K135" t="n">
-        <v>28.20512820512822</v>
+        <v>77.77777777777884</v>
       </c>
       <c r="L135" t="n">
         <v>100</v>
@@ -7164,7 +7186,7 @@
         <v>40.40000000000001</v>
       </c>
       <c r="K136" t="n">
-        <v>28.20512820512822</v>
+        <v>88.23529411764764</v>
       </c>
       <c r="L136" t="n">
         <v>100.14</v>
@@ -7215,7 +7237,7 @@
         <v>40.40000000000001</v>
       </c>
       <c r="K137" t="n">
-        <v>47.05882352941192</v>
+        <v>88.23529411764764</v>
       </c>
       <c r="L137" t="n">
         <v>100.29</v>
@@ -7266,7 +7288,7 @@
         <v>41.40000000000001</v>
       </c>
       <c r="K138" t="n">
-        <v>58.13953488372115</v>
+        <v>92.59259259259298</v>
       </c>
       <c r="L138" t="n">
         <v>100.54</v>
@@ -7317,7 +7339,7 @@
         <v>41.40000000000001</v>
       </c>
       <c r="K139" t="n">
-        <v>70.00000000000017</v>
+        <v>90.90909090909139</v>
       </c>
       <c r="L139" t="n">
         <v>100.79</v>
@@ -7368,7 +7390,7 @@
         <v>42.40000000000001</v>
       </c>
       <c r="K140" t="n">
-        <v>28.88888888888892</v>
+        <v>35.48387096774182</v>
       </c>
       <c r="L140" t="n">
         <v>100.89</v>
@@ -7419,7 +7441,7 @@
         <v>43.40000000000001</v>
       </c>
       <c r="K141" t="n">
-        <v>7.407407407407544</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>100.9</v>
@@ -7470,7 +7492,7 @@
         <v>45.40000000000001</v>
       </c>
       <c r="K142" t="n">
-        <v>32.43243243243261</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L142" t="n">
         <v>101.1</v>
@@ -7521,7 +7543,7 @@
         <v>47.40000000000001</v>
       </c>
       <c r="K143" t="n">
-        <v>6.521739130434728</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L143" t="n">
         <v>101.1</v>
@@ -7572,7 +7594,7 @@
         <v>47.40000000000001</v>
       </c>
       <c r="K144" t="n">
-        <v>3.370786516853904</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L144" t="n">
         <v>101</v>
@@ -7623,7 +7645,7 @@
         <v>48.40000000000001</v>
       </c>
       <c r="K145" t="n">
-        <v>14.28571428571437</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
         <v>101</v>
@@ -7674,7 +7696,7 @@
         <v>49.90000000000001</v>
       </c>
       <c r="K146" t="n">
-        <v>-0.8849557522123405</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L146" t="n">
         <v>100.85</v>
@@ -7725,7 +7747,7 @@
         <v>52.40000000000001</v>
       </c>
       <c r="K147" t="n">
-        <v>18.24817518248177</v>
+        <v>0</v>
       </c>
       <c r="L147" t="n">
         <v>100.95</v>
@@ -7776,7 +7798,7 @@
         <v>52.40000000000001</v>
       </c>
       <c r="K148" t="n">
-        <v>18.24817518248177</v>
+        <v>0</v>
       </c>
       <c r="L148" t="n">
         <v>100.95</v>
@@ -7827,7 +7849,7 @@
         <v>53.40000000000001</v>
       </c>
       <c r="K149" t="n">
-        <v>10.20408163265307</v>
+        <v>0</v>
       </c>
       <c r="L149" t="n">
         <v>100.85</v>
@@ -7929,7 +7951,7 @@
         <v>55.40000000000001</v>
       </c>
       <c r="K151" t="n">
-        <v>6.83229813664593</v>
+        <v>-10</v>
       </c>
       <c r="L151" t="n">
         <v>100.85</v>
@@ -8082,7 +8104,7 @@
         <v>56.5</v>
       </c>
       <c r="K154" t="n">
-        <v>-6.83229813664593</v>
+        <v>-13.58024691358018</v>
       </c>
       <c r="L154" t="n">
         <v>100.64</v>
@@ -8133,7 +8155,7 @@
         <v>56.59999999999999</v>
       </c>
       <c r="K155" t="n">
-        <v>-6.172839506172844</v>
+        <v>7.462686567164193</v>
       </c>
       <c r="L155" t="n">
         <v>100.54</v>
@@ -8184,7 +8206,7 @@
         <v>57.59999999999999</v>
       </c>
       <c r="K156" t="n">
-        <v>0</v>
+        <v>-19.23076923076927</v>
       </c>
       <c r="L156" t="n">
         <v>100.69</v>
@@ -8235,7 +8257,7 @@
         <v>58.69999999999999</v>
       </c>
       <c r="K157" t="n">
-        <v>-6.010928961748609</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L157" t="n">
         <v>100.48</v>
@@ -8286,7 +8308,7 @@
         <v>59.79999999999998</v>
       </c>
       <c r="K158" t="n">
-        <v>-5.434782608695659</v>
+        <v>0</v>
       </c>
       <c r="L158" t="n">
         <v>100.38</v>
@@ -8337,7 +8359,7 @@
         <v>60.89999999999998</v>
       </c>
       <c r="K159" t="n">
-        <v>-10.76923076923076</v>
+        <v>-1.538461538461458</v>
       </c>
       <c r="L159" t="n">
         <v>100.27</v>
@@ -8388,7 +8410,7 @@
         <v>61.29999999999998</v>
       </c>
       <c r="K160" t="n">
-        <v>-7.936507936507946</v>
+        <v>-25.42372881355942</v>
       </c>
       <c r="L160" t="n">
         <v>100.22</v>
@@ -8439,7 +8461,7 @@
         <v>61.29999999999998</v>
       </c>
       <c r="K161" t="n">
-        <v>-2.793296089385478</v>
+        <v>-10.20408163265311</v>
       </c>
       <c r="L161" t="n">
         <v>100.07</v>
@@ -8490,7 +8512,7 @@
         <v>61.79999999999998</v>
       </c>
       <c r="K162" t="n">
-        <v>-18.29268292682929</v>
+        <v>-18.51851851851859</v>
       </c>
       <c r="L162" t="n">
         <v>99.97000000000003</v>
@@ -8541,7 +8563,7 @@
         <v>62.09999999999998</v>
       </c>
       <c r="K163" t="n">
-        <v>-8.843537414965983</v>
+        <v>-21.42857142857155</v>
       </c>
       <c r="L163" t="n">
         <v>99.84000000000003</v>
@@ -8592,7 +8614,7 @@
         <v>62.29999999999998</v>
       </c>
       <c r="K164" t="n">
-        <v>-7.382550335570443</v>
+        <v>-19.29824561403503</v>
       </c>
       <c r="L164" t="n">
         <v>99.74000000000004</v>
@@ -8643,7 +8665,7 @@
         <v>62.49999999999999</v>
       </c>
       <c r="K165" t="n">
-        <v>-16.31205673758866</v>
+        <v>-46.9387755102041</v>
       </c>
       <c r="L165" t="n">
         <v>99.61000000000004</v>
@@ -8694,7 +8716,7 @@
         <v>62.59999999999999</v>
       </c>
       <c r="K166" t="n">
-        <v>-7.086614173228398</v>
+        <v>-33.33333333333358</v>
       </c>
       <c r="L166" t="n">
         <v>99.37000000000003</v>
@@ -8745,7 +8767,7 @@
         <v>62.69999999999999</v>
       </c>
       <c r="K167" t="n">
-        <v>-33.9805825242719</v>
+        <v>-86.20689655172397</v>
       </c>
       <c r="L167" t="n">
         <v>99.23000000000003</v>
@@ -8796,7 +8818,7 @@
         <v>62.89999999999999</v>
       </c>
       <c r="K168" t="n">
-        <v>-31.42857142857144</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L168" t="n">
         <v>99.00000000000003</v>
@@ -8847,7 +8869,7 @@
         <v>63.09999999999999</v>
       </c>
       <c r="K169" t="n">
-        <v>-21.64948453608244</v>
+        <v>-33.33333333333281</v>
       </c>
       <c r="L169" t="n">
         <v>98.90000000000003</v>
@@ -8898,7 +8920,7 @@
         <v>63.7</v>
       </c>
       <c r="K170" t="n">
-        <v>-18.27956989247316</v>
+        <v>-49.99999999999971</v>
       </c>
       <c r="L170" t="n">
         <v>98.78000000000004</v>
@@ -8949,7 +8971,7 @@
         <v>63.7</v>
       </c>
       <c r="K171" t="n">
-        <v>-32.53012048192775</v>
+        <v>-36.84210526315766</v>
       </c>
       <c r="L171" t="n">
         <v>98.66000000000004</v>
@@ -9000,7 +9022,7 @@
         <v>63.8</v>
       </c>
       <c r="K172" t="n">
-        <v>-24.32432432432432</v>
+        <v>-29.41176470588206</v>
       </c>
       <c r="L172" t="n">
         <v>98.58000000000004</v>
@@ -9051,7 +9073,7 @@
         <v>64</v>
       </c>
       <c r="K173" t="n">
-        <v>-26.31578947368423</v>
+        <v>-52.94117647058803</v>
       </c>
       <c r="L173" t="n">
         <v>98.51000000000003</v>
@@ -9102,7 +9124,7 @@
         <v>64</v>
       </c>
       <c r="K174" t="n">
-        <v>-25.33333333333341</v>
+        <v>-46.66666666666642</v>
       </c>
       <c r="L174" t="n">
         <v>98.42000000000004</v>
@@ -9153,7 +9175,7 @@
         <v>64.09999999999999</v>
       </c>
       <c r="K175" t="n">
-        <v>-27.99999999999993</v>
+        <v>-46.6666666666659</v>
       </c>
       <c r="L175" t="n">
         <v>98.34000000000003</v>
@@ -9204,7 +9226,7 @@
         <v>64.49999999999999</v>
       </c>
       <c r="K176" t="n">
-        <v>-39.13043478260879</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L176" t="n">
         <v>98.31000000000003</v>
@@ -9255,7 +9277,7 @@
         <v>64.89999999999998</v>
       </c>
       <c r="K177" t="n">
-        <v>-32.2580645161291</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L177" t="n">
         <v>98.25000000000003</v>
@@ -9306,7 +9328,7 @@
         <v>64.89999999999998</v>
       </c>
       <c r="K178" t="n">
-        <v>-60.78431372549016</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L178" t="n">
         <v>98.17000000000003</v>
@@ -9357,7 +9379,7 @@
         <v>65.49999999999999</v>
       </c>
       <c r="K179" t="n">
-        <v>-56.52173913043487</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L179" t="n">
         <v>98.01000000000002</v>
@@ -9408,7 +9430,7 @@
         <v>66.09999999999999</v>
       </c>
       <c r="K180" t="n">
-        <v>-33.33333333333314</v>
+        <v>-16.66666666666637</v>
       </c>
       <c r="L180" t="n">
         <v>97.97000000000003</v>
@@ -9459,7 +9481,7 @@
         <v>66.19999999999999</v>
       </c>
       <c r="K181" t="n">
-        <v>-30.61224489795914</v>
+        <v>-8.333333333333481</v>
       </c>
       <c r="L181" t="n">
         <v>97.94000000000003</v>
@@ -9510,7 +9532,7 @@
         <v>66.29999999999998</v>
       </c>
       <c r="K182" t="n">
-        <v>-20.00000000000012</v>
+        <v>4.347826086956307</v>
       </c>
       <c r="L182" t="n">
         <v>97.93000000000002</v>
@@ -9561,7 +9583,7 @@
         <v>66.49999999999997</v>
       </c>
       <c r="K183" t="n">
-        <v>-18.18181818181815</v>
+        <v>-3.999999999999818</v>
       </c>
       <c r="L183" t="n">
         <v>97.92000000000003</v>
@@ -9612,7 +9634,7 @@
         <v>67.29999999999998</v>
       </c>
       <c r="K184" t="n">
-        <v>-36.00000000000023</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L184" t="n">
         <v>97.83000000000001</v>
@@ -9663,7 +9685,7 @@
         <v>67.89999999999999</v>
       </c>
       <c r="K185" t="n">
-        <v>-18.5185185185185</v>
+        <v>-17.64705882352921</v>
       </c>
       <c r="L185" t="n">
         <v>97.81000000000003</v>
@@ -9714,7 +9736,7 @@
         <v>68.5</v>
       </c>
       <c r="K186" t="n">
-        <v>-25.4237288135593</v>
+        <v>-22.2222222222224</v>
       </c>
       <c r="L186" t="n">
         <v>97.69000000000003</v>
@@ -9765,7 +9787,7 @@
         <v>69.2</v>
       </c>
       <c r="K187" t="n">
-        <v>-10.76923076923079</v>
+        <v>-2.325581395349022</v>
       </c>
       <c r="L187" t="n">
         <v>97.68000000000004</v>
@@ -9816,7 +9838,7 @@
         <v>69.2</v>
       </c>
       <c r="K188" t="n">
-        <v>-14.28571428571435</v>
+        <v>13.51351351351345</v>
       </c>
       <c r="L188" t="n">
         <v>97.67000000000004</v>
@@ -9867,7 +9889,7 @@
         <v>69.7</v>
       </c>
       <c r="K189" t="n">
-        <v>-24.24242424242434</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L189" t="n">
         <v>97.67000000000004</v>
@@ -9918,7 +9940,7 @@
         <v>70.40000000000001</v>
       </c>
       <c r="K190" t="n">
-        <v>-4.477611940298464</v>
+        <v>0</v>
       </c>
       <c r="L190" t="n">
         <v>97.68000000000005</v>
@@ -9969,7 +9991,7 @@
         <v>70.5</v>
       </c>
       <c r="K191" t="n">
-        <v>-2.941176470588278</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
         <v>97.69000000000005</v>
@@ -10020,7 +10042,7 @@
         <v>70.5</v>
       </c>
       <c r="K192" t="n">
-        <v>-1.492537313432962</v>
+        <v>4.99999999999968</v>
       </c>
       <c r="L192" t="n">
         <v>97.69000000000004</v>
@@ -10071,7 +10093,7 @@
         <v>70.60000000000001</v>
       </c>
       <c r="K193" t="n">
-        <v>3.03030303030307</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L193" t="n">
         <v>97.72000000000004</v>
@@ -10122,7 +10144,7 @@
         <v>70.7</v>
       </c>
       <c r="K194" t="n">
-        <v>4.477611940298464</v>
+        <v>21.42857142857114</v>
       </c>
       <c r="L194" t="n">
         <v>97.84000000000005</v>
@@ -10173,7 +10195,7 @@
         <v>71.40000000000001</v>
       </c>
       <c r="K195" t="n">
-        <v>-4.10958904109604</v>
+        <v>17.24137931034479</v>
       </c>
       <c r="L195" t="n">
         <v>97.83000000000004</v>
@@ -10224,7 +10246,7 @@
         <v>71.80000000000001</v>
       </c>
       <c r="K196" t="n">
-        <v>-4.109589041095837</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L196" t="n">
         <v>97.92000000000004</v>
@@ -10275,7 +10297,7 @@
         <v>72.50000000000001</v>
       </c>
       <c r="K197" t="n">
-        <v>-7.894736842105337</v>
+        <v>-15.1515151515151</v>
       </c>
       <c r="L197" t="n">
         <v>97.87000000000005</v>
@@ -10326,7 +10348,7 @@
         <v>73.20000000000002</v>
       </c>
       <c r="K198" t="n">
-        <v>1.204819277108359</v>
+        <v>20</v>
       </c>
       <c r="L198" t="n">
         <v>97.89000000000006</v>
@@ -10377,7 +10399,7 @@
         <v>73.90000000000002</v>
       </c>
       <c r="K199" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L199" t="n">
         <v>97.89000000000006</v>
@@ -10428,7 +10450,7 @@
         <v>74.60000000000002</v>
       </c>
       <c r="K200" t="n">
-        <v>1.176470588235223</v>
+        <v>-2.43902439024375</v>
       </c>
       <c r="L200" t="n">
         <v>97.89000000000006</v>
@@ -10479,7 +10501,7 @@
         <v>74.60000000000002</v>
       </c>
       <c r="K201" t="n">
-        <v>0</v>
+        <v>-2.43902439024375</v>
       </c>
       <c r="L201" t="n">
         <v>97.88000000000005</v>
@@ -10530,7 +10552,7 @@
         <v>74.90000000000002</v>
       </c>
       <c r="K202" t="n">
-        <v>-4.651162790697555</v>
+        <v>-11.62790697674416</v>
       </c>
       <c r="L202" t="n">
         <v>97.84000000000005</v>
@@ -10581,7 +10603,7 @@
         <v>75.20000000000002</v>
       </c>
       <c r="K203" t="n">
-        <v>-5.74712643678158</v>
+        <v>-19.99999999999975</v>
       </c>
       <c r="L203" t="n">
         <v>97.76000000000003</v>
@@ -10632,7 +10654,7 @@
         <v>75.50000000000001</v>
       </c>
       <c r="K204" t="n">
-        <v>7.317073170731783</v>
+        <v>2.439024390244105</v>
       </c>
       <c r="L204" t="n">
         <v>97.70000000000005</v>
@@ -10683,7 +10705,7 @@
         <v>75.60000000000001</v>
       </c>
       <c r="K205" t="n">
-        <v>1.298701298701222</v>
+        <v>-5.263157894736921</v>
       </c>
       <c r="L205" t="n">
         <v>97.72000000000004</v>
@@ -10734,7 +10756,7 @@
         <v>75.60000000000001</v>
       </c>
       <c r="K206" t="n">
-        <v>9.859154929577493</v>
+        <v>16.12903225806455</v>
       </c>
       <c r="L206" t="n">
         <v>97.70000000000005</v>
@@ -10785,7 +10807,7 @@
         <v>76.30000000000001</v>
       </c>
       <c r="K207" t="n">
-        <v>9.859154929577493</v>
+        <v>16.12903225806455</v>
       </c>
       <c r="L207" t="n">
         <v>97.82000000000005</v>
@@ -10836,7 +10858,7 @@
         <v>76.40000000000001</v>
       </c>
       <c r="K208" t="n">
-        <v>8.333333333333448</v>
+        <v>44.00000000000059</v>
       </c>
       <c r="L208" t="n">
         <v>97.86000000000006</v>
@@ -10887,7 +10909,7 @@
         <v>76.50000000000001</v>
       </c>
       <c r="K209" t="n">
-        <v>14.70588235294115</v>
+        <v>15.78947368421045</v>
       </c>
       <c r="L209" t="n">
         <v>97.96000000000006</v>
@@ -10938,7 +10960,7 @@
         <v>76.70000000000002</v>
       </c>
       <c r="K210" t="n">
-        <v>1.587301587301494</v>
+        <v>4.761904761904504</v>
       </c>
       <c r="L210" t="n">
         <v>97.97000000000006</v>
@@ -10989,7 +11011,7 @@
         <v>76.80000000000003</v>
       </c>
       <c r="K211" t="n">
-        <v>1.587301587301716</v>
+        <v>26.31578947368413</v>
       </c>
       <c r="L211" t="n">
         <v>97.99000000000005</v>
@@ -11040,7 +11062,7 @@
         <v>77.40000000000003</v>
       </c>
       <c r="K212" t="n">
-        <v>-7.246376811594167</v>
+        <v>9.090909090908504</v>
       </c>
       <c r="L212" t="n">
         <v>97.98000000000005</v>
@@ -11091,7 +11113,7 @@
         <v>77.90000000000003</v>
       </c>
       <c r="K213" t="n">
-        <v>-1.369863013698742</v>
+        <v>16.66666666666617</v>
       </c>
       <c r="L213" t="n">
         <v>98.05000000000004</v>
@@ -11142,7 +11164,7 @@
         <v>78.40000000000003</v>
       </c>
       <c r="K214" t="n">
-        <v>-9.090909090909092</v>
+        <v>-7.142857142857179</v>
       </c>
       <c r="L214" t="n">
         <v>98.04000000000003</v>
@@ -11193,7 +11215,7 @@
         <v>78.50000000000003</v>
       </c>
       <c r="K215" t="n">
-        <v>-1.408450704225267</v>
+        <v>-10.34482758620673</v>
       </c>
       <c r="L215" t="n">
         <v>98.01000000000003</v>
@@ -11244,7 +11266,7 @@
         <v>78.50000000000003</v>
       </c>
       <c r="K216" t="n">
-        <v>-7.462686567164161</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L216" t="n">
         <v>97.98000000000005</v>
@@ -11295,7 +11317,7 @@
         <v>78.70000000000003</v>
       </c>
       <c r="K217" t="n">
-        <v>0</v>
+        <v>-47.82608695652158</v>
       </c>
       <c r="L217" t="n">
         <v>97.86000000000004</v>
@@ -11346,7 +11368,7 @@
         <v>79.20000000000003</v>
       </c>
       <c r="K218" t="n">
-        <v>-3.333333333333373</v>
+        <v>-18.5185185185184</v>
       </c>
       <c r="L218" t="n">
         <v>97.80000000000004</v>
@@ -11397,7 +11419,7 @@
         <v>79.30000000000004</v>
       </c>
       <c r="K219" t="n">
-        <v>11.11111111111123</v>
+        <v>-7.692307692307187</v>
       </c>
       <c r="L219" t="n">
         <v>97.76000000000003</v>
@@ -11448,7 +11470,7 @@
         <v>79.80000000000004</v>
       </c>
       <c r="K220" t="n">
-        <v>-11.53846153846139</v>
+        <v>-26.66666666666644</v>
       </c>
       <c r="L220" t="n">
         <v>97.69000000000004</v>
@@ -11499,7 +11521,7 @@
         <v>80.20000000000003</v>
       </c>
       <c r="K221" t="n">
-        <v>-3.571428571428617</v>
+        <v>7.142857142857252</v>
       </c>
       <c r="L221" t="n">
         <v>97.65000000000005</v>
@@ -11550,7 +11572,7 @@
         <v>80.30000000000004</v>
       </c>
       <c r="K222" t="n">
-        <v>3.703703703703742</v>
+        <v>-8.33333333333284</v>
       </c>
       <c r="L222" t="n">
         <v>97.68000000000005</v>
@@ -11601,7 +11623,7 @@
         <v>80.30000000000004</v>
       </c>
       <c r="K223" t="n">
-        <v>9.803921568627407</v>
+        <v>15.78947368421108</v>
       </c>
       <c r="L223" t="n">
         <v>97.66000000000005</v>
@@ -11652,7 +11674,7 @@
         <v>80.70000000000005</v>
       </c>
       <c r="K224" t="n">
-        <v>-3.846153846153878</v>
+        <v>0</v>
       </c>
       <c r="L224" t="n">
         <v>97.65000000000003</v>
@@ -11703,7 +11725,7 @@
         <v>80.70000000000005</v>
       </c>
       <c r="K225" t="n">
-        <v>-5.882352941176372</v>
+        <v>0</v>
       </c>
       <c r="L225" t="n">
         <v>97.65000000000005</v>
@@ -11754,7 +11776,7 @@
         <v>80.70000000000005</v>
       </c>
       <c r="K226" t="n">
-        <v>-5.882352941176372</v>
+        <v>10.00000000000007</v>
       </c>
       <c r="L226" t="n">
         <v>97.65000000000005</v>
@@ -11805,7 +11827,7 @@
         <v>80.80000000000004</v>
       </c>
       <c r="K227" t="n">
-        <v>-24.44444444444416</v>
+        <v>-24.99999999999933</v>
       </c>
       <c r="L227" t="n">
         <v>97.66000000000005</v>
@@ -11856,7 +11878,7 @@
         <v>81.30000000000004</v>
       </c>
       <c r="K228" t="n">
-        <v>-10.20408163265299</v>
+        <v>0</v>
       </c>
       <c r="L228" t="n">
         <v>97.67000000000007</v>
@@ -11907,7 +11929,7 @@
         <v>81.90000000000005</v>
       </c>
       <c r="K229" t="n">
-        <v>-18.5185185185184</v>
+        <v>-4.761904761905149</v>
       </c>
       <c r="L229" t="n">
         <v>97.61000000000007</v>
@@ -11958,7 +11980,7 @@
         <v>82.80000000000004</v>
       </c>
       <c r="K230" t="n">
-        <v>-27.8688524590161</v>
+        <v>-53.84615384615334</v>
       </c>
       <c r="L230" t="n">
         <v>97.51000000000008</v>
@@ -12009,7 +12031,7 @@
         <v>82.80000000000004</v>
       </c>
       <c r="K231" t="n">
-        <v>-29.99999999999988</v>
+        <v>-60</v>
       </c>
       <c r="L231" t="n">
         <v>97.37000000000008</v>
@@ -12060,7 +12082,7 @@
         <v>84.00000000000003</v>
       </c>
       <c r="K232" t="n">
-        <v>0</v>
+        <v>-8.108108108108441</v>
       </c>
       <c r="L232" t="n">
         <v>97.34000000000006</v>
@@ -12111,7 +12133,7 @@
         <v>84.30000000000003</v>
       </c>
       <c r="K233" t="n">
-        <v>-12.49999999999997</v>
+        <v>-5.555555555555665</v>
       </c>
       <c r="L233" t="n">
         <v>97.28000000000007</v>
@@ -12162,7 +12184,7 @@
         <v>84.60000000000002</v>
       </c>
       <c r="K234" t="n">
-        <v>0</v>
+        <v>2.564102564102433</v>
       </c>
       <c r="L234" t="n">
         <v>97.29000000000008</v>
@@ -12213,7 +12235,7 @@
         <v>84.90000000000002</v>
       </c>
       <c r="K235" t="n">
-        <v>-3.125000000000048</v>
+        <v>-4.761904761904859</v>
       </c>
       <c r="L235" t="n">
         <v>97.27000000000007</v>
@@ -12264,7 +12286,7 @@
         <v>85.20000000000002</v>
       </c>
       <c r="K236" t="n">
-        <v>1.492537313432754</v>
+        <v>4.54545454545431</v>
       </c>
       <c r="L236" t="n">
         <v>97.28000000000006</v>
@@ -12315,7 +12337,7 @@
         <v>86.60000000000001</v>
       </c>
       <c r="K237" t="n">
-        <v>-13.92405063291136</v>
+        <v>-32.07547169811345</v>
       </c>
       <c r="L237" t="n">
         <v>97.16000000000007</v>
@@ -12366,7 +12388,7 @@
         <v>87.60000000000001</v>
       </c>
       <c r="K238" t="n">
-        <v>-7.142857142857093</v>
+        <v>-1.754385964912193</v>
       </c>
       <c r="L238" t="n">
         <v>97.09000000000006</v>
@@ -12417,7 +12439,7 @@
         <v>88.60000000000001</v>
       </c>
       <c r="K239" t="n">
-        <v>-18.27956989247321</v>
+        <v>-3.448275862069033</v>
       </c>
       <c r="L239" t="n">
         <v>96.98000000000006</v>
@@ -12468,7 +12490,7 @@
         <v>88.70000000000002</v>
       </c>
       <c r="K240" t="n">
-        <v>-14.60674157303387</v>
+        <v>-5.084745762712076</v>
       </c>
       <c r="L240" t="n">
         <v>96.95000000000006</v>
@@ -12519,7 +12541,7 @@
         <v>89.80000000000003</v>
       </c>
       <c r="K241" t="n">
-        <v>-6.249999999999945</v>
+        <v>-6.896551724137788</v>
       </c>
       <c r="L241" t="n">
         <v>97.03000000000006</v>
@@ -12570,7 +12592,7 @@
         <v>89.80000000000003</v>
       </c>
       <c r="K242" t="n">
-        <v>-7.36842105263162</v>
+        <v>-1.818181818181715</v>
       </c>
       <c r="L242" t="n">
         <v>96.99000000000004</v>
@@ -12621,7 +12643,7 @@
         <v>90.20000000000002</v>
       </c>
       <c r="K243" t="n">
-        <v>-3.030303030303152</v>
+        <v>0</v>
       </c>
       <c r="L243" t="n">
         <v>97.02000000000005</v>
@@ -12672,7 +12694,7 @@
         <v>90.90000000000001</v>
       </c>
       <c r="K244" t="n">
-        <v>-5.882352941176438</v>
+        <v>-6.66666666666654</v>
       </c>
       <c r="L244" t="n">
         <v>96.95000000000006</v>

--- a/BackTest/2019-10-19 BackTest ELF.xlsx
+++ b/BackTest/2019-10-19 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S244"/>
+  <dimension ref="A1:M223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.1000000000000085</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.1000000000000085</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -611,18 +561,10 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0.2000000000000171</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -654,18 +596,10 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.2000000000000171</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1999999999999886</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.4000000000000057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5000000000000142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -783,18 +701,10 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0.8000000000000114</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.300000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.300000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>98.47</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.3999999999999915</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.40000000000002</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-38.46153846153813</v>
-      </c>
-      <c r="L12" t="n">
-        <v>98.43000000000001</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1999999999999886</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.600000000000023</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-19.99999999999962</v>
-      </c>
-      <c r="L13" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1999999999999886</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.600000000000023</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-14.28571428571342</v>
-      </c>
-      <c r="L14" t="n">
-        <v>98.37</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.700000000000031</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-19.99999999999962</v>
-      </c>
-      <c r="L15" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.700000000000031</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-7.692307692308196</v>
-      </c>
-      <c r="L16" t="n">
-        <v>98.31</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1149,22 +981,10 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>2.000000000000028</v>
-      </c>
-      <c r="K17" t="n">
-        <v>19.99999999999962</v>
-      </c>
-      <c r="L17" t="n">
-        <v>98.33000000000001</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.200000000000031</v>
-      </c>
-      <c r="K18" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L18" t="n">
-        <v>98.38000000000002</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.600000000000037</v>
-      </c>
-      <c r="K19" t="n">
-        <v>84.6153846153836</v>
-      </c>
-      <c r="L19" t="n">
-        <v>98.44000000000003</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.600000000000037</v>
-      </c>
-      <c r="K20" t="n">
-        <v>84.6153846153836</v>
-      </c>
-      <c r="L20" t="n">
-        <v>98.55000000000001</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8000000000000114</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.80000000000004</v>
-      </c>
-      <c r="K21" t="n">
-        <v>85.7142857142847</v>
-      </c>
-      <c r="L21" t="n">
-        <v>98.68000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>98.57500000000002</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3000000000000114</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.30000000000004</v>
-      </c>
-      <c r="K22" t="n">
-        <v>29.41176470588206</v>
-      </c>
-      <c r="L22" t="n">
-        <v>98.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>98.59</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.600000000000037</v>
-      </c>
-      <c r="K23" t="n">
-        <v>39.99999999999957</v>
-      </c>
-      <c r="L23" t="n">
-        <v>98.83000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>98.61499999999999</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.600000000000037</v>
-      </c>
-      <c r="K24" t="n">
-        <v>47.36842105263174</v>
-      </c>
-      <c r="L24" t="n">
-        <v>98.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>98.64</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.700000000000045</v>
-      </c>
-      <c r="K25" t="n">
-        <v>39.99999999999957</v>
-      </c>
-      <c r="L25" t="n">
-        <v>98.99000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>98.66500000000001</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.700000000000045</v>
-      </c>
-      <c r="K26" t="n">
-        <v>29.41176470588206</v>
-      </c>
-      <c r="L26" t="n">
-        <v>99.07000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>98.69000000000001</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4.600000000000051</v>
-      </c>
-      <c r="K27" t="n">
-        <v>49.99999999999971</v>
-      </c>
-      <c r="L27" t="n">
-        <v>99.21000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>98.77000000000001</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.300000000000011</v>
-      </c>
-      <c r="J28" t="n">
-        <v>4.700000000000045</v>
-      </c>
-      <c r="K28" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L28" t="n">
-        <v>99.32000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>98.85000000000001</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.300000000000011</v>
-      </c>
-      <c r="J29" t="n">
-        <v>4.700000000000045</v>
-      </c>
-      <c r="K29" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L29" t="n">
-        <v>99.39000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>98.91500000000001</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J30" t="n">
-        <v>5.80000000000004</v>
-      </c>
-      <c r="K30" t="n">
-        <v>53.33333333333314</v>
-      </c>
-      <c r="L30" t="n">
-        <v>99.57000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>99.06000000000002</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J31" t="n">
-        <v>5.80000000000004</v>
-      </c>
-      <c r="K31" t="n">
-        <v>83.99999999999977</v>
-      </c>
-      <c r="L31" t="n">
-        <v>99.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>99.20500000000001</v>
-      </c>
-      <c r="N31" t="n">
-        <v>98.95999999999999</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J32" t="n">
-        <v>5.80000000000004</v>
-      </c>
-      <c r="K32" t="n">
-        <v>81.81818181818159</v>
-      </c>
-      <c r="L32" t="n">
-        <v>99.94000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>99.34500000000001</v>
-      </c>
-      <c r="N32" t="n">
-        <v>99.03999999999999</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>3.400000000000006</v>
-      </c>
-      <c r="J33" t="n">
-        <v>6.80000000000004</v>
-      </c>
-      <c r="K33" t="n">
-        <v>87.49999999999983</v>
-      </c>
-      <c r="L33" t="n">
-        <v>100.22</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>99.52500000000002</v>
-      </c>
-      <c r="N33" t="n">
-        <v>99.15000000000001</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>3.400000000000006</v>
-      </c>
-      <c r="J34" t="n">
-        <v>6.80000000000004</v>
-      </c>
-      <c r="K34" t="n">
-        <v>93.54838709677455</v>
-      </c>
-      <c r="L34" t="n">
-        <v>100.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>99.70500000000001</v>
-      </c>
-      <c r="N34" t="n">
-        <v>99.26000000000001</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>3.400000000000006</v>
-      </c>
-      <c r="J35" t="n">
-        <v>6.80000000000004</v>
-      </c>
-      <c r="K35" t="n">
-        <v>93.54838709677455</v>
-      </c>
-      <c r="L35" t="n">
-        <v>100.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>99.89000000000001</v>
-      </c>
-      <c r="N35" t="n">
-        <v>99.37333333333335</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>3.400000000000006</v>
-      </c>
-      <c r="J36" t="n">
-        <v>6.80000000000004</v>
-      </c>
-      <c r="K36" t="n">
-        <v>90.90909090909139</v>
-      </c>
-      <c r="L36" t="n">
-        <v>101.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>100.075</v>
-      </c>
-      <c r="N36" t="n">
-        <v>99.48666666666668</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>4.400000000000006</v>
-      </c>
-      <c r="J37" t="n">
-        <v>7.80000000000004</v>
-      </c>
-      <c r="K37" t="n">
-        <v>100</v>
-      </c>
-      <c r="L37" t="n">
-        <v>101.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>100.295</v>
-      </c>
-      <c r="N37" t="n">
-        <v>99.64000000000001</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>4.400000000000006</v>
-      </c>
-      <c r="J38" t="n">
-        <v>7.80000000000004</v>
-      </c>
-      <c r="K38" t="n">
-        <v>100</v>
-      </c>
-      <c r="L38" t="n">
-        <v>101.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>100.505</v>
-      </c>
-      <c r="N38" t="n">
-        <v>99.79666666666667</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>3.400000000000006</v>
-      </c>
-      <c r="J39" t="n">
-        <v>8.80000000000004</v>
-      </c>
-      <c r="K39" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L39" t="n">
-        <v>101.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>100.645</v>
-      </c>
-      <c r="N39" t="n">
-        <v>99.91000000000001</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>4.400000000000006</v>
-      </c>
-      <c r="J40" t="n">
-        <v>9.80000000000004</v>
-      </c>
-      <c r="K40" t="n">
-        <v>50</v>
-      </c>
-      <c r="L40" t="n">
-        <v>102.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>100.835</v>
-      </c>
-      <c r="N40" t="n">
-        <v>100.0733333333333</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>3.400000000000006</v>
-      </c>
-      <c r="J41" t="n">
-        <v>10.80000000000004</v>
-      </c>
-      <c r="K41" t="n">
-        <v>20</v>
-      </c>
-      <c r="L41" t="n">
-        <v>102.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>100.965</v>
-      </c>
-      <c r="N41" t="n">
-        <v>100.2033333333333</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3.400000000000006</v>
-      </c>
-      <c r="J42" t="n">
-        <v>10.80000000000004</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>102.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>101.12</v>
-      </c>
-      <c r="N42" t="n">
-        <v>100.33</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>3.400000000000006</v>
-      </c>
-      <c r="J43" t="n">
-        <v>10.80000000000004</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>102.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>101.26</v>
-      </c>
-      <c r="N43" t="n">
-        <v>100.45</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>3.400000000000006</v>
-      </c>
-      <c r="J44" t="n">
-        <v>10.80000000000004</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>102.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="N44" t="n">
-        <v>100.57</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J45" t="n">
-        <v>11.80000000000004</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L45" t="n">
-        <v>102.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>101.495</v>
-      </c>
-      <c r="N45" t="n">
-        <v>100.66</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J46" t="n">
-        <v>11.80000000000004</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L46" t="n">
-        <v>102.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>101.5900000000001</v>
-      </c>
-      <c r="N46" t="n">
-        <v>100.75</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J47" t="n">
-        <v>11.80000000000004</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L47" t="n">
-        <v>101.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>101.6400000000001</v>
-      </c>
-      <c r="N47" t="n">
-        <v>100.83</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J48" t="n">
-        <v>12.80000000000004</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L48" t="n">
-        <v>101.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>101.6450000000001</v>
-      </c>
-      <c r="N48" t="n">
-        <v>100.87</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J49" t="n">
-        <v>12.80000000000004</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L49" t="n">
-        <v>101.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>101.65</v>
-      </c>
-      <c r="N49" t="n">
-        <v>100.8966666666667</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J50" t="n">
-        <v>12.80000000000004</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L50" t="n">
-        <v>101.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>101.6000000000001</v>
-      </c>
-      <c r="N50" t="n">
-        <v>100.9233333333333</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J51" t="n">
-        <v>12.80000000000004</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L51" t="n">
-        <v>100.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>101.55</v>
-      </c>
-      <c r="N51" t="n">
-        <v>100.9433333333333</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J52" t="n">
-        <v>13.00000000000004</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L52" t="n">
-        <v>100.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>101.4900000000001</v>
-      </c>
-      <c r="N52" t="n">
-        <v>100.9733333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1.100000000000009</v>
-      </c>
-      <c r="J53" t="n">
-        <v>13.10000000000004</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L53" t="n">
-        <v>100.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>101.375</v>
-      </c>
-      <c r="N53" t="n">
-        <v>100.99</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1.300000000000011</v>
-      </c>
-      <c r="J54" t="n">
-        <v>13.30000000000004</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-73.33333333333294</v>
-      </c>
-      <c r="L54" t="n">
-        <v>100.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>101.2700000000001</v>
-      </c>
-      <c r="N54" t="n">
-        <v>101.0133333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J55" t="n">
-        <v>14.40000000000003</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>100.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>101.2200000000001</v>
-      </c>
-      <c r="N55" t="n">
-        <v>101.0766666666667</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J56" t="n">
-        <v>14.40000000000003</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>100.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>101.17</v>
-      </c>
-      <c r="N56" t="n">
-        <v>101.14</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J57" t="n">
-        <v>14.40000000000003</v>
-      </c>
-      <c r="K57" t="n">
-        <v>62.50000000000022</v>
-      </c>
-      <c r="L57" t="n">
-        <v>100.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>101.0700000000001</v>
-      </c>
-      <c r="N57" t="n">
-        <v>101.1733333333334</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J58" t="n">
-        <v>14.40000000000003</v>
-      </c>
-      <c r="K58" t="n">
-        <v>62.50000000000022</v>
-      </c>
-      <c r="L58" t="n">
-        <v>100.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>100.9700000000001</v>
-      </c>
-      <c r="N58" t="n">
-        <v>101.21</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2449,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J59" t="n">
-        <v>14.40000000000003</v>
-      </c>
-      <c r="K59" t="n">
-        <v>62.50000000000022</v>
-      </c>
-      <c r="L59" t="n">
-        <v>100.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>100.92</v>
-      </c>
-      <c r="N59" t="n">
-        <v>101.2466666666667</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J60" t="n">
-        <v>14.40000000000003</v>
-      </c>
-      <c r="K60" t="n">
-        <v>62.50000000000022</v>
-      </c>
-      <c r="L60" t="n">
-        <v>100.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>100.8200000000001</v>
-      </c>
-      <c r="N60" t="n">
-        <v>101.2466666666667</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>3.400000000000006</v>
-      </c>
-      <c r="J61" t="n">
-        <v>15.40000000000003</v>
-      </c>
-      <c r="K61" t="n">
-        <v>91.66666666666711</v>
-      </c>
-      <c r="L61" t="n">
-        <v>100.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>100.8200000000001</v>
-      </c>
-      <c r="N61" t="n">
-        <v>101.28</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2554,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J62" t="n">
-        <v>16.40000000000003</v>
-      </c>
-      <c r="K62" t="n">
-        <v>39.39393939393934</v>
-      </c>
-      <c r="L62" t="n">
-        <v>100.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>100.7700000000001</v>
-      </c>
-      <c r="N62" t="n">
-        <v>101.28</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2589,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J63" t="n">
-        <v>16.40000000000003</v>
-      </c>
-      <c r="K63" t="n">
-        <v>35.48387096774182</v>
-      </c>
-      <c r="L63" t="n">
-        <v>100.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>100.7200000000001</v>
-      </c>
-      <c r="N63" t="n">
-        <v>101.2466666666667</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2624,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J64" t="n">
-        <v>16.40000000000003</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>101.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>100.67</v>
-      </c>
-      <c r="N64" t="n">
-        <v>101.2133333333334</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2659,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J65" t="n">
-        <v>16.40000000000003</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>101.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>100.67</v>
-      </c>
-      <c r="N65" t="n">
-        <v>101.18</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2694,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>3.400000000000006</v>
-      </c>
-      <c r="J66" t="n">
-        <v>17.40000000000003</v>
-      </c>
-      <c r="K66" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L66" t="n">
-        <v>101.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>100.7200000000001</v>
-      </c>
-      <c r="N66" t="n">
-        <v>101.18</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2729,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J67" t="n">
-        <v>18.40000000000003</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>101.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>100.7200000000001</v>
-      </c>
-      <c r="N67" t="n">
-        <v>101.1133333333334</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +2764,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J68" t="n">
-        <v>18.40000000000003</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>101.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>100.7700000000001</v>
-      </c>
-      <c r="N68" t="n">
-        <v>101.0466666666667</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +2799,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J69" t="n">
-        <v>18.40000000000003</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>101.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>100.8200000000001</v>
-      </c>
-      <c r="N69" t="n">
-        <v>101.0133333333333</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +2834,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J70" t="n">
-        <v>18.40000000000003</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L70" t="n">
-        <v>101.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>100.87</v>
-      </c>
-      <c r="N70" t="n">
-        <v>100.9466666666667</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +2869,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>3.400000000000006</v>
-      </c>
-      <c r="J71" t="n">
-        <v>19.40000000000003</v>
-      </c>
-      <c r="K71" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L71" t="n">
-        <v>101.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>100.9700000000001</v>
-      </c>
-      <c r="N71" t="n">
-        <v>100.9466666666667</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +2904,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J72" t="n">
-        <v>21.40000000000003</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L72" t="n">
-        <v>101.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>100.98</v>
-      </c>
-      <c r="N72" t="n">
-        <v>100.88</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +2939,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J73" t="n">
-        <v>22.40000000000003</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>101.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>101.0450000000001</v>
-      </c>
-      <c r="N73" t="n">
-        <v>100.8466666666667</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +2974,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J74" t="n">
-        <v>23.40000000000003</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L74" t="n">
-        <v>101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>101.0500000000001</v>
-      </c>
-      <c r="N74" t="n">
-        <v>100.78</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3009,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J75" t="n">
-        <v>23.60000000000004</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-35.48387096774196</v>
-      </c>
-      <c r="L75" t="n">
-        <v>100.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>100.9900000000001</v>
-      </c>
-      <c r="N75" t="n">
-        <v>100.74</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3044,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1.100000000000009</v>
-      </c>
-      <c r="J76" t="n">
-        <v>23.70000000000003</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-24.52830188679241</v>
-      </c>
-      <c r="L76" t="n">
-        <v>100.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>100.9250000000001</v>
-      </c>
-      <c r="N76" t="n">
-        <v>100.6966666666667</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3079,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J77" t="n">
-        <v>25.40000000000003</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L77" t="n">
-        <v>100.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>100.7750000000001</v>
-      </c>
-      <c r="N77" t="n">
-        <v>100.5966666666667</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3114,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J78" t="n">
-        <v>25.40000000000003</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L78" t="n">
-        <v>100.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>100.6250000000001</v>
-      </c>
-      <c r="N78" t="n">
-        <v>100.53</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3149,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.6999999999999886</v>
-      </c>
-      <c r="J79" t="n">
-        <v>25.50000000000003</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-43.66197183098587</v>
-      </c>
-      <c r="L79" t="n">
-        <v>99.74000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>100.4700000000001</v>
-      </c>
-      <c r="N79" t="n">
-        <v>100.46</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3184,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J80" t="n">
-        <v>25.60000000000002</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-64.51612903225819</v>
-      </c>
-      <c r="L80" t="n">
-        <v>99.44000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>100.3200000000001</v>
-      </c>
-      <c r="N80" t="n">
-        <v>100.3933333333334</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3219,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.6999999999999886</v>
-      </c>
-      <c r="J81" t="n">
-        <v>25.70000000000002</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-48.83720930232564</v>
-      </c>
-      <c r="L81" t="n">
-        <v>99.03000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>100.1150000000001</v>
-      </c>
-      <c r="N81" t="n">
-        <v>100.3233333333334</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3254,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.1999999999999886</v>
-      </c>
-      <c r="J82" t="n">
-        <v>26.20000000000002</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-68.4210526315791</v>
-      </c>
-      <c r="L82" t="n">
-        <v>98.87000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>99.98500000000008</v>
-      </c>
-      <c r="N82" t="n">
-        <v>100.2766666666667</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3289,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="J83" t="n">
-        <v>26.50000000000001</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-41.93548387096792</v>
-      </c>
-      <c r="L83" t="n">
-        <v>98.64000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>99.87000000000008</v>
-      </c>
-      <c r="N83" t="n">
-        <v>100.2433333333334</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3324,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J84" t="n">
-        <v>26.90000000000002</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-45.45454545454569</v>
-      </c>
-      <c r="L84" t="n">
-        <v>98.47000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>99.73500000000008</v>
-      </c>
-      <c r="N84" t="n">
-        <v>100.19</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3359,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J85" t="n">
-        <v>27.20000000000002</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-48.57142857142885</v>
-      </c>
-      <c r="L85" t="n">
-        <v>98.29000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>99.58500000000008</v>
-      </c>
-      <c r="N85" t="n">
-        <v>100.09</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3394,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J86" t="n">
-        <v>27.20000000000002</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0</v>
-      </c>
-      <c r="L86" t="n">
-        <v>98.12000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>99.38500000000008</v>
-      </c>
-      <c r="N86" t="n">
-        <v>99.99000000000002</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3429,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="J87" t="n">
-        <v>27.90000000000002</v>
-      </c>
-      <c r="K87" t="n">
-        <v>28.00000000000027</v>
-      </c>
-      <c r="L87" t="n">
-        <v>98.19000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>99.27000000000007</v>
-      </c>
-      <c r="N87" t="n">
-        <v>99.91333333333336</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3464,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J88" t="n">
-        <v>28.50000000000003</v>
-      </c>
-      <c r="K88" t="n">
-        <v>6.666666666666288</v>
-      </c>
-      <c r="L88" t="n">
-        <v>98.20000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>99.12500000000007</v>
-      </c>
-      <c r="N88" t="n">
-        <v>99.81666666666668</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3499,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J89" t="n">
-        <v>29.20000000000003</v>
-      </c>
-      <c r="K89" t="n">
-        <v>22.22222222222209</v>
-      </c>
-      <c r="L89" t="n">
-        <v>98.29000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>99.01500000000007</v>
-      </c>
-      <c r="N89" t="n">
-        <v>99.74333333333335</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3534,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0.3000000000000114</v>
-      </c>
-      <c r="J90" t="n">
-        <v>29.30000000000004</v>
-      </c>
-      <c r="K90" t="n">
-        <v>27.7777777777776</v>
-      </c>
-      <c r="L90" t="n">
-        <v>98.38000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>98.91000000000008</v>
-      </c>
-      <c r="N90" t="n">
-        <v>99.67333333333336</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4887,26 +3571,10 @@
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>29.60000000000005</v>
-      </c>
-      <c r="K91" t="n">
-        <v>5.882352941176077</v>
-      </c>
-      <c r="L91" t="n">
-        <v>98.45000000000002</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>98.74000000000008</v>
-      </c>
-      <c r="N91" t="n">
-        <v>99.56000000000002</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3604,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J92" t="n">
-        <v>29.90000000000005</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-11.76470588235299</v>
-      </c>
-      <c r="L92" t="n">
-        <v>98.44000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>98.65500000000009</v>
-      </c>
-      <c r="N92" t="n">
-        <v>99.47000000000003</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3639,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J93" t="n">
-        <v>30.10000000000005</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-6.250000000000028</v>
-      </c>
-      <c r="L93" t="n">
-        <v>98.38000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>98.51000000000008</v>
-      </c>
-      <c r="N93" t="n">
-        <v>99.37333333333336</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +3674,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.1999999999999886</v>
-      </c>
-      <c r="J94" t="n">
-        <v>30.40000000000006</v>
-      </c>
-      <c r="K94" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L94" t="n">
-        <v>98.39000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>98.43000000000009</v>
-      </c>
-      <c r="N94" t="n">
-        <v>99.28666666666669</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5091,26 +3711,10 @@
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>30.60000000000005</v>
-      </c>
-      <c r="K95" t="n">
-        <v>17.64705882352907</v>
-      </c>
-      <c r="L95" t="n">
-        <v>98.45000000000002</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>98.37000000000009</v>
-      </c>
-      <c r="N95" t="n">
-        <v>99.20666666666669</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5142,26 +3746,10 @@
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>30.60000000000005</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-3.703703703703977</v>
-      </c>
-      <c r="L96" t="n">
-        <v>98.51000000000002</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>98.31500000000008</v>
-      </c>
-      <c r="N96" t="n">
-        <v>99.09333333333335</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5193,26 +3781,10 @@
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>30.60000000000005</v>
-      </c>
-      <c r="K97" t="n">
-        <v>23.80952380952355</v>
-      </c>
-      <c r="L97" t="n">
-        <v>98.5</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>98.3450000000001</v>
-      </c>
-      <c r="N97" t="n">
-        <v>99.01333333333335</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5244,26 +3816,10 @@
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>30.60000000000005</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L98" t="n">
-        <v>98.54999999999998</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>98.37500000000009</v>
-      </c>
-      <c r="N98" t="n">
-        <v>98.93333333333335</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5295,26 +3851,10 @@
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>30.60000000000005</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-23.07692307692375</v>
-      </c>
-      <c r="L99" t="n">
-        <v>98.53</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>98.41000000000008</v>
-      </c>
-      <c r="N99" t="n">
-        <v>98.85333333333334</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5346,26 +3886,10 @@
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>30.60000000000005</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>98.49999999999999</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>98.44000000000008</v>
-      </c>
-      <c r="N100" t="n">
-        <v>98.77333333333334</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5397,26 +3921,10 @@
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>30.60000000000005</v>
-      </c>
-      <c r="K101" t="n">
-        <v>42.85714285714228</v>
-      </c>
-      <c r="L101" t="n">
-        <v>98.49999999999999</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>98.47500000000007</v>
-      </c>
-      <c r="N101" t="n">
-        <v>98.66000000000001</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +3954,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.3999999999999915</v>
-      </c>
-      <c r="J102" t="n">
-        <v>31.00000000000004</v>
-      </c>
-      <c r="K102" t="n">
-        <v>11.11111111111216</v>
-      </c>
-      <c r="L102" t="n">
-        <v>98.48999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>98.46500000000006</v>
-      </c>
-      <c r="N102" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +3989,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J103" t="n">
-        <v>31.10000000000004</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-14.28571428571603</v>
-      </c>
-      <c r="L103" t="n">
-        <v>98.50999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>98.44500000000006</v>
-      </c>
-      <c r="N103" t="n">
-        <v>98.51000000000001</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4024,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0.8000000000000114</v>
-      </c>
-      <c r="J104" t="n">
-        <v>32.20000000000005</v>
-      </c>
-      <c r="K104" t="n">
-        <v>50.00000000000089</v>
-      </c>
-      <c r="L104" t="n">
-        <v>98.60999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>98.50000000000006</v>
-      </c>
-      <c r="N104" t="n">
-        <v>98.49000000000001</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4059,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J105" t="n">
-        <v>32.60000000000005</v>
-      </c>
-      <c r="K105" t="n">
-        <v>20.00000000000028</v>
-      </c>
-      <c r="L105" t="n">
-        <v>98.64999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>98.55000000000004</v>
-      </c>
-      <c r="N105" t="n">
-        <v>98.46333333333334</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4094,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="J106" t="n">
-        <v>33.10000000000005</v>
-      </c>
-      <c r="K106" t="n">
-        <v>36.00000000000023</v>
-      </c>
-      <c r="L106" t="n">
-        <v>98.73999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>98.62500000000004</v>
-      </c>
-      <c r="N106" t="n">
-        <v>98.45666666666668</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4129,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="J107" t="n">
-        <v>33.10000000000005</v>
-      </c>
-      <c r="K107" t="n">
-        <v>36.00000000000023</v>
-      </c>
-      <c r="L107" t="n">
-        <v>98.83000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>98.66500000000005</v>
-      </c>
-      <c r="N107" t="n">
-        <v>98.50666666666667</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4164,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>33.20000000000005</v>
-      </c>
-      <c r="K108" t="n">
-        <v>38.46153846153855</v>
-      </c>
-      <c r="L108" t="n">
-        <v>98.93000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>98.74000000000005</v>
-      </c>
-      <c r="N108" t="n">
-        <v>98.56</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4199,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0.8000000000000114</v>
-      </c>
-      <c r="J109" t="n">
-        <v>33.40000000000003</v>
-      </c>
-      <c r="K109" t="n">
-        <v>28.57142857142915</v>
-      </c>
-      <c r="L109" t="n">
-        <v>99.01000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>98.77000000000007</v>
-      </c>
-      <c r="N109" t="n">
-        <v>98.61</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4234,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J110" t="n">
-        <v>35.00000000000003</v>
-      </c>
-      <c r="K110" t="n">
-        <v>54.54545454545495</v>
-      </c>
-      <c r="L110" t="n">
-        <v>99.24999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>98.87500000000007</v>
-      </c>
-      <c r="N110" t="n">
-        <v>98.71000000000001</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4269,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1.100000000000009</v>
-      </c>
-      <c r="J111" t="n">
-        <v>36.30000000000003</v>
-      </c>
-      <c r="K111" t="n">
-        <v>28.30188679245292</v>
-      </c>
-      <c r="L111" t="n">
-        <v>99.35999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>98.93000000000006</v>
-      </c>
-      <c r="N111" t="n">
-        <v>98.77</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4304,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J112" t="n">
-        <v>36.40000000000002</v>
-      </c>
-      <c r="K112" t="n">
-        <v>28.30188679245292</v>
-      </c>
-      <c r="L112" t="n">
-        <v>99.51999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>99.00500000000008</v>
-      </c>
-      <c r="N112" t="n">
-        <v>98.81666666666666</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4339,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1.300000000000011</v>
-      </c>
-      <c r="J113" t="n">
-        <v>36.50000000000003</v>
-      </c>
-      <c r="K113" t="n">
-        <v>11.62790697674423</v>
-      </c>
-      <c r="L113" t="n">
-        <v>99.67999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>99.09500000000007</v>
-      </c>
-      <c r="N113" t="n">
-        <v>98.85666666666667</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4374,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1.300000000000011</v>
-      </c>
-      <c r="J114" t="n">
-        <v>36.50000000000003</v>
-      </c>
-      <c r="K114" t="n">
-        <v>23.07692307692336</v>
-      </c>
-      <c r="L114" t="n">
-        <v>99.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>99.17000000000007</v>
-      </c>
-      <c r="N114" t="n">
-        <v>98.91000000000001</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4409,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1.300000000000011</v>
-      </c>
-      <c r="J115" t="n">
-        <v>36.50000000000003</v>
-      </c>
-      <c r="K115" t="n">
-        <v>11.76470588235319</v>
-      </c>
-      <c r="L115" t="n">
-        <v>99.82000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>99.23500000000008</v>
-      </c>
-      <c r="N115" t="n">
-        <v>98.97333333333334</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +4444,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1.300000000000011</v>
-      </c>
-      <c r="J116" t="n">
-        <v>36.50000000000003</v>
-      </c>
-      <c r="K116" t="n">
-        <v>11.76470588235319</v>
-      </c>
-      <c r="L116" t="n">
-        <v>99.86000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>99.3000000000001</v>
-      </c>
-      <c r="N116" t="n">
-        <v>99.03666666666668</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +4479,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0.8000000000000114</v>
-      </c>
-      <c r="J117" t="n">
-        <v>37.00000000000003</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-5.263157894736566</v>
-      </c>
-      <c r="L117" t="n">
-        <v>99.85000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>99.3400000000001</v>
-      </c>
-      <c r="N117" t="n">
-        <v>99.06000000000002</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +4514,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="J118" t="n">
-        <v>37.10000000000002</v>
-      </c>
-      <c r="K118" t="n">
-        <v>2.702702702702557</v>
-      </c>
-      <c r="L118" t="n">
-        <v>99.84000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>99.3850000000001</v>
-      </c>
-      <c r="N118" t="n">
-        <v>99.1066666666667</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +4549,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J119" t="n">
-        <v>37.40000000000002</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-75.00000000000014</v>
-      </c>
-      <c r="L119" t="n">
-        <v>99.82000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>99.41500000000011</v>
-      </c>
-      <c r="N119" t="n">
-        <v>99.12000000000002</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +4584,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1.100000000000009</v>
-      </c>
-      <c r="J120" t="n">
-        <v>37.90000000000002</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0</v>
-      </c>
-      <c r="L120" t="n">
-        <v>99.69000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>99.4700000000001</v>
-      </c>
-      <c r="N120" t="n">
-        <v>99.14666666666668</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +4619,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>38.00000000000003</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-12.50000000000011</v>
-      </c>
-      <c r="L121" t="n">
-        <v>99.67999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>99.5200000000001</v>
-      </c>
-      <c r="N121" t="n">
-        <v>99.18000000000001</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +4654,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="n">
-        <v>38.00000000000003</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-20.00000000000076</v>
-      </c>
-      <c r="L122" t="n">
-        <v>99.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>99.59000000000009</v>
-      </c>
-      <c r="N122" t="n">
-        <v>99.22333333333333</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,28 +4689,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0.8000000000000114</v>
-      </c>
-      <c r="J123" t="n">
-        <v>38.20000000000002</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-29.41176470588255</v>
-      </c>
-      <c r="L123" t="n">
-        <v>99.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>99.64500000000008</v>
-      </c>
-      <c r="N123" t="n">
-        <v>99.26666666666667</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,28 +4724,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1.100000000000009</v>
-      </c>
-      <c r="J124" t="n">
-        <v>38.50000000000001</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-10.00000000000021</v>
-      </c>
-      <c r="L124" t="n">
-        <v>99.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>99.66000000000008</v>
-      </c>
-      <c r="N124" t="n">
-        <v>99.30999999999999</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,28 +4759,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="n">
-        <v>38.60000000000002</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-14.28571428571487</v>
-      </c>
-      <c r="L125" t="n">
-        <v>99.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>99.69000000000008</v>
-      </c>
-      <c r="N125" t="n">
-        <v>99.34333333333332</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,28 +4794,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="n">
-        <v>38.60000000000002</v>
-      </c>
-      <c r="K126" t="n">
-        <v>12.49999999999933</v>
-      </c>
-      <c r="L126" t="n">
-        <v>99.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>99.69500000000008</v>
-      </c>
-      <c r="N126" t="n">
-        <v>99.37666666666665</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +4829,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="J127" t="n">
-        <v>38.70000000000002</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0</v>
-      </c>
-      <c r="L127" t="n">
-        <v>99.54000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>99.69500000000008</v>
-      </c>
-      <c r="N127" t="n">
-        <v>99.40666666666667</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +4864,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="J128" t="n">
-        <v>38.70000000000002</v>
-      </c>
-      <c r="K128" t="n">
-        <v>23.07692307692291</v>
-      </c>
-      <c r="L128" t="n">
-        <v>99.54000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>99.69000000000008</v>
-      </c>
-      <c r="N128" t="n">
-        <v>99.43666666666667</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,28 +4899,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="J129" t="n">
-        <v>38.70000000000002</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-25.00000000000044</v>
-      </c>
-      <c r="L129" t="n">
-        <v>99.57000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>99.69500000000008</v>
-      </c>
-      <c r="N129" t="n">
-        <v>99.46666666666667</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,28 +4934,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J130" t="n">
-        <v>39.20000000000002</v>
-      </c>
-      <c r="K130" t="n">
-        <v>33.33333333333412</v>
-      </c>
-      <c r="L130" t="n">
-        <v>99.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>99.64500000000007</v>
-      </c>
-      <c r="N130" t="n">
-        <v>99.51333333333334</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,28 +4969,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1.300000000000011</v>
-      </c>
-      <c r="J131" t="n">
-        <v>39.30000000000001</v>
-      </c>
-      <c r="K131" t="n">
-        <v>23.07692307692426</v>
-      </c>
-      <c r="L131" t="n">
-        <v>99.63000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>99.65500000000007</v>
-      </c>
-      <c r="N131" t="n">
-        <v>99.55666666666667</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,28 +5004,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J132" t="n">
-        <v>39.40000000000001</v>
-      </c>
-      <c r="K132" t="n">
-        <v>50</v>
-      </c>
-      <c r="L132" t="n">
-        <v>99.67000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>99.66500000000006</v>
-      </c>
-      <c r="N132" t="n">
-        <v>99.61666666666669</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,28 +5039,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J133" t="n">
-        <v>39.40000000000001</v>
-      </c>
-      <c r="K133" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L133" t="n">
-        <v>99.73000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>99.67000000000004</v>
-      </c>
-      <c r="N133" t="n">
-        <v>99.67333333333335</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,28 +5074,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J134" t="n">
-        <v>40.40000000000001</v>
-      </c>
-      <c r="K134" t="n">
-        <v>77.77777777777884</v>
-      </c>
-      <c r="L134" t="n">
-        <v>99.86000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>99.72500000000005</v>
-      </c>
-      <c r="N134" t="n">
-        <v>99.72666666666667</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,28 +5109,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J135" t="n">
-        <v>40.40000000000001</v>
-      </c>
-      <c r="K135" t="n">
-        <v>77.77777777777884</v>
-      </c>
-      <c r="L135" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>99.78000000000004</v>
-      </c>
-      <c r="N135" t="n">
-        <v>99.79333333333334</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7180,28 +5144,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J136" t="n">
-        <v>40.40000000000001</v>
-      </c>
-      <c r="K136" t="n">
-        <v>88.23529411764764</v>
-      </c>
-      <c r="L136" t="n">
-        <v>100.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>99.83500000000004</v>
-      </c>
-      <c r="N136" t="n">
-        <v>99.84333333333333</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7231,28 +5179,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J137" t="n">
-        <v>40.40000000000001</v>
-      </c>
-      <c r="K137" t="n">
-        <v>88.23529411764764</v>
-      </c>
-      <c r="L137" t="n">
-        <v>100.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>99.91500000000003</v>
-      </c>
-      <c r="N137" t="n">
-        <v>99.89333333333335</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7282,28 +5214,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>3.400000000000006</v>
-      </c>
-      <c r="J138" t="n">
-        <v>41.40000000000001</v>
-      </c>
-      <c r="K138" t="n">
-        <v>92.59259259259298</v>
-      </c>
-      <c r="L138" t="n">
-        <v>100.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>100.04</v>
-      </c>
-      <c r="N138" t="n">
-        <v>99.97333333333334</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7333,28 +5249,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>3.400000000000006</v>
-      </c>
-      <c r="J139" t="n">
-        <v>41.40000000000001</v>
-      </c>
-      <c r="K139" t="n">
-        <v>90.90909090909139</v>
-      </c>
-      <c r="L139" t="n">
-        <v>100.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>100.18</v>
-      </c>
-      <c r="N139" t="n">
-        <v>100.06</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7384,28 +5284,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J140" t="n">
-        <v>42.40000000000001</v>
-      </c>
-      <c r="K140" t="n">
-        <v>35.48387096774182</v>
-      </c>
-      <c r="L140" t="n">
-        <v>100.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>100.245</v>
-      </c>
-      <c r="N140" t="n">
-        <v>100.06</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7435,28 +5319,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J141" t="n">
-        <v>43.40000000000001</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0</v>
-      </c>
-      <c r="L141" t="n">
-        <v>100.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>100.265</v>
-      </c>
-      <c r="N141" t="n">
-        <v>100.07</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7486,28 +5354,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>3.400000000000006</v>
-      </c>
-      <c r="J142" t="n">
-        <v>45.40000000000001</v>
-      </c>
-      <c r="K142" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L142" t="n">
-        <v>101.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>100.385</v>
-      </c>
-      <c r="N142" t="n">
-        <v>100.1433333333333</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7537,28 +5389,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J143" t="n">
-        <v>47.40000000000001</v>
-      </c>
-      <c r="K143" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L143" t="n">
-        <v>101.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>100.415</v>
-      </c>
-      <c r="N143" t="n">
-        <v>100.1466666666667</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,28 +5424,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J144" t="n">
-        <v>47.40000000000001</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L144" t="n">
-        <v>101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>100.43</v>
-      </c>
-      <c r="N144" t="n">
-        <v>100.15</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,28 +5459,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J145" t="n">
-        <v>48.40000000000001</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0</v>
-      </c>
-      <c r="L145" t="n">
-        <v>101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="N145" t="n">
-        <v>100.1866666666667</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7690,28 +5494,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="J146" t="n">
-        <v>49.90000000000001</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-      <c r="L146" t="n">
-        <v>100.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
-        <v>100.495</v>
-      </c>
-      <c r="N146" t="n">
-        <v>100.1733333333333</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7741,28 +5529,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>3.400000000000006</v>
-      </c>
-      <c r="J147" t="n">
-        <v>52.40000000000001</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0</v>
-      </c>
-      <c r="L147" t="n">
-        <v>100.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>100.62</v>
-      </c>
-      <c r="N147" t="n">
-        <v>100.26</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7792,28 +5564,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>3.400000000000006</v>
-      </c>
-      <c r="J148" t="n">
-        <v>52.40000000000001</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0</v>
-      </c>
-      <c r="L148" t="n">
-        <v>100.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
-        <v>100.745</v>
-      </c>
-      <c r="N148" t="n">
-        <v>100.3433333333333</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7843,28 +5599,12 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J149" t="n">
-        <v>53.40000000000001</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0</v>
-      </c>
-      <c r="L149" t="n">
-        <v>100.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
-        <v>100.82</v>
-      </c>
-      <c r="N149" t="n">
-        <v>100.4033333333333</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7894,28 +5634,12 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J150" t="n">
-        <v>54.40000000000001</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0</v>
-      </c>
-      <c r="L150" t="n">
-        <v>100.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
-        <v>100.82</v>
-      </c>
-      <c r="N150" t="n">
-        <v>100.4133333333333</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7945,28 +5669,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J151" t="n">
-        <v>55.40000000000001</v>
-      </c>
-      <c r="K151" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L151" t="n">
-        <v>100.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
-        <v>100.875</v>
-      </c>
-      <c r="N151" t="n">
-        <v>100.46</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7996,28 +5704,12 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J152" t="n">
-        <v>56.40000000000001</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0</v>
-      </c>
-      <c r="L152" t="n">
-        <v>100.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
-        <v>100.875</v>
-      </c>
-      <c r="N152" t="n">
-        <v>100.4733333333333</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8047,28 +5739,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J153" t="n">
-        <v>56.40000000000001</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0</v>
-      </c>
-      <c r="L153" t="n">
-        <v>100.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
-        <v>100.875</v>
-      </c>
-      <c r="N153" t="n">
-        <v>100.4933333333333</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8098,28 +5774,12 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1.300000000000011</v>
-      </c>
-      <c r="J154" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K154" t="n">
-        <v>-13.58024691358018</v>
-      </c>
-      <c r="L154" t="n">
-        <v>100.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
-        <v>100.82</v>
-      </c>
-      <c r="N154" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8149,28 +5809,12 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J155" t="n">
-        <v>56.59999999999999</v>
-      </c>
-      <c r="K155" t="n">
-        <v>7.462686567164193</v>
-      </c>
-      <c r="L155" t="n">
-        <v>100.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
-        <v>100.77</v>
-      </c>
-      <c r="N155" t="n">
-        <v>100.5133333333333</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8200,28 +5844,12 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J156" t="n">
-        <v>57.59999999999999</v>
-      </c>
-      <c r="K156" t="n">
-        <v>-19.23076923076927</v>
-      </c>
-      <c r="L156" t="n">
-        <v>100.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
-        <v>100.77</v>
-      </c>
-      <c r="N156" t="n">
-        <v>100.56</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8251,28 +5879,12 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1.300000000000011</v>
-      </c>
-      <c r="J157" t="n">
-        <v>58.69999999999999</v>
-      </c>
-      <c r="K157" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L157" t="n">
-        <v>100.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
-        <v>100.715</v>
-      </c>
-      <c r="N157" t="n">
-        <v>100.5733333333334</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8302,28 +5914,12 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J158" t="n">
-        <v>59.79999999999998</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0</v>
-      </c>
-      <c r="L158" t="n">
-        <v>100.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
-        <v>100.665</v>
-      </c>
-      <c r="N158" t="n">
-        <v>100.6233333333334</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8353,28 +5949,12 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1.300000000000011</v>
-      </c>
-      <c r="J159" t="n">
-        <v>60.89999999999998</v>
-      </c>
-      <c r="K159" t="n">
-        <v>-1.538461538461458</v>
-      </c>
-      <c r="L159" t="n">
-        <v>100.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
-        <v>100.56</v>
-      </c>
-      <c r="N159" t="n">
-        <v>100.6366666666667</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8404,28 +5984,12 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="J160" t="n">
-        <v>61.29999999999998</v>
-      </c>
-      <c r="K160" t="n">
-        <v>-25.42372881355942</v>
-      </c>
-      <c r="L160" t="n">
-        <v>100.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
-        <v>100.485</v>
-      </c>
-      <c r="N160" t="n">
-        <v>100.62</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8455,28 +6019,12 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="J161" t="n">
-        <v>61.29999999999998</v>
-      </c>
-      <c r="K161" t="n">
-        <v>-10.20408163265311</v>
-      </c>
-      <c r="L161" t="n">
-        <v>100.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
-        <v>100.46</v>
-      </c>
-      <c r="N161" t="n">
-        <v>100.6066666666667</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8506,28 +6054,12 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J162" t="n">
-        <v>61.79999999999998</v>
-      </c>
-      <c r="K162" t="n">
-        <v>-18.51851851851859</v>
-      </c>
-      <c r="L162" t="n">
-        <v>99.97000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
-        <v>100.31</v>
-      </c>
-      <c r="N162" t="n">
-        <v>100.5733333333334</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8557,28 +6089,12 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="J163" t="n">
-        <v>62.09999999999998</v>
-      </c>
-      <c r="K163" t="n">
-        <v>-21.42857142857155</v>
-      </c>
-      <c r="L163" t="n">
-        <v>99.84000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
-        <v>100.245</v>
-      </c>
-      <c r="N163" t="n">
-        <v>100.53</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8608,28 +6124,12 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0.3000000000000114</v>
-      </c>
-      <c r="J164" t="n">
-        <v>62.29999999999998</v>
-      </c>
-      <c r="K164" t="n">
-        <v>-19.29824561403503</v>
-      </c>
-      <c r="L164" t="n">
-        <v>99.74000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
-        <v>100.19</v>
-      </c>
-      <c r="N164" t="n">
-        <v>100.46</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8659,28 +6159,12 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="J165" t="n">
-        <v>62.49999999999999</v>
-      </c>
-      <c r="K165" t="n">
-        <v>-46.9387755102041</v>
-      </c>
-      <c r="L165" t="n">
-        <v>99.61000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
-        <v>100.075</v>
-      </c>
-      <c r="N165" t="n">
-        <v>100.3833333333334</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8712,26 +6196,10 @@
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>62.59999999999999</v>
-      </c>
-      <c r="K166" t="n">
-        <v>-33.33333333333358</v>
-      </c>
-      <c r="L166" t="n">
-        <v>99.37000000000003</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
-        <v>100.03</v>
-      </c>
-      <c r="N166" t="n">
-        <v>100.3033333333333</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8761,28 +6229,12 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>-0.09999999999999432</v>
-      </c>
-      <c r="J167" t="n">
-        <v>62.69999999999999</v>
-      </c>
-      <c r="K167" t="n">
-        <v>-86.20689655172397</v>
-      </c>
-      <c r="L167" t="n">
-        <v>99.23000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
-        <v>99.85500000000002</v>
-      </c>
-      <c r="N167" t="n">
-        <v>100.22</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8812,28 +6264,12 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="J168" t="n">
-        <v>62.89999999999999</v>
-      </c>
-      <c r="K168" t="n">
-        <v>-59.99999999999972</v>
-      </c>
-      <c r="L168" t="n">
-        <v>99.00000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
-        <v>99.69000000000001</v>
-      </c>
-      <c r="N168" t="n">
-        <v>100.11</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8863,28 +6299,12 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>0.3000000000000114</v>
-      </c>
-      <c r="J169" t="n">
-        <v>63.09999999999999</v>
-      </c>
-      <c r="K169" t="n">
-        <v>-33.33333333333281</v>
-      </c>
-      <c r="L169" t="n">
-        <v>98.90000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
-        <v>99.58500000000001</v>
-      </c>
-      <c r="N169" t="n">
-        <v>100.0066666666667</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8914,28 +6334,12 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J170" t="n">
-        <v>63.7</v>
-      </c>
-      <c r="K170" t="n">
-        <v>-49.99999999999971</v>
-      </c>
-      <c r="L170" t="n">
-        <v>98.78000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
-        <v>99.50000000000003</v>
-      </c>
-      <c r="N170" t="n">
-        <v>99.91666666666669</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8965,28 +6369,12 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J171" t="n">
-        <v>63.7</v>
-      </c>
-      <c r="K171" t="n">
-        <v>-36.84210526315766</v>
-      </c>
-      <c r="L171" t="n">
-        <v>98.66000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
-        <v>99.36500000000004</v>
-      </c>
-      <c r="N171" t="n">
-        <v>99.86000000000003</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9016,28 +6404,12 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>-0.3999999999999915</v>
-      </c>
-      <c r="J172" t="n">
-        <v>63.8</v>
-      </c>
-      <c r="K172" t="n">
-        <v>-29.41176470588206</v>
-      </c>
-      <c r="L172" t="n">
-        <v>98.58000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
-        <v>99.27500000000002</v>
-      </c>
-      <c r="N172" t="n">
-        <v>99.73333333333335</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9067,28 +6439,12 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J173" t="n">
-        <v>64</v>
-      </c>
-      <c r="K173" t="n">
-        <v>-52.94117647058803</v>
-      </c>
-      <c r="L173" t="n">
-        <v>98.51000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
-        <v>99.17500000000003</v>
-      </c>
-      <c r="N173" t="n">
-        <v>99.66666666666669</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9118,28 +6474,12 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J174" t="n">
-        <v>64</v>
-      </c>
-      <c r="K174" t="n">
-        <v>-46.66666666666642</v>
-      </c>
-      <c r="L174" t="n">
-        <v>98.42000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
-        <v>99.08000000000001</v>
-      </c>
-      <c r="N174" t="n">
-        <v>99.60000000000001</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9169,28 +6509,12 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>-0.6999999999999886</v>
-      </c>
-      <c r="J175" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="K175" t="n">
-        <v>-46.6666666666659</v>
-      </c>
-      <c r="L175" t="n">
-        <v>98.34000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
-        <v>98.97500000000002</v>
-      </c>
-      <c r="N175" t="n">
-        <v>99.49666666666668</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9220,28 +6544,12 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J176" t="n">
-        <v>64.49999999999999</v>
-      </c>
-      <c r="K176" t="n">
-        <v>-11.11111111111129</v>
-      </c>
-      <c r="L176" t="n">
-        <v>98.31000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
-        <v>98.84000000000003</v>
-      </c>
-      <c r="N176" t="n">
-        <v>99.45666666666669</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9271,28 +6579,12 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>-0.6999999999999886</v>
-      </c>
-      <c r="J177" t="n">
-        <v>64.89999999999998</v>
-      </c>
-      <c r="K177" t="n">
-        <v>-40.00000000000014</v>
-      </c>
-      <c r="L177" t="n">
-        <v>98.25000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
-        <v>98.74000000000004</v>
-      </c>
-      <c r="N177" t="n">
-        <v>99.32000000000002</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9322,28 +6614,12 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>-0.6999999999999886</v>
-      </c>
-      <c r="J178" t="n">
-        <v>64.89999999999998</v>
-      </c>
-      <c r="K178" t="n">
-        <v>-55.55555555555608</v>
-      </c>
-      <c r="L178" t="n">
-        <v>98.17000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
-        <v>98.58500000000004</v>
-      </c>
-      <c r="N178" t="n">
-        <v>99.18333333333337</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9373,28 +6649,12 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>-1.299999999999997</v>
-      </c>
-      <c r="J179" t="n">
-        <v>65.49999999999999</v>
-      </c>
-      <c r="K179" t="n">
-        <v>-55.55555555555608</v>
-      </c>
-      <c r="L179" t="n">
-        <v>98.01000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
-        <v>98.45500000000004</v>
-      </c>
-      <c r="N179" t="n">
-        <v>99.06000000000003</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9424,28 +6684,12 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>-0.6999999999999886</v>
-      </c>
-      <c r="J180" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="K180" t="n">
-        <v>-16.66666666666637</v>
-      </c>
-      <c r="L180" t="n">
-        <v>97.97000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
-        <v>98.37500000000004</v>
-      </c>
-      <c r="N180" t="n">
-        <v>98.99000000000004</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9475,28 +6719,12 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J181" t="n">
-        <v>66.19999999999999</v>
-      </c>
-      <c r="K181" t="n">
-        <v>-8.333333333333481</v>
-      </c>
-      <c r="L181" t="n">
-        <v>97.94000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
-        <v>98.30000000000004</v>
-      </c>
-      <c r="N181" t="n">
-        <v>98.89000000000004</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9526,28 +6754,12 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J182" t="n">
-        <v>66.29999999999998</v>
-      </c>
-      <c r="K182" t="n">
-        <v>4.347826086956307</v>
-      </c>
-      <c r="L182" t="n">
-        <v>97.93000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
-        <v>98.25500000000004</v>
-      </c>
-      <c r="N182" t="n">
-        <v>98.8266666666667</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9577,28 +6789,12 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>-0.6999999999999886</v>
-      </c>
-      <c r="J183" t="n">
-        <v>66.49999999999997</v>
-      </c>
-      <c r="K183" t="n">
-        <v>-3.999999999999818</v>
-      </c>
-      <c r="L183" t="n">
-        <v>97.92000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
-        <v>98.21500000000005</v>
-      </c>
-      <c r="N183" t="n">
-        <v>98.7566666666667</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9628,28 +6824,12 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="J184" t="n">
-        <v>67.29999999999998</v>
-      </c>
-      <c r="K184" t="n">
-        <v>-25.00000000000044</v>
-      </c>
-      <c r="L184" t="n">
-        <v>97.83000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
-        <v>98.12500000000004</v>
-      </c>
-      <c r="N184" t="n">
-        <v>98.66333333333337</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9679,28 +6859,12 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>-0.8999999999999915</v>
-      </c>
-      <c r="J185" t="n">
-        <v>67.89999999999999</v>
-      </c>
-      <c r="K185" t="n">
-        <v>-17.64705882352921</v>
-      </c>
-      <c r="L185" t="n">
-        <v>97.81000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
-        <v>98.07500000000003</v>
-      </c>
-      <c r="N185" t="n">
-        <v>98.58666666666669</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9730,28 +6894,12 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="J186" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="K186" t="n">
-        <v>-22.2222222222224</v>
-      </c>
-      <c r="L186" t="n">
-        <v>97.69000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
-        <v>98.00000000000004</v>
-      </c>
-      <c r="N186" t="n">
-        <v>98.45666666666669</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9781,28 +6929,12 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>-0.7999999999999972</v>
-      </c>
-      <c r="J187" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="K187" t="n">
-        <v>-2.325581395349022</v>
-      </c>
-      <c r="L187" t="n">
-        <v>97.68000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
-        <v>97.96500000000006</v>
-      </c>
-      <c r="N187" t="n">
-        <v>98.3866666666667</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9832,28 +6964,12 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>-0.7999999999999972</v>
-      </c>
-      <c r="J188" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="K188" t="n">
-        <v>13.51351351351345</v>
-      </c>
-      <c r="L188" t="n">
-        <v>97.67000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
-        <v>97.92000000000006</v>
-      </c>
-      <c r="N188" t="n">
-        <v>98.28000000000003</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9883,28 +6999,12 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>-1.299999999999997</v>
-      </c>
-      <c r="J189" t="n">
-        <v>69.7</v>
-      </c>
-      <c r="K189" t="n">
-        <v>-16.66666666666686</v>
-      </c>
-      <c r="L189" t="n">
-        <v>97.67000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
-        <v>97.84000000000006</v>
-      </c>
-      <c r="N189" t="n">
-        <v>98.19333333333337</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9934,28 +7034,12 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J190" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0</v>
-      </c>
-      <c r="L190" t="n">
-        <v>97.68000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
-        <v>97.82500000000006</v>
-      </c>
-      <c r="N190" t="n">
-        <v>98.14333333333337</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9985,28 +7069,12 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J191" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0</v>
-      </c>
-      <c r="L191" t="n">
-        <v>97.69000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
-        <v>97.81500000000007</v>
-      </c>
-      <c r="N191" t="n">
-        <v>98.09666666666671</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10036,28 +7104,12 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J192" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="K192" t="n">
-        <v>4.99999999999968</v>
-      </c>
-      <c r="L192" t="n">
-        <v>97.69000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
-        <v>97.81000000000007</v>
-      </c>
-      <c r="N192" t="n">
-        <v>98.06666666666669</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10087,28 +7139,12 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>-0.3999999999999915</v>
-      </c>
-      <c r="J193" t="n">
-        <v>70.60000000000001</v>
-      </c>
-      <c r="K193" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L193" t="n">
-        <v>97.72000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
-        <v>97.82000000000008</v>
-      </c>
-      <c r="N193" t="n">
-        <v>98.05000000000003</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10138,28 +7174,12 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J194" t="n">
-        <v>70.7</v>
-      </c>
-      <c r="K194" t="n">
-        <v>21.42857142857114</v>
-      </c>
-      <c r="L194" t="n">
-        <v>97.84000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
-        <v>97.83500000000008</v>
-      </c>
-      <c r="N194" t="n">
-        <v>98.03000000000003</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10189,28 +7209,12 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J195" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="K195" t="n">
-        <v>17.24137931034479</v>
-      </c>
-      <c r="L195" t="n">
-        <v>97.83000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
-        <v>97.82000000000008</v>
-      </c>
-      <c r="N195" t="n">
-        <v>97.99333333333337</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10240,28 +7244,12 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J196" t="n">
-        <v>71.80000000000001</v>
-      </c>
-      <c r="K196" t="n">
-        <v>7.692307692307776</v>
-      </c>
-      <c r="L196" t="n">
-        <v>97.92000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
-        <v>97.80500000000008</v>
-      </c>
-      <c r="N196" t="n">
-        <v>97.97333333333337</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10291,28 +7279,12 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>-1.299999999999997</v>
-      </c>
-      <c r="J197" t="n">
-        <v>72.50000000000001</v>
-      </c>
-      <c r="K197" t="n">
-        <v>-15.1515151515151</v>
-      </c>
-      <c r="L197" t="n">
-        <v>97.87000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
-        <v>97.77500000000006</v>
-      </c>
-      <c r="N197" t="n">
-        <v>97.93333333333338</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10342,28 +7314,12 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J198" t="n">
-        <v>73.20000000000002</v>
-      </c>
-      <c r="K198" t="n">
-        <v>20</v>
-      </c>
-      <c r="L198" t="n">
-        <v>97.89000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
-        <v>97.78000000000006</v>
-      </c>
-      <c r="N198" t="n">
-        <v>97.91000000000005</v>
-      </c>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10393,28 +7349,12 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>-1.299999999999997</v>
-      </c>
-      <c r="J199" t="n">
-        <v>73.90000000000002</v>
-      </c>
-      <c r="K199" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L199" t="n">
-        <v>97.89000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
-        <v>97.78000000000007</v>
-      </c>
-      <c r="N199" t="n">
-        <v>97.85666666666673</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10444,28 +7384,12 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J200" t="n">
-        <v>74.60000000000002</v>
-      </c>
-      <c r="K200" t="n">
-        <v>-2.43902439024375</v>
-      </c>
-      <c r="L200" t="n">
-        <v>97.89000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
-        <v>97.78500000000005</v>
-      </c>
-      <c r="N200" t="n">
-        <v>97.84666666666672</v>
-      </c>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10495,28 +7419,12 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J201" t="n">
-        <v>74.60000000000002</v>
-      </c>
-      <c r="K201" t="n">
-        <v>-2.43902439024375</v>
-      </c>
-      <c r="L201" t="n">
-        <v>97.88000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
-        <v>97.78500000000005</v>
-      </c>
-      <c r="N201" t="n">
-        <v>97.83666666666672</v>
-      </c>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10546,28 +7454,12 @@
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>-0.8999999999999915</v>
-      </c>
-      <c r="J202" t="n">
-        <v>74.90000000000002</v>
-      </c>
-      <c r="K202" t="n">
-        <v>-11.62790697674416</v>
-      </c>
-      <c r="L202" t="n">
-        <v>97.84000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
-        <v>97.76500000000006</v>
-      </c>
-      <c r="N202" t="n">
-        <v>97.82000000000004</v>
-      </c>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10597,28 +7489,12 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>-1.199999999999989</v>
-      </c>
-      <c r="J203" t="n">
-        <v>75.20000000000002</v>
-      </c>
-      <c r="K203" t="n">
-        <v>-19.99999999999975</v>
-      </c>
-      <c r="L203" t="n">
-        <v>97.76000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
-        <v>97.74000000000005</v>
-      </c>
-      <c r="N203" t="n">
-        <v>97.80000000000004</v>
-      </c>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10645,31 +7521,19 @@
         <v>98.69499999999998</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
-        <v>-0.8999999999999915</v>
+        <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>75.50000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="K204" t="n">
-        <v>2.439024390244105</v>
-      </c>
-      <c r="L204" t="n">
-        <v>97.70000000000005</v>
-      </c>
+        <v>97.7</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
-        <v>97.77000000000005</v>
-      </c>
-      <c r="N204" t="n">
-        <v>97.79000000000003</v>
-      </c>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10696,31 +7560,23 @@
         <v>98.64166666666665</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
-        <v>-0.7999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>75.60000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="K205" t="n">
-        <v>-5.263157894736921</v>
-      </c>
-      <c r="L205" t="n">
-        <v>97.72000000000004</v>
+        <v>97.7</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M205" t="n">
-        <v>97.77500000000006</v>
-      </c>
-      <c r="N205" t="n">
-        <v>97.7866666666667</v>
-      </c>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
-      <c r="S205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10747,31 +7603,23 @@
         <v>98.61333333333332</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
-        <v>-0.7999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>75.60000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="K206" t="n">
-        <v>16.12903225806455</v>
-      </c>
-      <c r="L206" t="n">
-        <v>97.70000000000005</v>
+        <v>97.7</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M206" t="n">
-        <v>97.81000000000006</v>
-      </c>
-      <c r="N206" t="n">
-        <v>97.77000000000004</v>
-      </c>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10798,31 +7646,23 @@
         <v>98.55499999999999</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
-        <v>-0.09999999999999432</v>
+        <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>76.30000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="K207" t="n">
-        <v>16.12903225806455</v>
-      </c>
-      <c r="L207" t="n">
-        <v>97.82000000000005</v>
+        <v>97.7</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M207" t="n">
-        <v>97.84500000000006</v>
-      </c>
-      <c r="N207" t="n">
-        <v>97.79000000000003</v>
-      </c>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
-      <c r="S207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10849,31 +7689,23 @@
         <v>98.49499999999998</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
-        <v>-0.1999999999999886</v>
+        <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>76.40000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="K208" t="n">
-        <v>44.00000000000059</v>
-      </c>
-      <c r="L208" t="n">
-        <v>97.86000000000006</v>
+        <v>97.7</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M208" t="n">
-        <v>97.87500000000006</v>
-      </c>
-      <c r="N208" t="n">
-        <v>97.8066666666667</v>
-      </c>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10900,31 +7732,23 @@
         <v>98.44999999999999</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>76.50000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="K209" t="n">
-        <v>15.78947368421045</v>
-      </c>
-      <c r="L209" t="n">
-        <v>97.96000000000006</v>
+        <v>97.7</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M209" t="n">
-        <v>97.92500000000005</v>
-      </c>
-      <c r="N209" t="n">
-        <v>97.84000000000005</v>
-      </c>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
-      <c r="S209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10951,31 +7775,23 @@
         <v>98.41833333333332</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J210" t="n">
-        <v>76.70000000000002</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="K210" t="n">
-        <v>4.761904761904504</v>
-      </c>
-      <c r="L210" t="n">
-        <v>97.97000000000006</v>
+        <v>97.7</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M210" t="n">
-        <v>97.93000000000006</v>
-      </c>
-      <c r="N210" t="n">
-        <v>97.84666666666671</v>
-      </c>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
-      <c r="S210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11002,31 +7818,23 @@
         <v>98.37166666666666</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
-        <v>-0.3999999999999915</v>
+        <v>0</v>
       </c>
       <c r="J211" t="n">
-        <v>76.80000000000003</v>
+        <v>98.2</v>
       </c>
       <c r="K211" t="n">
-        <v>26.31578947368413</v>
-      </c>
-      <c r="L211" t="n">
-        <v>97.99000000000005</v>
+        <v>97.7</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M211" t="n">
-        <v>97.93500000000006</v>
-      </c>
-      <c r="N211" t="n">
-        <v>97.85333333333337</v>
-      </c>
-      <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
-      <c r="Q211" t="inlineStr"/>
-      <c r="R211" t="inlineStr"/>
-      <c r="S211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11053,31 +7861,23 @@
         <v>98.33166666666666</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>77.40000000000003</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="K212" t="n">
-        <v>9.090909090908504</v>
-      </c>
-      <c r="L212" t="n">
-        <v>97.98000000000005</v>
+        <v>97.7</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M212" t="n">
-        <v>97.91000000000005</v>
-      </c>
-      <c r="N212" t="n">
-        <v>97.83666666666669</v>
-      </c>
-      <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
-      <c r="Q212" t="inlineStr"/>
-      <c r="R212" t="inlineStr"/>
-      <c r="S212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11104,31 +7904,23 @@
         <v>98.3</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>77.90000000000003</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="K213" t="n">
-        <v>16.66666666666617</v>
-      </c>
-      <c r="L213" t="n">
-        <v>98.05000000000004</v>
+        <v>97.7</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M213" t="n">
-        <v>97.90500000000006</v>
-      </c>
-      <c r="N213" t="n">
-        <v>97.84333333333335</v>
-      </c>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr"/>
-      <c r="R213" t="inlineStr"/>
-      <c r="S213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11155,31 +7947,23 @@
         <v>98.26166666666668</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>78.40000000000003</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="K214" t="n">
-        <v>-7.142857142857179</v>
-      </c>
-      <c r="L214" t="n">
-        <v>98.04000000000003</v>
+        <v>97.7</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M214" t="n">
-        <v>97.87000000000006</v>
-      </c>
-      <c r="N214" t="n">
-        <v>97.86000000000003</v>
-      </c>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
-      <c r="S214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11206,31 +7990,23 @@
         <v>98.22000000000001</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
-        <v>-1.099999999999994</v>
+        <v>0</v>
       </c>
       <c r="J215" t="n">
-        <v>78.50000000000003</v>
+        <v>97.5</v>
       </c>
       <c r="K215" t="n">
-        <v>-10.34482758620673</v>
-      </c>
-      <c r="L215" t="n">
-        <v>98.01000000000003</v>
+        <v>97.7</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M215" t="n">
-        <v>97.86500000000008</v>
-      </c>
-      <c r="N215" t="n">
-        <v>97.85333333333337</v>
-      </c>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
-      <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="inlineStr"/>
-      <c r="S215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11257,31 +8033,23 @@
         <v>98.16166666666668</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
-        <v>-1.099999999999994</v>
+        <v>0</v>
       </c>
       <c r="J216" t="n">
-        <v>78.50000000000003</v>
+        <v>97.5</v>
       </c>
       <c r="K216" t="n">
-        <v>-45.45454545454511</v>
-      </c>
-      <c r="L216" t="n">
-        <v>97.98000000000005</v>
+        <v>97.7</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M216" t="n">
-        <v>97.84000000000007</v>
-      </c>
-      <c r="N216" t="n">
-        <v>97.8666666666667</v>
-      </c>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
-      <c r="Q216" t="inlineStr"/>
-      <c r="R216" t="inlineStr"/>
-      <c r="S216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11308,31 +8076,23 @@
         <v>98.11833333333335</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
-        <v>-1.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="J217" t="n">
-        <v>78.70000000000003</v>
+        <v>97.5</v>
       </c>
       <c r="K217" t="n">
-        <v>-47.82608695652158</v>
-      </c>
-      <c r="L217" t="n">
-        <v>97.86000000000004</v>
+        <v>97.7</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M217" t="n">
-        <v>97.84000000000009</v>
-      </c>
-      <c r="N217" t="n">
-        <v>97.85000000000004</v>
-      </c>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
-      <c r="Q217" t="inlineStr"/>
-      <c r="R217" t="inlineStr"/>
-      <c r="S217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11359,31 +8119,23 @@
         <v>98.06500000000003</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
-        <v>-0.7999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>79.20000000000003</v>
+        <v>97.8</v>
       </c>
       <c r="K218" t="n">
-        <v>-18.5185185185184</v>
-      </c>
-      <c r="L218" t="n">
-        <v>97.80000000000004</v>
+        <v>97.7</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M218" t="n">
-        <v>97.83000000000008</v>
-      </c>
-      <c r="N218" t="n">
-        <v>97.85000000000004</v>
-      </c>
-      <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr"/>
-      <c r="Q218" t="inlineStr"/>
-      <c r="R218" t="inlineStr"/>
-      <c r="S218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11410,31 +8162,23 @@
         <v>98.03166666666669</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
-        <v>-0.6999999999999886</v>
+        <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>79.30000000000004</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="K219" t="n">
-        <v>-7.692307692307187</v>
-      </c>
-      <c r="L219" t="n">
-        <v>97.76000000000003</v>
+        <v>97.7</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M219" t="n">
-        <v>97.8600000000001</v>
-      </c>
-      <c r="N219" t="n">
-        <v>97.87000000000003</v>
-      </c>
-      <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr"/>
-      <c r="Q219" t="inlineStr"/>
-      <c r="R219" t="inlineStr"/>
-      <c r="S219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11461,31 +8205,23 @@
         <v>97.99666666666668</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
-        <v>-1.199999999999989</v>
+        <v>0</v>
       </c>
       <c r="J220" t="n">
-        <v>79.80000000000004</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="K220" t="n">
-        <v>-26.66666666666644</v>
-      </c>
-      <c r="L220" t="n">
-        <v>97.69000000000004</v>
+        <v>97.7</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M220" t="n">
-        <v>97.83000000000008</v>
-      </c>
-      <c r="N220" t="n">
-        <v>97.85000000000004</v>
-      </c>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
-      <c r="Q220" t="inlineStr"/>
-      <c r="R220" t="inlineStr"/>
-      <c r="S220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11512,31 +8248,23 @@
         <v>97.96833333333335</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
-        <v>-0.7999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>80.20000000000003</v>
+        <v>97.8</v>
       </c>
       <c r="K221" t="n">
-        <v>7.142857142857252</v>
-      </c>
-      <c r="L221" t="n">
-        <v>97.65000000000005</v>
+        <v>97.7</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M221" t="n">
-        <v>97.82000000000009</v>
-      </c>
-      <c r="N221" t="n">
-        <v>97.84000000000005</v>
-      </c>
-      <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr"/>
-      <c r="Q221" t="inlineStr"/>
-      <c r="R221" t="inlineStr"/>
-      <c r="S221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11563,31 +8291,23 @@
         <v>97.95000000000002</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
-        <v>-0.6999999999999886</v>
+        <v>0</v>
       </c>
       <c r="J222" t="n">
-        <v>80.30000000000004</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="K222" t="n">
-        <v>-8.33333333333284</v>
-      </c>
-      <c r="L222" t="n">
-        <v>97.68000000000005</v>
+        <v>97.7</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M222" t="n">
-        <v>97.8300000000001</v>
-      </c>
-      <c r="N222" t="n">
-        <v>97.83333333333339</v>
-      </c>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
-      <c r="Q222" t="inlineStr"/>
-      <c r="R222" t="inlineStr"/>
-      <c r="S222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11614,1102 +8334,23 @@
         <v>97.93666666666668</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
-        <v>-0.6999999999999886</v>
+        <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>80.30000000000004</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="K223" t="n">
-        <v>15.78947368421108</v>
-      </c>
-      <c r="L223" t="n">
-        <v>97.66000000000005</v>
+        <v>97.7</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M223" t="n">
-        <v>97.85500000000009</v>
-      </c>
-      <c r="N223" t="n">
-        <v>97.82333333333339</v>
-      </c>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
-      <c r="Q223" t="inlineStr"/>
-      <c r="R223" t="inlineStr"/>
-      <c r="S223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="C224" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="D224" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="E224" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="F224" t="n">
-        <v>909.663</v>
-      </c>
-      <c r="G224" t="n">
-        <v>97.91333333333336</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>-1.099999999999994</v>
-      </c>
-      <c r="J224" t="n">
-        <v>80.70000000000005</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0</v>
-      </c>
-      <c r="L224" t="n">
-        <v>97.65000000000003</v>
-      </c>
-      <c r="M224" t="n">
-        <v>97.84500000000008</v>
-      </c>
-      <c r="N224" t="n">
-        <v>97.79666666666671</v>
-      </c>
-      <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr"/>
-      <c r="Q224" t="inlineStr"/>
-      <c r="R224" t="inlineStr"/>
-      <c r="S224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="C225" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="D225" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="E225" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="F225" t="n">
-        <v>799.6961</v>
-      </c>
-      <c r="G225" t="n">
-        <v>97.89333333333336</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>-1.099999999999994</v>
-      </c>
-      <c r="J225" t="n">
-        <v>80.70000000000005</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0</v>
-      </c>
-      <c r="L225" t="n">
-        <v>97.65000000000005</v>
-      </c>
-      <c r="M225" t="n">
-        <v>97.83000000000007</v>
-      </c>
-      <c r="N225" t="n">
-        <v>97.79333333333338</v>
-      </c>
-      <c r="O225" t="inlineStr"/>
-      <c r="P225" t="inlineStr"/>
-      <c r="Q225" t="inlineStr"/>
-      <c r="R225" t="inlineStr"/>
-      <c r="S225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="C226" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="D226" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="E226" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="F226" t="n">
-        <v>399.9999</v>
-      </c>
-      <c r="G226" t="n">
-        <v>97.87500000000001</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>-1.099999999999994</v>
-      </c>
-      <c r="J226" t="n">
-        <v>80.70000000000005</v>
-      </c>
-      <c r="K226" t="n">
-        <v>10.00000000000007</v>
-      </c>
-      <c r="L226" t="n">
-        <v>97.65000000000005</v>
-      </c>
-      <c r="M226" t="n">
-        <v>97.81500000000007</v>
-      </c>
-      <c r="N226" t="n">
-        <v>97.77666666666671</v>
-      </c>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr"/>
-      <c r="Q226" t="inlineStr"/>
-      <c r="R226" t="inlineStr"/>
-      <c r="S226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="C227" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="D227" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="E227" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="F227" t="n">
-        <v>7000</v>
-      </c>
-      <c r="G227" t="n">
-        <v>97.85666666666667</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>-1.199999999999989</v>
-      </c>
-      <c r="J227" t="n">
-        <v>80.80000000000004</v>
-      </c>
-      <c r="K227" t="n">
-        <v>-24.99999999999933</v>
-      </c>
-      <c r="L227" t="n">
-        <v>97.66000000000005</v>
-      </c>
-      <c r="M227" t="n">
-        <v>97.76000000000006</v>
-      </c>
-      <c r="N227" t="n">
-        <v>97.78000000000004</v>
-      </c>
-      <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr"/>
-      <c r="Q227" t="inlineStr"/>
-      <c r="R227" t="inlineStr"/>
-      <c r="S227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="C228" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="D228" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="E228" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="F228" t="n">
-        <v>10</v>
-      </c>
-      <c r="G228" t="n">
-        <v>97.84333333333333</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>-0.6999999999999886</v>
-      </c>
-      <c r="J228" t="n">
-        <v>81.30000000000004</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0</v>
-      </c>
-      <c r="L228" t="n">
-        <v>97.67000000000007</v>
-      </c>
-      <c r="M228" t="n">
-        <v>97.73500000000006</v>
-      </c>
-      <c r="N228" t="n">
-        <v>97.77666666666671</v>
-      </c>
-      <c r="O228" t="inlineStr"/>
-      <c r="P228" t="inlineStr"/>
-      <c r="Q228" t="inlineStr"/>
-      <c r="R228" t="inlineStr"/>
-      <c r="S228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="C229" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="D229" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="E229" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="F229" t="n">
-        <v>17000</v>
-      </c>
-      <c r="G229" t="n">
-        <v>97.81666666666668</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>-1.299999999999997</v>
-      </c>
-      <c r="J229" t="n">
-        <v>81.90000000000005</v>
-      </c>
-      <c r="K229" t="n">
-        <v>-4.761904761905149</v>
-      </c>
-      <c r="L229" t="n">
-        <v>97.61000000000007</v>
-      </c>
-      <c r="M229" t="n">
-        <v>97.68500000000007</v>
-      </c>
-      <c r="N229" t="n">
-        <v>97.77666666666671</v>
-      </c>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
-      <c r="Q229" t="inlineStr"/>
-      <c r="R229" t="inlineStr"/>
-      <c r="S229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="C230" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="D230" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="E230" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="F230" t="n">
-        <v>50652.5023</v>
-      </c>
-      <c r="G230" t="n">
-        <v>97.78500000000001</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>-2.199999999999989</v>
-      </c>
-      <c r="J230" t="n">
-        <v>82.80000000000004</v>
-      </c>
-      <c r="K230" t="n">
-        <v>-53.84615384615334</v>
-      </c>
-      <c r="L230" t="n">
-        <v>97.51000000000008</v>
-      </c>
-      <c r="M230" t="n">
-        <v>97.60000000000007</v>
-      </c>
-      <c r="N230" t="n">
-        <v>97.72333333333339</v>
-      </c>
-      <c r="O230" t="inlineStr"/>
-      <c r="P230" t="inlineStr"/>
-      <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="inlineStr"/>
-      <c r="S230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="C231" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="D231" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="E231" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="F231" t="n">
-        <v>6115.6809</v>
-      </c>
-      <c r="G231" t="n">
-        <v>97.75333333333333</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>-2.199999999999989</v>
-      </c>
-      <c r="J231" t="n">
-        <v>82.80000000000004</v>
-      </c>
-      <c r="K231" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L231" t="n">
-        <v>97.37000000000008</v>
-      </c>
-      <c r="M231" t="n">
-        <v>97.51000000000008</v>
-      </c>
-      <c r="N231" t="n">
-        <v>97.67000000000006</v>
-      </c>
-      <c r="O231" t="inlineStr"/>
-      <c r="P231" t="inlineStr"/>
-      <c r="Q231" t="inlineStr"/>
-      <c r="R231" t="inlineStr"/>
-      <c r="S231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="C232" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="D232" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="E232" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="F232" t="n">
-        <v>556.9690000000001</v>
-      </c>
-      <c r="G232" t="n">
-        <v>97.74333333333334</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J232" t="n">
-        <v>84.00000000000003</v>
-      </c>
-      <c r="K232" t="n">
-        <v>-8.108108108108441</v>
-      </c>
-      <c r="L232" t="n">
-        <v>97.34000000000006</v>
-      </c>
-      <c r="M232" t="n">
-        <v>97.51000000000008</v>
-      </c>
-      <c r="N232" t="n">
-        <v>97.66666666666673</v>
-      </c>
-      <c r="O232" t="inlineStr"/>
-      <c r="P232" t="inlineStr"/>
-      <c r="Q232" t="inlineStr"/>
-      <c r="R232" t="inlineStr"/>
-      <c r="S232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="C233" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="D233" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="E233" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="F233" t="n">
-        <v>549.213</v>
-      </c>
-      <c r="G233" t="n">
-        <v>97.73166666666667</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>-1.299999999999997</v>
-      </c>
-      <c r="J233" t="n">
-        <v>84.30000000000003</v>
-      </c>
-      <c r="K233" t="n">
-        <v>-5.555555555555665</v>
-      </c>
-      <c r="L233" t="n">
-        <v>97.28000000000007</v>
-      </c>
-      <c r="M233" t="n">
-        <v>97.47000000000007</v>
-      </c>
-      <c r="N233" t="n">
-        <v>97.6633333333334</v>
-      </c>
-      <c r="O233" t="inlineStr"/>
-      <c r="P233" t="inlineStr"/>
-      <c r="Q233" t="inlineStr"/>
-      <c r="R233" t="inlineStr"/>
-      <c r="S233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="C234" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="D234" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="E234" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="F234" t="n">
-        <v>10</v>
-      </c>
-      <c r="G234" t="n">
-        <v>97.72500000000001</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J234" t="n">
-        <v>84.60000000000002</v>
-      </c>
-      <c r="K234" t="n">
-        <v>2.564102564102433</v>
-      </c>
-      <c r="L234" t="n">
-        <v>97.29000000000008</v>
-      </c>
-      <c r="M234" t="n">
-        <v>97.47000000000007</v>
-      </c>
-      <c r="N234" t="n">
-        <v>97.66000000000007</v>
-      </c>
-      <c r="O234" t="inlineStr"/>
-      <c r="P234" t="inlineStr"/>
-      <c r="Q234" t="inlineStr"/>
-      <c r="R234" t="inlineStr"/>
-      <c r="S234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="C235" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="D235" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="E235" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="F235" t="n">
-        <v>16473.0209</v>
-      </c>
-      <c r="G235" t="n">
-        <v>97.71500000000002</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>-1.299999999999997</v>
-      </c>
-      <c r="J235" t="n">
-        <v>84.90000000000002</v>
-      </c>
-      <c r="K235" t="n">
-        <v>-4.761904761904859</v>
-      </c>
-      <c r="L235" t="n">
-        <v>97.27000000000007</v>
-      </c>
-      <c r="M235" t="n">
-        <v>97.46000000000006</v>
-      </c>
-      <c r="N235" t="n">
-        <v>97.6433333333334</v>
-      </c>
-      <c r="O235" t="inlineStr"/>
-      <c r="P235" t="inlineStr"/>
-      <c r="Q235" t="inlineStr"/>
-      <c r="R235" t="inlineStr"/>
-      <c r="S235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="C236" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="D236" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="E236" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="F236" t="n">
-        <v>1012</v>
-      </c>
-      <c r="G236" t="n">
-        <v>97.70333333333336</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J236" t="n">
-        <v>85.20000000000002</v>
-      </c>
-      <c r="K236" t="n">
-        <v>4.54545454545431</v>
-      </c>
-      <c r="L236" t="n">
-        <v>97.28000000000006</v>
-      </c>
-      <c r="M236" t="n">
-        <v>97.46500000000006</v>
-      </c>
-      <c r="N236" t="n">
-        <v>97.63666666666673</v>
-      </c>
-      <c r="O236" t="inlineStr"/>
-      <c r="P236" t="inlineStr"/>
-      <c r="Q236" t="inlineStr"/>
-      <c r="R236" t="inlineStr"/>
-      <c r="S236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="C237" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="D237" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="E237" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="F237" t="n">
-        <v>7186.1521</v>
-      </c>
-      <c r="G237" t="n">
-        <v>97.67500000000003</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>-2.399999999999991</v>
-      </c>
-      <c r="J237" t="n">
-        <v>86.60000000000001</v>
-      </c>
-      <c r="K237" t="n">
-        <v>-32.07547169811345</v>
-      </c>
-      <c r="L237" t="n">
-        <v>97.16000000000007</v>
-      </c>
-      <c r="M237" t="n">
-        <v>97.41000000000007</v>
-      </c>
-      <c r="N237" t="n">
-        <v>97.56000000000004</v>
-      </c>
-      <c r="O237" t="inlineStr"/>
-      <c r="P237" t="inlineStr"/>
-      <c r="Q237" t="inlineStr"/>
-      <c r="R237" t="inlineStr"/>
-      <c r="S237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="C238" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="D238" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="E238" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="F238" t="n">
-        <v>10953.6271</v>
-      </c>
-      <c r="G238" t="n">
-        <v>97.66333333333337</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>-1.399999999999991</v>
-      </c>
-      <c r="J238" t="n">
-        <v>87.60000000000001</v>
-      </c>
-      <c r="K238" t="n">
-        <v>-1.754385964912193</v>
-      </c>
-      <c r="L238" t="n">
-        <v>97.09000000000006</v>
-      </c>
-      <c r="M238" t="n">
-        <v>97.38000000000008</v>
-      </c>
-      <c r="N238" t="n">
-        <v>97.52000000000004</v>
-      </c>
-      <c r="O238" t="inlineStr"/>
-      <c r="P238" t="inlineStr"/>
-      <c r="Q238" t="inlineStr"/>
-      <c r="R238" t="inlineStr"/>
-      <c r="S238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="C239" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="D239" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="E239" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="F239" t="n">
-        <v>29430.8658</v>
-      </c>
-      <c r="G239" t="n">
-        <v>97.64500000000002</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>-2.399999999999991</v>
-      </c>
-      <c r="J239" t="n">
-        <v>88.60000000000001</v>
-      </c>
-      <c r="K239" t="n">
-        <v>-3.448275862069033</v>
-      </c>
-      <c r="L239" t="n">
-        <v>96.98000000000006</v>
-      </c>
-      <c r="M239" t="n">
-        <v>97.29500000000007</v>
-      </c>
-      <c r="N239" t="n">
-        <v>97.45000000000003</v>
-      </c>
-      <c r="O239" t="inlineStr"/>
-      <c r="P239" t="inlineStr"/>
-      <c r="Q239" t="inlineStr"/>
-      <c r="R239" t="inlineStr"/>
-      <c r="S239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="C240" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="D240" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="E240" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="F240" t="n">
-        <v>34626.3769</v>
-      </c>
-      <c r="G240" t="n">
-        <v>97.61500000000004</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="J240" t="n">
-        <v>88.70000000000002</v>
-      </c>
-      <c r="K240" t="n">
-        <v>-5.084745762712076</v>
-      </c>
-      <c r="L240" t="n">
-        <v>96.95000000000006</v>
-      </c>
-      <c r="M240" t="n">
-        <v>97.23000000000006</v>
-      </c>
-      <c r="N240" t="n">
-        <v>97.38333333333337</v>
-      </c>
-      <c r="O240" t="inlineStr"/>
-      <c r="P240" t="inlineStr"/>
-      <c r="Q240" t="inlineStr"/>
-      <c r="R240" t="inlineStr"/>
-      <c r="S240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="C241" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="D241" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="E241" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="F241" t="n">
-        <v>10</v>
-      </c>
-      <c r="G241" t="n">
-        <v>97.6016666666667</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>-1.399999999999991</v>
-      </c>
-      <c r="J241" t="n">
-        <v>89.80000000000003</v>
-      </c>
-      <c r="K241" t="n">
-        <v>-6.896551724137788</v>
-      </c>
-      <c r="L241" t="n">
-        <v>97.03000000000006</v>
-      </c>
-      <c r="M241" t="n">
-        <v>97.20000000000007</v>
-      </c>
-      <c r="N241" t="n">
-        <v>97.35000000000004</v>
-      </c>
-      <c r="O241" t="inlineStr"/>
-      <c r="P241" t="inlineStr"/>
-      <c r="Q241" t="inlineStr"/>
-      <c r="R241" t="inlineStr"/>
-      <c r="S241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="C242" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="D242" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="E242" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="F242" t="n">
-        <v>190</v>
-      </c>
-      <c r="G242" t="n">
-        <v>97.58666666666669</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>-1.399999999999991</v>
-      </c>
-      <c r="J242" t="n">
-        <v>89.80000000000003</v>
-      </c>
-      <c r="K242" t="n">
-        <v>-1.818181818181715</v>
-      </c>
-      <c r="L242" t="n">
-        <v>96.99000000000004</v>
-      </c>
-      <c r="M242" t="n">
-        <v>97.16500000000006</v>
-      </c>
-      <c r="N242" t="n">
-        <v>97.33666666666669</v>
-      </c>
-      <c r="O242" t="inlineStr"/>
-      <c r="P242" t="inlineStr"/>
-      <c r="Q242" t="inlineStr"/>
-      <c r="R242" t="inlineStr"/>
-      <c r="S242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="C243" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="D243" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="E243" t="n">
-        <v>96</v>
-      </c>
-      <c r="F243" t="n">
-        <v>12974.5234</v>
-      </c>
-      <c r="G243" t="n">
-        <v>97.58166666666671</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J243" t="n">
-        <v>90.20000000000002</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0</v>
-      </c>
-      <c r="L243" t="n">
-        <v>97.02000000000005</v>
-      </c>
-      <c r="M243" t="n">
-        <v>97.15000000000006</v>
-      </c>
-      <c r="N243" t="n">
-        <v>97.32000000000002</v>
-      </c>
-      <c r="O243" t="inlineStr"/>
-      <c r="P243" t="inlineStr"/>
-      <c r="Q243" t="inlineStr"/>
-      <c r="R243" t="inlineStr"/>
-      <c r="S243" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="C244" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="D244" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="E244" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="F244" t="n">
-        <v>541.3528</v>
-      </c>
-      <c r="G244" t="n">
-        <v>97.57833333333336</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>-1.699999999999989</v>
-      </c>
-      <c r="J244" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="K244" t="n">
-        <v>-6.66666666666654</v>
-      </c>
-      <c r="L244" t="n">
-        <v>96.95000000000006</v>
-      </c>
-      <c r="M244" t="n">
-        <v>97.12000000000006</v>
-      </c>
-      <c r="N244" t="n">
-        <v>97.2966666666667</v>
-      </c>
-      <c r="O244" t="inlineStr"/>
-      <c r="P244" t="inlineStr"/>
-      <c r="Q244" t="inlineStr"/>
-      <c r="R244" t="inlineStr"/>
-      <c r="S244" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest ELF.xlsx
+++ b/BackTest/2019-10-19 BackTest ELF.xlsx
@@ -6646,14 +6646,20 @@
         <v>99.73166666666663</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6681,14 +6687,20 @@
         <v>99.70166666666663</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>97.3</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6716,14 +6728,20 @@
         <v>99.67499999999995</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6751,14 +6769,20 @@
         <v>99.64999999999995</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>98</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6793,7 +6817,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6828,7 +6856,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6863,7 +6895,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6898,7 +6934,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6933,7 +6973,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6968,7 +7012,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7003,7 +7051,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7038,7 +7090,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7073,7 +7129,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7108,7 +7168,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7143,7 +7207,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7178,7 +7246,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7213,7 +7285,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7248,7 +7324,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7283,7 +7363,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7318,7 +7402,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7353,7 +7441,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7388,7 +7480,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7423,7 +7519,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7458,7 +7558,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7493,7 +7597,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7521,18 +7629,18 @@
         <v>98.69499999999998</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="K204" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="L204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7560,20 +7668,16 @@
         <v>98.64166666666665</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="K205" t="n">
-        <v>97.7</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M205" t="n">
@@ -7603,17 +7707,13 @@
         <v>98.61333333333332</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K206" t="n">
-        <v>97.7</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7646,17 +7746,13 @@
         <v>98.55499999999999</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="K207" t="n">
-        <v>97.7</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7689,17 +7785,13 @@
         <v>98.49499999999998</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="K208" t="n">
-        <v>97.7</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7732,17 +7824,13 @@
         <v>98.44999999999999</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="K209" t="n">
-        <v>97.7</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7775,17 +7863,13 @@
         <v>98.41833333333332</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="K210" t="n">
-        <v>97.7</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7818,17 +7902,13 @@
         <v>98.37166666666666</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K211" t="n">
-        <v>97.7</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7861,17 +7941,13 @@
         <v>98.33166666666666</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="K212" t="n">
-        <v>97.7</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7904,17 +7980,13 @@
         <v>98.3</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="K213" t="n">
-        <v>97.7</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7947,17 +8019,13 @@
         <v>98.26166666666668</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="K214" t="n">
-        <v>97.7</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7990,17 +8058,13 @@
         <v>98.22000000000001</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="K215" t="n">
-        <v>97.7</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8033,17 +8097,13 @@
         <v>98.16166666666668</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="K216" t="n">
-        <v>97.7</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8076,17 +8136,13 @@
         <v>98.11833333333335</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="K217" t="n">
-        <v>97.7</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8119,17 +8175,13 @@
         <v>98.06500000000003</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K218" t="n">
-        <v>97.7</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8162,17 +8214,13 @@
         <v>98.03166666666669</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="K219" t="n">
-        <v>97.7</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8205,17 +8253,13 @@
         <v>97.99666666666668</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="K220" t="n">
-        <v>97.7</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8248,17 +8292,13 @@
         <v>97.96833333333335</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K221" t="n">
-        <v>97.7</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8291,17 +8331,13 @@
         <v>97.95000000000002</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="K222" t="n">
-        <v>97.7</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8334,17 +8370,13 @@
         <v>97.93666666666668</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="K223" t="n">
-        <v>97.7</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-19 BackTest ELF.xlsx
+++ b/BackTest/2019-10-19 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M223"/>
+  <dimension ref="A1:M224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>98.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>98.59999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>98.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>98.59999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>21893.2259</v>
+        <v>6531.5539</v>
       </c>
       <c r="G2" t="n">
-        <v>98.89333333333333</v>
+        <v>98.91499999999998</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>98.8</v>
       </c>
       <c r="C3" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D3" t="n">
         <v>98.8</v>
       </c>
       <c r="E3" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>7129.452</v>
+        <v>21893.2259</v>
       </c>
       <c r="G3" t="n">
-        <v>98.87166666666666</v>
+        <v>98.89333333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="C4" t="n">
         <v>98.7</v>
       </c>
       <c r="D4" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="E4" t="n">
         <v>98.7</v>
       </c>
       <c r="F4" t="n">
-        <v>20563.104</v>
+        <v>7129.452</v>
       </c>
       <c r="G4" t="n">
-        <v>98.85666666666664</v>
+        <v>98.87166666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="C5" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="D5" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="E5" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="F5" t="n">
-        <v>10586.2749</v>
+        <v>20563.104</v>
       </c>
       <c r="G5" t="n">
-        <v>98.83333333333331</v>
+        <v>98.85666666666664</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>98.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C6" t="n">
         <v>98.59999999999999</v>
@@ -582,13 +582,13 @@
         <v>98.59999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>98.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>909.8126999999999</v>
+        <v>10586.2749</v>
       </c>
       <c r="G6" t="n">
-        <v>98.80999999999999</v>
+        <v>98.83333333333331</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="C7" t="n">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="F7" t="n">
-        <v>439</v>
+        <v>909.8126999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>98.78333333333332</v>
+        <v>98.80999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>507.336</v>
+        <v>439</v>
       </c>
       <c r="G8" t="n">
-        <v>98.75499999999998</v>
+        <v>98.78333333333332</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="C9" t="n">
-        <v>98.59999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="D9" t="n">
-        <v>98.59999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="E9" t="n">
-        <v>97.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="F9" t="n">
-        <v>14542.8304</v>
+        <v>507.336</v>
       </c>
       <c r="G9" t="n">
-        <v>98.73499999999999</v>
+        <v>98.75499999999998</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>98.2</v>
       </c>
       <c r="C10" t="n">
-        <v>98.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>98.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>98.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>989.8912</v>
+        <v>14542.8304</v>
       </c>
       <c r="G10" t="n">
-        <v>98.70333333333333</v>
+        <v>98.73499999999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="C11" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="E11" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>494.9456</v>
+        <v>989.8912</v>
       </c>
       <c r="G11" t="n">
-        <v>98.67166666666667</v>
+        <v>98.70333333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>1000</v>
+        <v>494.9456</v>
       </c>
       <c r="G12" t="n">
-        <v>98.64166666666667</v>
+        <v>98.67166666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="C13" t="n">
-        <v>98.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="D13" t="n">
-        <v>98.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="E13" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="F13" t="n">
-        <v>6517.5362</v>
+        <v>1000</v>
       </c>
       <c r="G13" t="n">
-        <v>98.61499999999999</v>
+        <v>98.64166666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="C14" t="n">
         <v>98.40000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="F14" t="n">
-        <v>768.8953</v>
+        <v>6517.5362</v>
       </c>
       <c r="G14" t="n">
-        <v>98.60166666666666</v>
+        <v>98.61499999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="C15" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="E15" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>2677.0237</v>
+        <v>768.8953</v>
       </c>
       <c r="G15" t="n">
-        <v>98.595</v>
+        <v>98.60166666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>98.3</v>
       </c>
       <c r="F16" t="n">
-        <v>1857.7578</v>
+        <v>2677.0237</v>
       </c>
       <c r="G16" t="n">
-        <v>98.59999999999999</v>
+        <v>98.595</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1857.7578</v>
+      </c>
+      <c r="G17" t="n">
         <v>98.59999999999999</v>
-      </c>
-      <c r="C17" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="D17" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="E17" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="F17" t="n">
-        <v>506</v>
-      </c>
-      <c r="G17" t="n">
-        <v>98.61166666666668</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>128.4109</v>
+        <v>506</v>
       </c>
       <c r="G18" t="n">
-        <v>98.62833333333334</v>
+        <v>98.61166666666668</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>98.3</v>
+        <v>98.8</v>
       </c>
       <c r="C19" t="n">
-        <v>99.2</v>
+        <v>98.8</v>
       </c>
       <c r="D19" t="n">
-        <v>99.2</v>
+        <v>98.8</v>
       </c>
       <c r="E19" t="n">
-        <v>98.2</v>
+        <v>98.8</v>
       </c>
       <c r="F19" t="n">
-        <v>7646.4843</v>
+        <v>128.4109</v>
       </c>
       <c r="G19" t="n">
-        <v>98.65000000000002</v>
+        <v>98.62833333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>98.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="C20" t="n">
         <v>99.2</v>
@@ -1072,13 +1072,13 @@
         <v>99.2</v>
       </c>
       <c r="E20" t="n">
-        <v>98.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="F20" t="n">
-        <v>28304.5059</v>
+        <v>7646.4843</v>
       </c>
       <c r="G20" t="n">
-        <v>98.67166666666668</v>
+        <v>98.65000000000002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>99.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="D21" t="n">
-        <v>99.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="E21" t="n">
-        <v>98.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>21888.3078</v>
+        <v>28304.5059</v>
       </c>
       <c r="G21" t="n">
-        <v>98.69666666666669</v>
+        <v>98.67166666666668</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="C22" t="n">
-        <v>98.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>99</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>98.90000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="F22" t="n">
-        <v>1003.7722</v>
+        <v>21888.3078</v>
       </c>
       <c r="G22" t="n">
-        <v>98.71333333333335</v>
+        <v>98.69666666666669</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>99.2</v>
+        <v>99</v>
       </c>
       <c r="C23" t="n">
-        <v>99.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>99.2</v>
+        <v>99</v>
       </c>
       <c r="E23" t="n">
-        <v>99.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>1000</v>
+        <v>1003.7722</v>
       </c>
       <c r="G23" t="n">
-        <v>98.73500000000003</v>
+        <v>98.71333333333335</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>99.2</v>
       </c>
       <c r="F24" t="n">
-        <v>3812.2925</v>
+        <v>1000</v>
       </c>
       <c r="G24" t="n">
-        <v>98.75166666666669</v>
+        <v>98.73500000000003</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="C25" t="n">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="D25" t="n">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="E25" t="n">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="F25" t="n">
-        <v>3208.7275</v>
+        <v>3812.2925</v>
       </c>
       <c r="G25" t="n">
-        <v>98.76833333333336</v>
+        <v>98.75166666666669</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C26" t="n">
         <v>99.09999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>99.59999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>28155</v>
+        <v>3208.7275</v>
       </c>
       <c r="G26" t="n">
-        <v>98.77500000000003</v>
+        <v>98.76833333333336</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>100</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>99.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>13755.8171</v>
+        <v>28155</v>
       </c>
       <c r="G27" t="n">
-        <v>98.80500000000004</v>
+        <v>98.77500000000003</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>99.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="C28" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D28" t="n">
         <v>100</v>
       </c>
       <c r="E28" t="n">
-        <v>99.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="F28" t="n">
-        <v>75009.1875</v>
+        <v>13755.8171</v>
       </c>
       <c r="G28" t="n">
-        <v>98.83000000000003</v>
+        <v>98.80500000000004</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C29" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E29" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>43911.9118</v>
+        <v>75009.1875</v>
       </c>
       <c r="G29" t="n">
-        <v>98.85000000000004</v>
+        <v>98.83000000000003</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>100</v>
       </c>
       <c r="C30" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D30" t="n">
         <v>101</v>
       </c>
       <c r="E30" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>25076.3267</v>
+        <v>43911.9118</v>
       </c>
       <c r="G30" t="n">
-        <v>98.88500000000003</v>
+        <v>98.85000000000004</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" t="n">
         <v>101</v>
@@ -1457,13 +1457,13 @@
         <v>101</v>
       </c>
       <c r="E31" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F31" t="n">
-        <v>201271.3065</v>
+        <v>25076.3267</v>
       </c>
       <c r="G31" t="n">
-        <v>98.92000000000004</v>
+        <v>98.88500000000003</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>101</v>
       </c>
       <c r="F32" t="n">
-        <v>50033.7029</v>
+        <v>201271.3065</v>
       </c>
       <c r="G32" t="n">
-        <v>98.95333333333338</v>
+        <v>98.92000000000004</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,25 +1521,25 @@
         <v>101</v>
       </c>
       <c r="C33" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E33" t="n">
         <v>101</v>
       </c>
       <c r="F33" t="n">
-        <v>6942.8028</v>
+        <v>50033.7029</v>
       </c>
       <c r="G33" t="n">
-        <v>99.00166666666671</v>
+        <v>98.95333333333338</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1553,7 +1553,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C34" t="n">
         <v>102</v>
@@ -1562,19 +1562,19 @@
         <v>102</v>
       </c>
       <c r="E34" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F34" t="n">
-        <v>22509.0098</v>
+        <v>6942.8028</v>
       </c>
       <c r="G34" t="n">
-        <v>99.05000000000003</v>
+        <v>99.00166666666671</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1600,16 +1600,16 @@
         <v>102</v>
       </c>
       <c r="F35" t="n">
-        <v>35424.843</v>
+        <v>22509.0098</v>
       </c>
       <c r="G35" t="n">
-        <v>99.09833333333336</v>
+        <v>99.05000000000003</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1635,10 +1635,10 @@
         <v>102</v>
       </c>
       <c r="F36" t="n">
-        <v>36351</v>
+        <v>35424.843</v>
       </c>
       <c r="G36" t="n">
-        <v>99.15000000000003</v>
+        <v>99.09833333333336</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C37" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D37" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E37" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F37" t="n">
-        <v>51946.9125</v>
+        <v>36351</v>
       </c>
       <c r="G37" t="n">
-        <v>99.21500000000002</v>
+        <v>99.15000000000003</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>103</v>
       </c>
       <c r="F38" t="n">
-        <v>8217.9611</v>
+        <v>51946.9125</v>
       </c>
       <c r="G38" t="n">
-        <v>99.27333333333335</v>
+        <v>99.21500000000002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>103</v>
       </c>
       <c r="C39" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D39" t="n">
         <v>103</v>
       </c>
       <c r="E39" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F39" t="n">
-        <v>5259.7597</v>
+        <v>8217.9611</v>
       </c>
       <c r="G39" t="n">
-        <v>99.31333333333335</v>
+        <v>99.27333333333335</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>103</v>
       </c>
       <c r="C40" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D40" t="n">
         <v>103</v>
       </c>
       <c r="E40" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F40" t="n">
-        <v>110</v>
+        <v>5259.7597</v>
       </c>
       <c r="G40" t="n">
-        <v>99.37833333333334</v>
+        <v>99.31333333333335</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>103</v>
       </c>
       <c r="C41" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D41" t="n">
         <v>103</v>
       </c>
       <c r="E41" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F41" t="n">
-        <v>42214.1048</v>
+        <v>110</v>
       </c>
       <c r="G41" t="n">
-        <v>99.42833333333334</v>
+        <v>99.37833333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C42" t="n">
         <v>102</v>
       </c>
       <c r="D42" t="n">
+        <v>103</v>
+      </c>
+      <c r="E42" t="n">
         <v>102</v>
       </c>
-      <c r="E42" t="n">
-        <v>101</v>
-      </c>
       <c r="F42" t="n">
-        <v>8936.929599999999</v>
+        <v>42214.1048</v>
       </c>
       <c r="G42" t="n">
-        <v>99.48333333333335</v>
+        <v>99.42833333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="E43" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F43" t="n">
-        <v>948.4525</v>
+        <v>8936.929599999999</v>
       </c>
       <c r="G43" t="n">
-        <v>99.53833333333336</v>
+        <v>99.48333333333335</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>102</v>
       </c>
       <c r="F44" t="n">
-        <v>51.5178</v>
+        <v>948.4525</v>
       </c>
       <c r="G44" t="n">
-        <v>99.59833333333336</v>
+        <v>99.53833333333336</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C45" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D45" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E45" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F45" t="n">
-        <v>86261.3364</v>
+        <v>51.5178</v>
       </c>
       <c r="G45" t="n">
-        <v>99.65166666666669</v>
+        <v>99.59833333333336</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>101</v>
       </c>
       <c r="F46" t="n">
-        <v>1948.935</v>
+        <v>86261.3364</v>
       </c>
       <c r="G46" t="n">
-        <v>99.6866666666667</v>
+        <v>99.65166666666669</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>101</v>
       </c>
       <c r="F47" t="n">
-        <v>6470.7425</v>
+        <v>1948.935</v>
       </c>
       <c r="G47" t="n">
-        <v>99.72000000000003</v>
+        <v>99.6866666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C48" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D48" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E48" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F48" t="n">
-        <v>4984.7405</v>
+        <v>6470.7425</v>
       </c>
       <c r="G48" t="n">
-        <v>99.74333333333335</v>
+        <v>99.72000000000003</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>100</v>
       </c>
       <c r="F49" t="n">
-        <v>2492.3703</v>
+        <v>4984.7405</v>
       </c>
       <c r="G49" t="n">
-        <v>99.76833333333336</v>
+        <v>99.74333333333335</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>100</v>
       </c>
       <c r="F50" t="n">
-        <v>54.8625</v>
+        <v>2492.3703</v>
       </c>
       <c r="G50" t="n">
-        <v>99.79333333333335</v>
+        <v>99.76833333333336</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>100</v>
       </c>
       <c r="F51" t="n">
-        <v>934.3499</v>
+        <v>54.8625</v>
       </c>
       <c r="G51" t="n">
-        <v>99.81833333333336</v>
+        <v>99.79333333333335</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2186,19 +2186,19 @@
         <v>100</v>
       </c>
       <c r="C52" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="D52" t="n">
         <v>100</v>
       </c>
       <c r="E52" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="F52" t="n">
-        <v>12455.4984</v>
+        <v>934.3499</v>
       </c>
       <c r="G52" t="n">
-        <v>99.83500000000002</v>
+        <v>99.81833333333336</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="C53" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="D53" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="E53" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="F53" t="n">
-        <v>76.7073</v>
+        <v>12455.4984</v>
       </c>
       <c r="G53" t="n">
-        <v>99.85166666666669</v>
+        <v>99.83500000000002</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="C54" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="D54" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="E54" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="F54" t="n">
-        <v>2571.2944</v>
+        <v>76.7073</v>
       </c>
       <c r="G54" t="n">
-        <v>99.86666666666669</v>
+        <v>99.85166666666669</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>69605.7977</v>
+        <v>2571.2944</v>
       </c>
       <c r="G55" t="n">
-        <v>99.90666666666668</v>
+        <v>99.86666666666669</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>101</v>
       </c>
       <c r="E56" t="n">
-        <v>101</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>296.9108</v>
+        <v>69605.7977</v>
       </c>
       <c r="G56" t="n">
-        <v>99.94000000000001</v>
+        <v>99.90666666666668</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>101</v>
       </c>
       <c r="F57" t="n">
-        <v>4795.5374</v>
+        <v>296.9108</v>
       </c>
       <c r="G57" t="n">
-        <v>99.97333333333334</v>
+        <v>99.94000000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>101</v>
       </c>
       <c r="F58" t="n">
-        <v>14784.2178</v>
+        <v>4795.5374</v>
       </c>
       <c r="G58" t="n">
-        <v>100.0066666666667</v>
+        <v>99.97333333333334</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>101</v>
       </c>
       <c r="F59" t="n">
-        <v>9366.999900000001</v>
+        <v>14784.2178</v>
       </c>
       <c r="G59" t="n">
-        <v>100.04</v>
+        <v>100.0066666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>101</v>
       </c>
       <c r="F60" t="n">
-        <v>22966.0172</v>
+        <v>9366.999900000001</v>
       </c>
       <c r="G60" t="n">
-        <v>100.0716666666667</v>
+        <v>100.04</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2501,19 +2501,19 @@
         <v>101</v>
       </c>
       <c r="C61" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D61" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E61" t="n">
         <v>101</v>
       </c>
       <c r="F61" t="n">
-        <v>2290</v>
+        <v>22966.0172</v>
       </c>
       <c r="G61" t="n">
-        <v>100.12</v>
+        <v>100.0716666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2536,19 +2536,19 @@
         <v>101</v>
       </c>
       <c r="C62" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D62" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E62" t="n">
         <v>101</v>
       </c>
       <c r="F62" t="n">
-        <v>2352.9999</v>
+        <v>2290</v>
       </c>
       <c r="G62" t="n">
-        <v>100.16</v>
+        <v>100.12</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>101</v>
       </c>
       <c r="F63" t="n">
-        <v>2492.5072</v>
+        <v>2352.9999</v>
       </c>
       <c r="G63" t="n">
-        <v>100.1983333333333</v>
+        <v>100.16</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>101</v>
       </c>
       <c r="F64" t="n">
-        <v>429</v>
+        <v>2492.5072</v>
       </c>
       <c r="G64" t="n">
-        <v>100.2366666666667</v>
+        <v>100.1983333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>101</v>
       </c>
       <c r="F65" t="n">
-        <v>30276</v>
+        <v>429</v>
       </c>
       <c r="G65" t="n">
-        <v>100.2766666666667</v>
+        <v>100.2366666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2676,19 +2676,19 @@
         <v>101</v>
       </c>
       <c r="C66" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D66" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E66" t="n">
         <v>101</v>
       </c>
       <c r="F66" t="n">
-        <v>55371.8555</v>
+        <v>30276</v>
       </c>
       <c r="G66" t="n">
-        <v>100.3333333333333</v>
+        <v>100.2766666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,10 +2708,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>101</v>
+      </c>
+      <c r="C67" t="n">
         <v>102</v>
-      </c>
-      <c r="C67" t="n">
-        <v>101</v>
       </c>
       <c r="D67" t="n">
         <v>102</v>
@@ -2720,10 +2720,10 @@
         <v>101</v>
       </c>
       <c r="F67" t="n">
-        <v>184.8137</v>
+        <v>55371.8555</v>
       </c>
       <c r="G67" t="n">
-        <v>100.3766666666667</v>
+        <v>100.3333333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C68" t="n">
         <v>101</v>
       </c>
       <c r="D68" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68" t="n">
         <v>101</v>
       </c>
       <c r="F68" t="n">
-        <v>5</v>
+        <v>184.8137</v>
       </c>
       <c r="G68" t="n">
-        <v>100.4216666666667</v>
+        <v>100.3766666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>101</v>
       </c>
       <c r="F69" t="n">
-        <v>1500.2181</v>
+        <v>5</v>
       </c>
       <c r="G69" t="n">
-        <v>100.4616666666666</v>
+        <v>100.4216666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>101</v>
       </c>
       <c r="F70" t="n">
-        <v>10074.9979</v>
+        <v>1500.2181</v>
       </c>
       <c r="G70" t="n">
-        <v>100.51</v>
+        <v>100.4616666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C71" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D71" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E71" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F71" t="n">
-        <v>14.8137</v>
+        <v>10074.9979</v>
       </c>
       <c r="G71" t="n">
-        <v>100.575</v>
+        <v>100.51</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C72" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D72" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E72" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F72" t="n">
-        <v>10234.1524</v>
+        <v>14.8137</v>
       </c>
       <c r="G72" t="n">
-        <v>100.605</v>
+        <v>100.575</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C73" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E73" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F73" t="n">
-        <v>34.8316</v>
+        <v>10234.1524</v>
       </c>
       <c r="G73" t="n">
-        <v>100.6483333333333</v>
+        <v>100.605</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C74" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D74" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E74" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F74" t="n">
-        <v>2387.0376</v>
+        <v>34.8316</v>
       </c>
       <c r="G74" t="n">
-        <v>100.675</v>
+        <v>100.6483333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="C75" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="D75" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="E75" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="F75" t="n">
-        <v>507.548</v>
+        <v>2387.0376</v>
       </c>
       <c r="G75" t="n">
-        <v>100.7</v>
+        <v>100.675</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3026,19 +3026,19 @@
         <v>99.8</v>
       </c>
       <c r="C76" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="D76" t="n">
         <v>99.8</v>
       </c>
       <c r="E76" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="F76" t="n">
-        <v>6997.8999</v>
+        <v>507.548</v>
       </c>
       <c r="G76" t="n">
-        <v>100.7233333333333</v>
+        <v>100.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="C77" t="n">
-        <v>98</v>
+        <v>99.7</v>
       </c>
       <c r="D77" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="E77" t="n">
-        <v>98</v>
+        <v>99.7</v>
       </c>
       <c r="F77" t="n">
-        <v>32374.9654</v>
+        <v>6997.8999</v>
       </c>
       <c r="G77" t="n">
-        <v>100.7133333333333</v>
+        <v>100.7233333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>98</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C78" t="n">
         <v>98</v>
       </c>
       <c r="D78" t="n">
-        <v>98</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E78" t="n">
         <v>98</v>
       </c>
       <c r="F78" t="n">
-        <v>591.4249</v>
+        <v>32374.9654</v>
       </c>
       <c r="G78" t="n">
-        <v>100.7</v>
+        <v>100.7133333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3131,19 +3131,19 @@
         <v>98</v>
       </c>
       <c r="C79" t="n">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="D79" t="n">
         <v>98</v>
       </c>
       <c r="E79" t="n">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="F79" t="n">
-        <v>1045.7289</v>
+        <v>591.4249</v>
       </c>
       <c r="G79" t="n">
-        <v>100.6783333333333</v>
+        <v>100.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3166,19 +3166,19 @@
         <v>98</v>
       </c>
       <c r="C80" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D80" t="n">
         <v>98</v>
       </c>
       <c r="E80" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>779.5201</v>
+        <v>1045.7289</v>
       </c>
       <c r="G80" t="n">
-        <v>100.6583333333333</v>
+        <v>100.6783333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3201,19 +3201,19 @@
         <v>98</v>
       </c>
       <c r="C81" t="n">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="D81" t="n">
         <v>98</v>
       </c>
       <c r="E81" t="n">
-        <v>97.8</v>
+        <v>98</v>
       </c>
       <c r="F81" t="n">
-        <v>18404.6375</v>
+        <v>779.5201</v>
       </c>
       <c r="G81" t="n">
-        <v>100.6333333333333</v>
+        <v>100.6583333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>98.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="C82" t="n">
-        <v>98.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>98.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="E82" t="n">
-        <v>98.40000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="F82" t="n">
-        <v>1325.7099</v>
+        <v>18404.6375</v>
       </c>
       <c r="G82" t="n">
-        <v>100.625</v>
+        <v>100.6333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,31 +3268,35 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>98.09999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>98.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>98.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>98.09999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>1900</v>
+        <v>1325.7099</v>
       </c>
       <c r="G83" t="n">
-        <v>100.6166666666666</v>
+        <v>100.625</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="K83" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
@@ -3303,32 +3307,40 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>98.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="D84" t="n">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="E84" t="n">
-        <v>98.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F84" t="n">
-        <v>8679.165800000001</v>
+        <v>1900</v>
       </c>
       <c r="G84" t="n">
-        <v>100.6016666666666</v>
+        <v>100.6166666666666</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K84" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,32 +3350,40 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="C85" t="n">
-        <v>98</v>
+        <v>98.3</v>
       </c>
       <c r="D85" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="E85" t="n">
-        <v>98</v>
+        <v>98.3</v>
       </c>
       <c r="F85" t="n">
-        <v>1346.101</v>
+        <v>8679.165800000001</v>
       </c>
       <c r="G85" t="n">
-        <v>100.5833333333333</v>
+        <v>100.6016666666666</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="K85" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,32 +3393,40 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C86" t="n">
         <v>98</v>
       </c>
       <c r="D86" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E86" t="n">
         <v>98</v>
       </c>
       <c r="F86" t="n">
-        <v>6057.4546</v>
+        <v>1346.101</v>
       </c>
       <c r="G86" t="n">
-        <v>100.565</v>
+        <v>100.5833333333333</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K86" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3436,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>98.7</v>
+        <v>98</v>
       </c>
       <c r="C87" t="n">
-        <v>98.7</v>
+        <v>98</v>
       </c>
       <c r="D87" t="n">
-        <v>98.7</v>
+        <v>98</v>
       </c>
       <c r="E87" t="n">
-        <v>98.7</v>
+        <v>98</v>
       </c>
       <c r="F87" t="n">
-        <v>1458.9918</v>
+        <v>6057.4546</v>
       </c>
       <c r="G87" t="n">
-        <v>100.5433333333333</v>
+        <v>100.565</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,8 +3460,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3477,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>98.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="C88" t="n">
-        <v>98.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="D88" t="n">
-        <v>98.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="E88" t="n">
-        <v>98.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="F88" t="n">
-        <v>489.3068</v>
+        <v>1458.9918</v>
       </c>
       <c r="G88" t="n">
-        <v>100.5133333333333</v>
+        <v>100.5433333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,8 +3501,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3518,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>98.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>98.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>98.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>12000</v>
+        <v>489.3068</v>
       </c>
       <c r="G89" t="n">
-        <v>100.495</v>
+        <v>100.5133333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3502,8 +3542,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3513,22 +3559,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="C90" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="D90" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="E90" t="n">
-        <v>98.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="F90" t="n">
-        <v>244.9147</v>
+        <v>12000</v>
       </c>
       <c r="G90" t="n">
-        <v>100.46</v>
+        <v>100.495</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,8 +3583,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,22 +3600,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>99.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>98.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>99.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>98.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>959.0227</v>
+        <v>244.9147</v>
       </c>
       <c r="G91" t="n">
-        <v>100.42</v>
+        <v>100.46</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,8 +3624,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3583,22 +3641,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>99</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>98.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>99</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>98.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F92" t="n">
-        <v>4927.6758</v>
+        <v>959.0227</v>
       </c>
       <c r="G92" t="n">
-        <v>100.375</v>
+        <v>100.42</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,8 +3665,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3682,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>98.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="C93" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="D93" t="n">
-        <v>98.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="E93" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="F93" t="n">
-        <v>2644.8213</v>
+        <v>4927.6758</v>
       </c>
       <c r="G93" t="n">
-        <v>100.31</v>
+        <v>100.375</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,8 +3706,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3656,19 +3726,19 @@
         <v>98.40000000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>98.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D94" t="n">
         <v>98.40000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>98.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>3000</v>
+        <v>2644.8213</v>
       </c>
       <c r="G94" t="n">
-        <v>100.25</v>
+        <v>100.31</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,8 +3747,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3688,22 +3764,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>13</v>
+        <v>3000</v>
       </c>
       <c r="G95" t="n">
-        <v>100.1933333333333</v>
+        <v>100.25</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3712,8 +3788,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3732,13 +3814,13 @@
         <v>98.59999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>98.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>1094</v>
+        <v>13</v>
       </c>
       <c r="G96" t="n">
-        <v>100.1366666666667</v>
+        <v>100.1933333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3747,8 +3829,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3767,13 +3855,13 @@
         <v>98.59999999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>98.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="F97" t="n">
-        <v>25</v>
+        <v>1094</v>
       </c>
       <c r="G97" t="n">
-        <v>100.0633333333333</v>
+        <v>100.1366666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3782,8 +3870,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3793,7 +3887,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>98.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C98" t="n">
         <v>98.59999999999999</v>
@@ -3802,13 +3896,13 @@
         <v>98.59999999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>98.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>596.7473</v>
+        <v>25</v>
       </c>
       <c r="G98" t="n">
-        <v>99.99000000000001</v>
+        <v>100.0633333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3817,8 +3911,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3828,7 +3928,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>98.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="C99" t="n">
         <v>98.59999999999999</v>
@@ -3837,13 +3937,13 @@
         <v>98.59999999999999</v>
       </c>
       <c r="E99" t="n">
-        <v>98.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="F99" t="n">
-        <v>350</v>
+        <v>596.7473</v>
       </c>
       <c r="G99" t="n">
-        <v>99.93333333333335</v>
+        <v>99.99000000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3852,8 +3952,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3875,10 +3981,10 @@
         <v>98.59999999999999</v>
       </c>
       <c r="F100" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="G100" t="n">
-        <v>99.86000000000003</v>
+        <v>99.93333333333335</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3887,8 +3993,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3910,10 +4022,10 @@
         <v>98.59999999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>52</v>
+        <v>500</v>
       </c>
       <c r="G101" t="n">
-        <v>99.80333333333336</v>
+        <v>99.86000000000003</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3922,8 +4034,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3933,22 +4051,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>98.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>98.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>98.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>98.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>2000</v>
+        <v>52</v>
       </c>
       <c r="G102" t="n">
-        <v>99.74000000000002</v>
+        <v>99.80333333333336</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3957,8 +4075,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3971,19 +4095,19 @@
         <v>98.2</v>
       </c>
       <c r="C103" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="D103" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="E103" t="n">
         <v>98.2</v>
       </c>
       <c r="F103" t="n">
-        <v>3076.2115</v>
+        <v>2000</v>
       </c>
       <c r="G103" t="n">
-        <v>99.67833333333336</v>
+        <v>99.74000000000002</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,8 +4116,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4003,22 +4133,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>99.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="C104" t="n">
-        <v>99.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="D104" t="n">
-        <v>99.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="E104" t="n">
-        <v>99.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="F104" t="n">
-        <v>200</v>
+        <v>3076.2115</v>
       </c>
       <c r="G104" t="n">
-        <v>99.63500000000002</v>
+        <v>99.67833333333336</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4027,8 +4157,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4041,19 +4177,19 @@
         <v>99.40000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>99</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D105" t="n">
         <v>99.40000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>99</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>1874.3766</v>
+        <v>200</v>
       </c>
       <c r="G105" t="n">
-        <v>99.60166666666669</v>
+        <v>99.63500000000002</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4062,8 +4198,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4073,22 +4215,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C106" t="n">
         <v>99</v>
       </c>
-      <c r="C106" t="n">
-        <v>99.5</v>
-      </c>
       <c r="D106" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E106" t="n">
         <v>99</v>
       </c>
       <c r="F106" t="n">
-        <v>7153.2996</v>
+        <v>1874.3766</v>
       </c>
       <c r="G106" t="n">
-        <v>99.57666666666668</v>
+        <v>99.60166666666669</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4097,8 +4239,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4108,7 +4256,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="C107" t="n">
         <v>99.5</v>
@@ -4117,13 +4265,13 @@
         <v>99.5</v>
       </c>
       <c r="E107" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="F107" t="n">
-        <v>535</v>
+        <v>7153.2996</v>
       </c>
       <c r="G107" t="n">
-        <v>99.55166666666669</v>
+        <v>99.57666666666668</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4132,8 +4280,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4143,22 +4297,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="C108" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="D108" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="E108" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="F108" t="n">
-        <v>450</v>
+        <v>535</v>
       </c>
       <c r="G108" t="n">
-        <v>99.54500000000003</v>
+        <v>99.55166666666669</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4167,8 +4321,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4178,22 +4338,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F109" t="n">
-        <v>49.875</v>
+        <v>450</v>
       </c>
       <c r="G109" t="n">
-        <v>99.53500000000003</v>
+        <v>99.54500000000003</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4202,8 +4362,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4216,19 +4382,19 @@
         <v>99.40000000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>101</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>101</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>35799.4809</v>
+        <v>49.875</v>
       </c>
       <c r="G110" t="n">
-        <v>99.55166666666669</v>
+        <v>99.53500000000003</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4237,8 +4403,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4248,22 +4420,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>99.7</v>
+        <v>101</v>
       </c>
       <c r="D111" t="n">
-        <v>99.7</v>
+        <v>101</v>
       </c>
       <c r="E111" t="n">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="F111" t="n">
-        <v>8857.4563</v>
+        <v>35799.4809</v>
       </c>
       <c r="G111" t="n">
-        <v>99.54666666666668</v>
+        <v>99.55166666666669</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4272,8 +4444,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4286,16 +4464,16 @@
         <v>99.7</v>
       </c>
       <c r="C112" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="D112" t="n">
-        <v>101</v>
+        <v>99.7</v>
       </c>
       <c r="E112" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F112" t="n">
-        <v>2112.2603</v>
+        <v>8857.4563</v>
       </c>
       <c r="G112" t="n">
         <v>99.54666666666668</v>
@@ -4307,8 +4485,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4318,22 +4502,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="C113" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="D113" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="E113" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="F113" t="n">
-        <v>8925.320100000001</v>
+        <v>2112.2603</v>
       </c>
       <c r="G113" t="n">
-        <v>99.55000000000001</v>
+        <v>99.54666666666668</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4342,8 +4526,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4365,7 +4555,7 @@
         <v>99.90000000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>1658</v>
+        <v>8925.320100000001</v>
       </c>
       <c r="G114" t="n">
         <v>99.55000000000001</v>
@@ -4377,8 +4567,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4400,10 +4596,10 @@
         <v>99.90000000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>6057.4547</v>
+        <v>1658</v>
       </c>
       <c r="G115" t="n">
-        <v>99.53166666666668</v>
+        <v>99.55000000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4412,8 +4608,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4435,10 +4637,10 @@
         <v>99.90000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>5667.4133</v>
+        <v>6057.4547</v>
       </c>
       <c r="G116" t="n">
-        <v>99.51333333333334</v>
+        <v>99.53166666666668</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4447,8 +4649,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4461,19 +4669,19 @@
         <v>99.90000000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>99.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D117" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>99.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F117" t="n">
-        <v>30.0401</v>
+        <v>5667.4133</v>
       </c>
       <c r="G117" t="n">
-        <v>99.48666666666666</v>
+        <v>99.51333333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4482,8 +4690,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4493,22 +4707,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>99.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>99.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F118" t="n">
-        <v>25743.1876</v>
+        <v>30.0401</v>
       </c>
       <c r="G118" t="n">
-        <v>99.46166666666666</v>
+        <v>99.48666666666666</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4517,8 +4731,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4528,22 +4748,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="C119" t="n">
-        <v>99.2</v>
+        <v>99.5</v>
       </c>
       <c r="D119" t="n">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="E119" t="n">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>3040.0341</v>
+        <v>25743.1876</v>
       </c>
       <c r="G119" t="n">
-        <v>99.43166666666666</v>
+        <v>99.46166666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4552,8 +4772,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4563,22 +4789,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="C120" t="n">
-        <v>99.7</v>
+        <v>99.2</v>
       </c>
       <c r="D120" t="n">
-        <v>99.7</v>
+        <v>99.3</v>
       </c>
       <c r="E120" t="n">
-        <v>99.59999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="F120" t="n">
-        <v>6750.9795</v>
+        <v>3040.0341</v>
       </c>
       <c r="G120" t="n">
-        <v>99.41</v>
+        <v>99.43166666666666</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4587,8 +4813,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4601,19 +4833,19 @@
         <v>99.59999999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="D121" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="E121" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>289.7235</v>
+        <v>6750.9795</v>
       </c>
       <c r="G121" t="n">
-        <v>99.36999999999999</v>
+        <v>99.41</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4622,8 +4854,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4633,22 +4871,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C122" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E122" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>365.6509</v>
+        <v>289.7235</v>
       </c>
       <c r="G122" t="n">
-        <v>99.34666666666666</v>
+        <v>99.36999999999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4657,8 +4895,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4668,22 +4912,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>100</v>
+      </c>
+      <c r="C123" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="C123" t="n">
-        <v>99.40000000000001</v>
-      </c>
       <c r="D123" t="n">
+        <v>100</v>
+      </c>
+      <c r="E123" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="E123" t="n">
-        <v>99.40000000000001</v>
-      </c>
       <c r="F123" t="n">
-        <v>415.3159</v>
+        <v>365.6509</v>
       </c>
       <c r="G123" t="n">
-        <v>99.31999999999999</v>
+        <v>99.34666666666666</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4692,8 +4936,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4706,19 +4956,19 @@
         <v>99.59999999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>1895.5394</v>
+        <v>415.3159</v>
       </c>
       <c r="G124" t="n">
-        <v>99.29833333333333</v>
+        <v>99.31999999999999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4727,8 +4977,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4738,22 +4994,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C125" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="D125" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="E125" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="D125" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="E125" t="n">
-        <v>99.5</v>
-      </c>
       <c r="F125" t="n">
-        <v>2595.6288</v>
+        <v>1895.5394</v>
       </c>
       <c r="G125" t="n">
-        <v>99.27500000000001</v>
+        <v>99.29833333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4762,8 +5018,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4773,7 +5035,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="C126" t="n">
         <v>99.59999999999999</v>
@@ -4782,13 +5044,13 @@
         <v>99.59999999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="F126" t="n">
-        <v>4244.7589</v>
+        <v>2595.6288</v>
       </c>
       <c r="G126" t="n">
-        <v>99.235</v>
+        <v>99.27500000000001</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4797,8 +5059,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4811,19 +5079,19 @@
         <v>99.59999999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D127" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>1013.2813</v>
+        <v>4244.7589</v>
       </c>
       <c r="G127" t="n">
-        <v>99.21000000000001</v>
+        <v>99.235</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4832,8 +5100,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4843,22 +5117,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C128" t="n">
         <v>99.5</v>
       </c>
       <c r="D128" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E128" t="n">
         <v>99.5</v>
       </c>
       <c r="F128" t="n">
-        <v>1182.2558</v>
+        <v>1013.2813</v>
       </c>
       <c r="G128" t="n">
-        <v>99.185</v>
+        <v>99.21000000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4867,8 +5141,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4890,10 +5170,10 @@
         <v>99.5</v>
       </c>
       <c r="F129" t="n">
-        <v>2100.9247</v>
+        <v>1182.2558</v>
       </c>
       <c r="G129" t="n">
-        <v>99.16000000000001</v>
+        <v>99.185</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4902,8 +5182,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4913,22 +5199,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="C130" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="D130" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="E130" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="F130" t="n">
-        <v>545.9325</v>
+        <v>2100.9247</v>
       </c>
       <c r="G130" t="n">
-        <v>99.14333333333335</v>
+        <v>99.16000000000001</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4937,8 +5223,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4951,19 +5243,19 @@
         <v>100</v>
       </c>
       <c r="C131" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D131" t="n">
         <v>100</v>
       </c>
       <c r="E131" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="F131" t="n">
-        <v>16718.7434</v>
+        <v>545.9325</v>
       </c>
       <c r="G131" t="n">
-        <v>99.10833333333333</v>
+        <v>99.14333333333335</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4972,8 +5264,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -4983,10 +5281,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>100</v>
+      </c>
+      <c r="C132" t="n">
         <v>99.90000000000001</v>
-      </c>
-      <c r="C132" t="n">
-        <v>100</v>
       </c>
       <c r="D132" t="n">
         <v>100</v>
@@ -4995,7 +5293,7 @@
         <v>99.90000000000001</v>
       </c>
       <c r="F132" t="n">
-        <v>21427.6397</v>
+        <v>16718.7434</v>
       </c>
       <c r="G132" t="n">
         <v>99.10833333333333</v>
@@ -5007,8 +5305,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5018,7 +5322,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C133" t="n">
         <v>100</v>
@@ -5027,13 +5331,13 @@
         <v>100</v>
       </c>
       <c r="E133" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F133" t="n">
-        <v>3150.3</v>
+        <v>21427.6397</v>
       </c>
       <c r="G133" t="n">
-        <v>99.09166666666667</v>
+        <v>99.10833333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5042,8 +5346,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5056,19 +5366,19 @@
         <v>100</v>
       </c>
       <c r="C134" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D134" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E134" t="n">
         <v>100</v>
       </c>
       <c r="F134" t="n">
-        <v>6076.5035</v>
+        <v>3150.3</v>
       </c>
       <c r="G134" t="n">
-        <v>99.10833333333333</v>
+        <v>99.09166666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5077,8 +5387,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5088,7 +5404,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C135" t="n">
         <v>101</v>
@@ -5097,13 +5413,13 @@
         <v>101</v>
       </c>
       <c r="E135" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F135" t="n">
-        <v>4371.9177</v>
+        <v>6076.5035</v>
       </c>
       <c r="G135" t="n">
-        <v>99.12833333333333</v>
+        <v>99.10833333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5112,8 +5428,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5135,10 +5457,10 @@
         <v>101</v>
       </c>
       <c r="F136" t="n">
-        <v>5525.9999</v>
+        <v>4371.9177</v>
       </c>
       <c r="G136" t="n">
-        <v>99.15000000000001</v>
+        <v>99.12833333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5147,8 +5469,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5170,10 +5498,10 @@
         <v>101</v>
       </c>
       <c r="F137" t="n">
-        <v>3787.2601</v>
+        <v>5525.9999</v>
       </c>
       <c r="G137" t="n">
-        <v>99.2</v>
+        <v>99.15000000000001</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5182,8 +5510,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5193,22 +5527,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C138" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D138" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E138" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>3787.2601</v>
       </c>
       <c r="G138" t="n">
-        <v>99.26666666666667</v>
+        <v>99.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5217,8 +5551,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5240,10 +5580,10 @@
         <v>102</v>
       </c>
       <c r="F139" t="n">
-        <v>3199</v>
+        <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>99.33500000000001</v>
+        <v>99.26666666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5252,8 +5592,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5263,22 +5609,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C140" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D140" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E140" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F140" t="n">
-        <v>7049.5163</v>
+        <v>3199</v>
       </c>
       <c r="G140" t="n">
-        <v>99.38500000000001</v>
+        <v>99.33500000000001</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5287,8 +5633,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5298,22 +5650,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C141" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D141" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E141" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F141" t="n">
-        <v>1347.36</v>
+        <v>7049.5163</v>
       </c>
       <c r="G141" t="n">
-        <v>99.42000000000002</v>
+        <v>99.38500000000001</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5322,8 +5674,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5333,22 +5691,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C142" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D142" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E142" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>1347.36</v>
       </c>
       <c r="G142" t="n">
-        <v>99.48000000000002</v>
+        <v>99.42000000000002</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5357,8 +5715,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5368,22 +5732,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C143" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D143" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E143" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F143" t="n">
-        <v>3071.645</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>99.50166666666669</v>
+        <v>99.48000000000002</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5392,8 +5756,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5415,10 +5785,10 @@
         <v>100</v>
       </c>
       <c r="F144" t="n">
-        <v>1185.6799</v>
+        <v>3071.645</v>
       </c>
       <c r="G144" t="n">
-        <v>99.53000000000002</v>
+        <v>99.50166666666669</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5427,8 +5797,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5438,22 +5814,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C145" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D145" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E145" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F145" t="n">
-        <v>11</v>
+        <v>1185.6799</v>
       </c>
       <c r="G145" t="n">
-        <v>99.58000000000001</v>
+        <v>99.53000000000002</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5462,8 +5838,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5476,19 +5858,19 @@
         <v>101</v>
       </c>
       <c r="C146" t="n">
-        <v>99.5</v>
+        <v>101</v>
       </c>
       <c r="D146" t="n">
         <v>101</v>
       </c>
       <c r="E146" t="n">
-        <v>99.5</v>
+        <v>101</v>
       </c>
       <c r="F146" t="n">
-        <v>16266.4166</v>
+        <v>11</v>
       </c>
       <c r="G146" t="n">
-        <v>99.60500000000002</v>
+        <v>99.58000000000001</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5497,8 +5879,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5508,22 +5896,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C147" t="n">
-        <v>102</v>
+        <v>99.5</v>
       </c>
       <c r="D147" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E147" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="F147" t="n">
-        <v>1702.9722</v>
+        <v>16266.4166</v>
       </c>
       <c r="G147" t="n">
-        <v>99.66000000000003</v>
+        <v>99.60500000000002</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5532,8 +5920,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5543,7 +5937,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C148" t="n">
         <v>102</v>
@@ -5552,13 +5946,13 @@
         <v>102</v>
       </c>
       <c r="E148" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="F148" t="n">
-        <v>17261.2141</v>
+        <v>1702.9722</v>
       </c>
       <c r="G148" t="n">
-        <v>99.72500000000001</v>
+        <v>99.66000000000003</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5567,8 +5961,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5578,22 +5978,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C149" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D149" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E149" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F149" t="n">
-        <v>4878.6831</v>
+        <v>17261.2141</v>
       </c>
       <c r="G149" t="n">
-        <v>99.76166666666668</v>
+        <v>99.72500000000001</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5602,8 +6002,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5613,22 +6019,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C150" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D150" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E150" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F150" t="n">
-        <v>98723.0453</v>
+        <v>4878.6831</v>
       </c>
       <c r="G150" t="n">
-        <v>99.78000000000002</v>
+        <v>99.76166666666668</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5637,8 +6043,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5648,22 +6060,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C151" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D151" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E151" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="F151" t="n">
-        <v>12667.6104</v>
+        <v>98723.0453</v>
       </c>
       <c r="G151" t="n">
-        <v>99.82000000000001</v>
+        <v>99.78000000000002</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5672,8 +6084,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5683,22 +6101,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C152" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D152" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E152" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="F152" t="n">
-        <v>5488.5246</v>
+        <v>12667.6104</v>
       </c>
       <c r="G152" t="n">
-        <v>99.84833333333334</v>
+        <v>99.82000000000001</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5707,8 +6125,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5730,10 +6154,10 @@
         <v>100</v>
       </c>
       <c r="F153" t="n">
-        <v>12148.7645</v>
+        <v>5488.5246</v>
       </c>
       <c r="G153" t="n">
-        <v>99.88000000000001</v>
+        <v>99.84833333333334</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5742,8 +6166,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5753,22 +6183,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C154" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D154" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E154" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="F154" t="n">
-        <v>22532.1413</v>
+        <v>12148.7645</v>
       </c>
       <c r="G154" t="n">
-        <v>99.905</v>
+        <v>99.88000000000001</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5777,8 +6207,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5788,22 +6224,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C155" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D155" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E155" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F155" t="n">
-        <v>901.2163</v>
+        <v>22532.1413</v>
       </c>
       <c r="G155" t="n">
-        <v>99.92833333333333</v>
+        <v>99.905</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5812,8 +6248,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5823,22 +6265,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C156" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D156" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E156" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F156" t="n">
-        <v>50.3762</v>
+        <v>901.2163</v>
       </c>
       <c r="G156" t="n">
-        <v>99.96833333333332</v>
+        <v>99.92833333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5847,8 +6289,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5858,22 +6306,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="C157" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="D157" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="E157" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="F157" t="n">
-        <v>466.343</v>
+        <v>50.3762</v>
       </c>
       <c r="G157" t="n">
-        <v>99.98999999999998</v>
+        <v>99.96833333333332</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5882,8 +6330,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5896,19 +6350,19 @@
         <v>99.90000000000001</v>
       </c>
       <c r="C158" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D158" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E158" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="F158" t="n">
-        <v>438.9295</v>
+        <v>466.343</v>
       </c>
       <c r="G158" t="n">
-        <v>100.03</v>
+        <v>99.98999999999998</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5917,8 +6371,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5931,19 +6391,19 @@
         <v>99.90000000000001</v>
       </c>
       <c r="C159" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="D159" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="E159" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="F159" t="n">
-        <v>3350</v>
+        <v>438.9295</v>
       </c>
       <c r="G159" t="n">
-        <v>100.0516666666666</v>
+        <v>100.03</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5952,8 +6412,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5963,22 +6429,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C160" t="n">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D160" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E160" t="n">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F160" t="n">
-        <v>27342.0809</v>
+        <v>3350</v>
       </c>
       <c r="G160" t="n">
-        <v>100.0666666666666</v>
+        <v>100.0516666666666</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5987,8 +6453,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -5998,22 +6470,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="C161" t="n">
         <v>99.5</v>
       </c>
       <c r="D161" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="E161" t="n">
         <v>99.5</v>
       </c>
       <c r="F161" t="n">
-        <v>3170.3318</v>
+        <v>27342.0809</v>
       </c>
       <c r="G161" t="n">
-        <v>100.0816666666666</v>
+        <v>100.0666666666666</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6022,8 +6494,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6033,22 +6511,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="C162" t="n">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="D162" t="n">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="E162" t="n">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="F162" t="n">
-        <v>883.9247</v>
+        <v>3170.3318</v>
       </c>
       <c r="G162" t="n">
-        <v>100.095</v>
+        <v>100.0816666666666</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6057,8 +6535,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6068,22 +6552,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="C163" t="n">
-        <v>98.7</v>
+        <v>99</v>
       </c>
       <c r="D163" t="n">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="E163" t="n">
-        <v>98.7</v>
+        <v>99</v>
       </c>
       <c r="F163" t="n">
-        <v>9671</v>
+        <v>883.9247</v>
       </c>
       <c r="G163" t="n">
-        <v>100.1016666666666</v>
+        <v>100.095</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6092,8 +6576,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6106,19 +6596,19 @@
         <v>98.90000000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="D164" t="n">
         <v>98.90000000000001</v>
       </c>
       <c r="E164" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="F164" t="n">
-        <v>8372.588400000001</v>
+        <v>9671</v>
       </c>
       <c r="G164" t="n">
-        <v>100.0933333333333</v>
+        <v>100.1016666666666</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6127,8 +6617,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6138,22 +6634,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C165" t="n">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D165" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E165" t="n">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F165" t="n">
-        <v>11329.0148</v>
+        <v>8372.588400000001</v>
       </c>
       <c r="G165" t="n">
-        <v>100.0883333333333</v>
+        <v>100.0933333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6162,8 +6658,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6173,22 +6675,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="C166" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="D166" t="n">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="E166" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="F166" t="n">
-        <v>428</v>
+        <v>11329.0148</v>
       </c>
       <c r="G166" t="n">
-        <v>100.0733333333333</v>
+        <v>100.0883333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6197,8 +6699,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6208,22 +6716,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C167" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D167" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E167" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F167" t="n">
-        <v>1213</v>
+        <v>428</v>
       </c>
       <c r="G167" t="n">
-        <v>100.0566666666666</v>
+        <v>100.0733333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6232,8 +6740,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6246,19 +6760,19 @@
         <v>98.5</v>
       </c>
       <c r="C168" t="n">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
       <c r="D168" t="n">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
       <c r="E168" t="n">
         <v>98.5</v>
       </c>
       <c r="F168" t="n">
-        <v>2500</v>
+        <v>1213</v>
       </c>
       <c r="G168" t="n">
-        <v>100.0416666666666</v>
+        <v>100.0566666666666</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6267,8 +6781,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6281,19 +6801,19 @@
         <v>98.5</v>
       </c>
       <c r="C169" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="D169" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="E169" t="n">
-        <v>98.2</v>
+        <v>98.5</v>
       </c>
       <c r="F169" t="n">
-        <v>34711.767</v>
+        <v>2500</v>
       </c>
       <c r="G169" t="n">
-        <v>100.0333333333333</v>
+        <v>100.0416666666666</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6302,8 +6822,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6313,22 +6839,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="C170" t="n">
-        <v>98.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D170" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E170" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="F170" t="n">
-        <v>12081.7332</v>
+        <v>34711.767</v>
       </c>
       <c r="G170" t="n">
-        <v>99.98833333333327</v>
+        <v>100.0333333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6337,8 +6863,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6348,22 +6880,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C171" t="n">
         <v>98.3</v>
       </c>
       <c r="D171" t="n">
-        <v>98.3</v>
+        <v>99</v>
       </c>
       <c r="E171" t="n">
         <v>98.3</v>
       </c>
       <c r="F171" t="n">
-        <v>11293.7147</v>
+        <v>12081.7332</v>
       </c>
       <c r="G171" t="n">
-        <v>99.96499999999995</v>
+        <v>99.98833333333327</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6372,8 +6904,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6383,22 +6921,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="C172" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="D172" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="E172" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="F172" t="n">
-        <v>6004.6683</v>
+        <v>11293.7147</v>
       </c>
       <c r="G172" t="n">
-        <v>99.93833333333328</v>
+        <v>99.96499999999995</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6407,8 +6945,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6421,19 +6965,19 @@
         <v>98.2</v>
       </c>
       <c r="C173" t="n">
-        <v>98</v>
+        <v>98.2</v>
       </c>
       <c r="D173" t="n">
         <v>98.2</v>
       </c>
       <c r="E173" t="n">
-        <v>97.7</v>
+        <v>98.2</v>
       </c>
       <c r="F173" t="n">
-        <v>25706.5352</v>
+        <v>6004.6683</v>
       </c>
       <c r="G173" t="n">
-        <v>99.90666666666661</v>
+        <v>99.93833333333328</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6442,8 +6986,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6453,22 +7003,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>97.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="C174" t="n">
         <v>98</v>
       </c>
       <c r="D174" t="n">
-        <v>98</v>
+        <v>98.2</v>
       </c>
       <c r="E174" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="F174" t="n">
-        <v>28299.9998</v>
+        <v>25706.5352</v>
       </c>
       <c r="G174" t="n">
-        <v>99.87499999999996</v>
+        <v>99.90666666666661</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6477,8 +7027,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6488,22 +7044,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>97.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C175" t="n">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="D175" t="n">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="E175" t="n">
-        <v>97.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F175" t="n">
-        <v>6097.0509</v>
+        <v>28299.9998</v>
       </c>
       <c r="G175" t="n">
-        <v>99.84166666666663</v>
+        <v>99.87499999999996</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6512,8 +7068,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6523,22 +7085,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>98.3</v>
+        <v>97.8</v>
       </c>
       <c r="C176" t="n">
-        <v>98.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D176" t="n">
-        <v>98.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E176" t="n">
-        <v>98.3</v>
+        <v>97.7</v>
       </c>
       <c r="F176" t="n">
-        <v>8773.377399999999</v>
+        <v>6097.0509</v>
       </c>
       <c r="G176" t="n">
-        <v>99.81499999999997</v>
+        <v>99.84166666666663</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6547,8 +7109,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6558,22 +7126,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>97.7</v>
+        <v>98.3</v>
       </c>
       <c r="C177" t="n">
-        <v>97.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="D177" t="n">
-        <v>97.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="E177" t="n">
-        <v>97.7</v>
+        <v>98.3</v>
       </c>
       <c r="F177" t="n">
-        <v>632.5281</v>
+        <v>8773.377399999999</v>
       </c>
       <c r="G177" t="n">
-        <v>99.78999999999996</v>
+        <v>99.81499999999997</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6582,8 +7150,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +7167,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="C178" t="n">
         <v>97.90000000000001</v>
@@ -6602,13 +7176,13 @@
         <v>97.90000000000001</v>
       </c>
       <c r="E178" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="F178" t="n">
-        <v>470.1736</v>
+        <v>632.5281</v>
       </c>
       <c r="G178" t="n">
-        <v>99.76333333333329</v>
+        <v>99.78999999999996</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6617,8 +7191,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6628,36 +7208,36 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C179" t="n">
-        <v>97.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D179" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E179" t="n">
-        <v>97.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F179" t="n">
-        <v>285.9065</v>
+        <v>470.1736</v>
       </c>
       <c r="G179" t="n">
-        <v>99.73166666666663</v>
+        <v>99.76333333333329</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M179" t="n">
@@ -6672,30 +7252,30 @@
         <v>98</v>
       </c>
       <c r="C180" t="n">
-        <v>97.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="D180" t="n">
         <v>98</v>
       </c>
       <c r="E180" t="n">
-        <v>97.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="F180" t="n">
-        <v>322.7259</v>
+        <v>285.9065</v>
       </c>
       <c r="G180" t="n">
-        <v>99.70166666666663</v>
+        <v>99.73166666666663</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6710,10 +7290,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="C181" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D181" t="n">
         <v>98</v>
@@ -6722,21 +7302,21 @@
         <v>97.90000000000001</v>
       </c>
       <c r="F181" t="n">
-        <v>124.4561</v>
+        <v>322.7259</v>
       </c>
       <c r="G181" t="n">
-        <v>99.67499999999995</v>
+        <v>99.70166666666663</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6751,33 +7331,33 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>98.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C182" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="D182" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="E182" t="n">
-        <v>98.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F182" t="n">
-        <v>10</v>
+        <v>124.4561</v>
       </c>
       <c r="G182" t="n">
-        <v>99.64999999999995</v>
+        <v>99.67499999999995</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>98</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6792,22 +7372,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>97.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C183" t="n">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D183" t="n">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E183" t="n">
-        <v>97.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F183" t="n">
-        <v>3188.7538</v>
+        <v>10</v>
       </c>
       <c r="G183" t="n">
-        <v>99.62499999999996</v>
+        <v>99.64999999999995</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6816,7 +7396,9 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6831,22 +7413,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>97.09999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="C184" t="n">
-        <v>97.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D184" t="n">
-        <v>97.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E184" t="n">
-        <v>97.09999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="F184" t="n">
-        <v>272.4232</v>
+        <v>3188.7538</v>
       </c>
       <c r="G184" t="n">
-        <v>99.58166666666664</v>
+        <v>99.62499999999996</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6855,7 +7437,9 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6870,31 +7454,35 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>97.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C185" t="n">
-        <v>97.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D185" t="n">
-        <v>97.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E185" t="n">
-        <v>97.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F185" t="n">
-        <v>1000</v>
+        <v>272.4232</v>
       </c>
       <c r="G185" t="n">
-        <v>99.54999999999995</v>
+        <v>99.58166666666664</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="K185" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6909,31 +7497,35 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>97.2</v>
+        <v>97.7</v>
       </c>
       <c r="C186" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="D186" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="E186" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G186" t="n">
+        <v>99.54999999999995</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
         <v>97.09999999999999</v>
       </c>
-      <c r="D186" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="E186" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="F186" t="n">
-        <v>14894.3474</v>
-      </c>
-      <c r="G186" t="n">
-        <v>99.50833333333328</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6948,22 +7540,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>97.8</v>
+        <v>97.2</v>
       </c>
       <c r="C187" t="n">
-        <v>97.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D187" t="n">
-        <v>97.8</v>
+        <v>97.2</v>
       </c>
       <c r="E187" t="n">
-        <v>97.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F187" t="n">
-        <v>10</v>
+        <v>14894.3474</v>
       </c>
       <c r="G187" t="n">
-        <v>99.47999999999996</v>
+        <v>99.50833333333328</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6972,7 +7564,9 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6999,19 +7593,23 @@
         <v>97.8</v>
       </c>
       <c r="F188" t="n">
-        <v>999.9999</v>
+        <v>10</v>
       </c>
       <c r="G188" t="n">
-        <v>99.45166666666663</v>
+        <v>99.47999999999996</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="K188" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7026,31 +7624,35 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>97.40000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="C189" t="n">
-        <v>97.3</v>
+        <v>97.8</v>
       </c>
       <c r="D189" t="n">
-        <v>97.40000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="E189" t="n">
-        <v>97.3</v>
+        <v>97.8</v>
       </c>
       <c r="F189" t="n">
-        <v>480.9999</v>
+        <v>999.9999</v>
       </c>
       <c r="G189" t="n">
-        <v>99.41499999999996</v>
+        <v>99.45166666666663</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="K189" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7065,31 +7667,35 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>97.90000000000001</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C190" t="n">
-        <v>98</v>
+        <v>97.3</v>
       </c>
       <c r="D190" t="n">
-        <v>98</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E190" t="n">
-        <v>97.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="F190" t="n">
-        <v>3800</v>
+        <v>480.9999</v>
       </c>
       <c r="G190" t="n">
-        <v>99.38166666666663</v>
+        <v>99.41499999999996</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="K190" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7104,22 +7710,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>98.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C191" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="D191" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="E191" t="n">
-        <v>98.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F191" t="n">
-        <v>1354.5759</v>
+        <v>3800</v>
       </c>
       <c r="G191" t="n">
-        <v>99.35166666666665</v>
+        <v>99.38166666666663</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7128,7 +7734,9 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7155,10 +7763,10 @@
         <v>98.09999999999999</v>
       </c>
       <c r="F192" t="n">
-        <v>4455.2789</v>
+        <v>1354.5759</v>
       </c>
       <c r="G192" t="n">
-        <v>99.31999999999998</v>
+        <v>99.35166666666665</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7167,7 +7775,9 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7182,22 +7792,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C193" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D193" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E193" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F193" t="n">
-        <v>227.6272</v>
+        <v>4455.2789</v>
       </c>
       <c r="G193" t="n">
-        <v>99.28999999999998</v>
+        <v>99.31999999999998</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7206,7 +7816,9 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7224,19 +7836,19 @@
         <v>98.2</v>
       </c>
       <c r="C194" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="D194" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="E194" t="n">
         <v>98.2</v>
       </c>
       <c r="F194" t="n">
-        <v>10029.6236</v>
+        <v>227.6272</v>
       </c>
       <c r="G194" t="n">
-        <v>99.24499999999998</v>
+        <v>99.28999999999998</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7245,7 +7857,9 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7260,22 +7874,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>97.7</v>
+        <v>98.2</v>
       </c>
       <c r="C195" t="n">
-        <v>97.59999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="D195" t="n">
-        <v>97.7</v>
+        <v>98.3</v>
       </c>
       <c r="E195" t="n">
-        <v>97.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="F195" t="n">
-        <v>816.2621</v>
+        <v>10029.6236</v>
       </c>
       <c r="G195" t="n">
-        <v>99.18833333333332</v>
+        <v>99.24499999999998</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7284,7 +7898,9 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7299,22 +7915,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>98</v>
+        <v>97.7</v>
       </c>
       <c r="C196" t="n">
-        <v>98</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="D196" t="n">
-        <v>98</v>
+        <v>97.7</v>
       </c>
       <c r="E196" t="n">
-        <v>98</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F196" t="n">
-        <v>10</v>
+        <v>816.2621</v>
       </c>
       <c r="G196" t="n">
-        <v>99.13833333333332</v>
+        <v>99.18833333333332</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7323,7 +7939,9 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7338,22 +7956,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>97.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="C197" t="n">
-        <v>97.3</v>
+        <v>98</v>
       </c>
       <c r="D197" t="n">
-        <v>97.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="E197" t="n">
-        <v>97.3</v>
+        <v>98</v>
       </c>
       <c r="F197" t="n">
-        <v>2005.0427</v>
+        <v>10</v>
       </c>
       <c r="G197" t="n">
-        <v>99.07666666666665</v>
+        <v>99.13833333333332</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7362,7 +7980,9 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7377,22 +7997,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>98</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C198" t="n">
-        <v>98</v>
+        <v>97.3</v>
       </c>
       <c r="D198" t="n">
-        <v>98</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E198" t="n">
-        <v>98</v>
+        <v>97.3</v>
       </c>
       <c r="F198" t="n">
-        <v>10</v>
+        <v>2005.0427</v>
       </c>
       <c r="G198" t="n">
-        <v>99.00999999999999</v>
+        <v>99.07666666666665</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7401,7 +8021,9 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7416,22 +8038,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>97.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="C199" t="n">
-        <v>97.3</v>
+        <v>98</v>
       </c>
       <c r="D199" t="n">
-        <v>97.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="E199" t="n">
-        <v>97.3</v>
+        <v>98</v>
       </c>
       <c r="F199" t="n">
-        <v>1276.6826</v>
+        <v>10</v>
       </c>
       <c r="G199" t="n">
-        <v>98.93166666666666</v>
+        <v>99.00999999999999</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7440,7 +8062,9 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7455,22 +8079,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>98</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C200" t="n">
-        <v>98</v>
+        <v>97.3</v>
       </c>
       <c r="D200" t="n">
-        <v>98</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E200" t="n">
-        <v>98</v>
+        <v>97.3</v>
       </c>
       <c r="F200" t="n">
-        <v>10</v>
+        <v>1276.6826</v>
       </c>
       <c r="G200" t="n">
-        <v>98.88166666666666</v>
+        <v>98.93166666666666</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7479,7 +8103,9 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7506,10 +8132,10 @@
         <v>98</v>
       </c>
       <c r="F201" t="n">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="G201" t="n">
-        <v>98.84833333333333</v>
+        <v>98.88166666666666</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7518,7 +8144,9 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7533,22 +8161,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>97.7</v>
+        <v>98</v>
       </c>
       <c r="C202" t="n">
-        <v>97.7</v>
+        <v>98</v>
       </c>
       <c r="D202" t="n">
-        <v>97.7</v>
+        <v>98</v>
       </c>
       <c r="E202" t="n">
-        <v>97.7</v>
+        <v>98</v>
       </c>
       <c r="F202" t="n">
-        <v>1274.2285</v>
+        <v>106</v>
       </c>
       <c r="G202" t="n">
-        <v>98.77666666666666</v>
+        <v>98.84833333333333</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7557,7 +8185,9 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7572,22 +8202,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>97.5</v>
+        <v>97.7</v>
       </c>
       <c r="C203" t="n">
-        <v>97.40000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="D203" t="n">
-        <v>97.5</v>
+        <v>97.7</v>
       </c>
       <c r="E203" t="n">
-        <v>97.40000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="F203" t="n">
-        <v>1693.7469</v>
+        <v>1274.2285</v>
       </c>
       <c r="G203" t="n">
-        <v>98.73333333333332</v>
+        <v>98.77666666666666</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7596,7 +8226,9 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7611,22 +8243,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>97.7</v>
+        <v>97.5</v>
       </c>
       <c r="C204" t="n">
-        <v>97.7</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D204" t="n">
-        <v>97.7</v>
+        <v>97.5</v>
       </c>
       <c r="E204" t="n">
-        <v>97.7</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F204" t="n">
-        <v>613.8787</v>
+        <v>1693.7469</v>
       </c>
       <c r="G204" t="n">
-        <v>98.69499999999998</v>
+        <v>98.73333333333332</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7635,7 +8267,9 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7653,19 +8287,19 @@
         <v>97.7</v>
       </c>
       <c r="C205" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="D205" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="E205" t="n">
         <v>97.7</v>
       </c>
       <c r="F205" t="n">
-        <v>650.7668</v>
+        <v>613.8787</v>
       </c>
       <c r="G205" t="n">
-        <v>98.64166666666665</v>
+        <v>98.69499999999998</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7674,7 +8308,9 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7689,7 +8325,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="C206" t="n">
         <v>97.8</v>
@@ -7698,13 +8334,13 @@
         <v>97.8</v>
       </c>
       <c r="E206" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="F206" t="n">
-        <v>5881.1996</v>
+        <v>650.7668</v>
       </c>
       <c r="G206" t="n">
-        <v>98.61333333333332</v>
+        <v>98.64166666666665</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7713,7 +8349,9 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7728,22 +8366,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>98.5</v>
+        <v>97.8</v>
       </c>
       <c r="C207" t="n">
-        <v>98.5</v>
+        <v>97.8</v>
       </c>
       <c r="D207" t="n">
-        <v>98.5</v>
+        <v>97.8</v>
       </c>
       <c r="E207" t="n">
-        <v>98.5</v>
+        <v>97.8</v>
       </c>
       <c r="F207" t="n">
-        <v>10</v>
+        <v>5881.1996</v>
       </c>
       <c r="G207" t="n">
-        <v>98.55499999999999</v>
+        <v>98.61333333333332</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7752,7 +8390,9 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7767,22 +8407,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>97.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="C208" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="D208" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="E208" t="n">
-        <v>97.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="F208" t="n">
-        <v>196.4741</v>
+        <v>10</v>
       </c>
       <c r="G208" t="n">
-        <v>98.49499999999998</v>
+        <v>98.55499999999999</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7791,7 +8431,9 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7806,22 +8448,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C209" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D209" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E209" t="n">
-        <v>97.40000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F209" t="n">
-        <v>1496.275</v>
+        <v>196.4741</v>
       </c>
       <c r="G209" t="n">
-        <v>98.44999999999999</v>
+        <v>98.49499999999998</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7830,7 +8472,9 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7845,22 +8489,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>98.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="C210" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="D210" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="E210" t="n">
-        <v>98.09999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F210" t="n">
-        <v>592.1217</v>
+        <v>1496.275</v>
       </c>
       <c r="G210" t="n">
-        <v>98.41833333333332</v>
+        <v>98.44999999999999</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7869,7 +8513,9 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7884,22 +8530,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C211" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D211" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E211" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F211" t="n">
-        <v>10</v>
+        <v>592.1217</v>
       </c>
       <c r="G211" t="n">
-        <v>98.37166666666666</v>
+        <v>98.41833333333332</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7908,7 +8554,9 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7923,22 +8571,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>97.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="C212" t="n">
-        <v>97.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="D212" t="n">
-        <v>97.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="E212" t="n">
-        <v>97.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="F212" t="n">
-        <v>404.8564</v>
+        <v>10</v>
       </c>
       <c r="G212" t="n">
-        <v>98.33166666666666</v>
+        <v>98.37166666666666</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7947,7 +8595,9 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7962,22 +8612,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>98.09999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C213" t="n">
-        <v>98.09999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="D213" t="n">
-        <v>98.09999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E213" t="n">
-        <v>98.09999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F213" t="n">
-        <v>10</v>
+        <v>404.8564</v>
       </c>
       <c r="G213" t="n">
-        <v>98.3</v>
+        <v>98.33166666666666</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7986,7 +8636,9 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8001,22 +8653,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>97.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C214" t="n">
-        <v>97.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D214" t="n">
-        <v>97.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E214" t="n">
-        <v>97.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F214" t="n">
-        <v>487.2675</v>
+        <v>10</v>
       </c>
       <c r="G214" t="n">
-        <v>98.26166666666668</v>
+        <v>98.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8025,7 +8677,9 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8040,22 +8694,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C215" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="D215" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E215" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F215" t="n">
-        <v>2897.4358</v>
+        <v>487.2675</v>
       </c>
       <c r="G215" t="n">
-        <v>98.22000000000001</v>
+        <v>98.26166666666668</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8064,7 +8718,9 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8091,10 +8747,10 @@
         <v>97.5</v>
       </c>
       <c r="F216" t="n">
-        <v>4640.5184</v>
+        <v>2897.4358</v>
       </c>
       <c r="G216" t="n">
-        <v>98.16166666666668</v>
+        <v>98.22000000000001</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8103,7 +8759,9 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8121,19 +8779,19 @@
         <v>97.5</v>
       </c>
       <c r="C217" t="n">
-        <v>97.3</v>
+        <v>97.5</v>
       </c>
       <c r="D217" t="n">
         <v>97.5</v>
       </c>
       <c r="E217" t="n">
-        <v>97.3</v>
+        <v>97.5</v>
       </c>
       <c r="F217" t="n">
-        <v>4681.7847</v>
+        <v>4640.5184</v>
       </c>
       <c r="G217" t="n">
-        <v>98.11833333333335</v>
+        <v>98.16166666666668</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8142,7 +8800,9 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8157,22 +8817,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>97.8</v>
+        <v>97.5</v>
       </c>
       <c r="C218" t="n">
-        <v>97.8</v>
+        <v>97.3</v>
       </c>
       <c r="D218" t="n">
-        <v>97.8</v>
+        <v>97.5</v>
       </c>
       <c r="E218" t="n">
-        <v>97.8</v>
+        <v>97.3</v>
       </c>
       <c r="F218" t="n">
-        <v>1751.3936</v>
+        <v>4681.7847</v>
       </c>
       <c r="G218" t="n">
-        <v>98.06500000000003</v>
+        <v>98.11833333333335</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8181,7 +8841,9 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8196,22 +8858,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="C219" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="D219" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="E219" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="F219" t="n">
-        <v>10</v>
+        <v>1751.3936</v>
       </c>
       <c r="G219" t="n">
-        <v>98.03166666666669</v>
+        <v>98.06500000000003</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8220,7 +8882,9 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8235,22 +8899,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>97.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C220" t="n">
-        <v>97.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D220" t="n">
-        <v>97.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E220" t="n">
-        <v>97.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F220" t="n">
-        <v>8000</v>
+        <v>10</v>
       </c>
       <c r="G220" t="n">
-        <v>97.99666666666668</v>
+        <v>98.03166666666669</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8259,7 +8923,9 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8274,22 +8940,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>97.8</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C221" t="n">
-        <v>97.8</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D221" t="n">
-        <v>97.8</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E221" t="n">
-        <v>97.8</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F221" t="n">
-        <v>947.8148</v>
+        <v>8000</v>
       </c>
       <c r="G221" t="n">
-        <v>97.96833333333335</v>
+        <v>97.99666666666668</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8298,7 +8964,9 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8313,22 +8981,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="C222" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="D222" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="E222" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="F222" t="n">
-        <v>10</v>
+        <v>947.8148</v>
       </c>
       <c r="G222" t="n">
-        <v>97.95000000000002</v>
+        <v>97.96833333333335</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8337,7 +9005,9 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8364,25 +9034,68 @@
         <v>97.90000000000001</v>
       </c>
       <c r="F223" t="n">
+        <v>10</v>
+      </c>
+      <c r="G223" t="n">
+        <v>97.95000000000002</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="C224" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="D224" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="E224" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="F224" t="n">
         <v>680.6588</v>
       </c>
-      <c r="G223" t="n">
+      <c r="G224" t="n">
         <v>97.93666666666668</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest ELF.xlsx
+++ b/BackTest/2019-10-19 BackTest ELF.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -946,7 +946,7 @@
         <v>44478.1706</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>47585.1445</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>51230.82739999999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>51240.82739999999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>51939.53829999999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>51939.53829999999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>52329.96089999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-55750.5935</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2596,14 +2596,10 @@
         <v>-75802.0592</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="J67" t="n">
-        <v>98.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
@@ -2633,19 +2629,11 @@
         <v>-61259.2288</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="J68" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2674,19 +2662,11 @@
         <v>-62249.12</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="J69" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2715,19 +2695,11 @@
         <v>-62249.12</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="J70" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2756,19 +2728,11 @@
         <v>-61249.12</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="J71" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2797,19 +2761,11 @@
         <v>-54731.5838</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="J72" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2841,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2880,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2919,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2955,19 +2893,11 @@
         <v>-56902.6075</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="J76" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2996,19 +2926,11 @@
         <v>-56774.1966</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="J77" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3040,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3079,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3118,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3157,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3196,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3235,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3274,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3313,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3352,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3391,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3430,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3469,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3508,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3547,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3583,19 +3421,13 @@
         <v>-59686.1451</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
-        <v>1.031585365853659</v>
+        <v>1</v>
       </c>
       <c r="M92" t="inlineStr"/>
     </row>
@@ -3622,7 +3454,7 @@
         <v>-59686.1451</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3655,7 +3487,7 @@
         <v>-59686.1451</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3721,7 +3553,7 @@
         <v>-7739.232600000003</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3754,7 +3586,7 @@
         <v>-7739.232600000003</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3787,7 +3619,7 @@
         <v>-12998.9923</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3820,7 +3652,7 @@
         <v>-12888.9923</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3853,7 +3685,7 @@
         <v>-55103.0971</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3886,7 +3718,7 @@
         <v>-55103.0971</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3919,7 +3751,7 @@
         <v>-55103.0971</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3952,7 +3784,7 @@
         <v>-55103.0971</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4018,7 +3850,7 @@
         <v>-141364.4335</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4051,7 +3883,7 @@
         <v>-141364.4335</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4084,7 +3916,7 @@
         <v>-146349.174</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4117,7 +3949,7 @@
         <v>-146349.174</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4150,7 +3982,7 @@
         <v>-146349.174</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4183,7 +4015,7 @@
         <v>-146349.174</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4216,7 +4048,7 @@
         <v>-158804.6724</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4249,7 +4081,7 @@
         <v>-158881.3797</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4282,7 +4114,7 @@
         <v>-156310.0853</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4315,7 +4147,7 @@
         <v>-86704.28760000001</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4348,7 +4180,7 @@
         <v>-86704.28760000001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4381,7 +4213,7 @@
         <v>-86704.28760000001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4414,7 +4246,7 @@
         <v>-86704.28760000001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4447,7 +4279,7 @@
         <v>-86704.28760000001</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4480,7 +4312,7 @@
         <v>-86704.28760000001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4513,7 +4345,7 @@
         <v>-84414.28760000001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4546,7 +4378,7 @@
         <v>-86767.28750000001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4579,7 +4411,7 @@
         <v>-86767.28750000001</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4612,7 +4444,7 @@
         <v>-86767.28750000001</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4645,7 +4477,7 @@
         <v>-86767.28750000001</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4678,7 +4510,7 @@
         <v>-31395.43200000001</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4711,7 +4543,7 @@
         <v>-31580.24570000001</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4777,7 +4609,7 @@
         <v>-31580.24570000001</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4843,7 +4675,7 @@
         <v>-31565.43200000001</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5008,7 +4840,7 @@
         <v>-51657.23830000001</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5041,7 +4873,7 @@
         <v>-84032.20370000001</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5074,7 +4906,7 @@
         <v>-84032.20370000001</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5107,7 +4939,7 @@
         <v>-85077.93260000001</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5140,7 +4972,7 @@
         <v>-84298.41250000002</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5173,7 +5005,7 @@
         <v>-102703.05</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5206,7 +5038,7 @@
         <v>-101377.3401</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5239,7 +5071,7 @@
         <v>-99477.34010000002</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5272,7 +5104,7 @@
         <v>-108156.5059</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5305,7 +5137,7 @@
         <v>-109502.6069</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5338,7 +5170,7 @@
         <v>-109502.6069</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5371,7 +5203,7 @@
         <v>-108043.6151</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5404,7 +5236,7 @@
         <v>-108532.9219</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5437,7 +5269,7 @@
         <v>-96532.92190000002</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5470,7 +5302,7 @@
         <v>-96288.00720000002</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5503,7 +5335,7 @@
         <v>-97247.02990000002</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5536,7 +5368,7 @@
         <v>-102174.7057</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5569,7 +5401,7 @@
         <v>-104819.527</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -7021,7 +6853,7 @@
         <v>-18534.64740000002</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7384,7 +7216,7 @@
         <v>-44553.61310000002</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7417,7 +7249,7 @@
         <v>-49432.29620000003</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7450,7 +7282,7 @@
         <v>-148155.3415</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7483,7 +7315,7 @@
         <v>-135487.7311</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7516,7 +7348,7 @@
         <v>-140976.2557</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7549,7 +7381,7 @@
         <v>-140976.2557</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7582,7 +7414,7 @@
         <v>-163508.397</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7615,7 +7447,7 @@
         <v>-162607.1807</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7648,7 +7480,7 @@
         <v>-162556.8045</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7681,7 +7513,7 @@
         <v>-163023.1475</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7714,7 +7546,7 @@
         <v>-162584.218</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7747,7 +7579,7 @@
         <v>-165934.218</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7780,7 +7612,7 @@
         <v>-193276.2989</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7813,7 +7645,7 @@
         <v>-193276.2989</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7846,7 +7678,7 @@
         <v>-194160.2236</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7879,7 +7711,7 @@
         <v>-203831.2236</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7912,7 +7744,7 @@
         <v>-195458.6352</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8506,7 +8338,7 @@
         <v>-212794.7458</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9232,10 +9064,14 @@
         <v>-221631.5275</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="J263" t="n">
+        <v>97.40000000000001</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
@@ -9265,11 +9101,19 @@
         <v>-220980.7607</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="J264" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9298,11 +9142,19 @@
         <v>-220980.7607</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="J265" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9331,10 +9183,14 @@
         <v>-220970.7607</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="J266" t="n">
+        <v>97.8</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
@@ -9364,11 +9220,19 @@
         <v>-221167.2348</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="J267" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9400,8 +9264,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9433,8 +9303,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9463,11 +9339,19 @@
         <v>-223245.6315</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="J270" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9499,8 +9383,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9529,11 +9419,19 @@
         <v>-223640.4878999999</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="J272" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9562,11 +9460,19 @@
         <v>-224127.7553999999</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="J273" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9595,15 +9501,19 @@
         <v>-227025.1911999999</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>97.59999999999999</v>
       </c>
       <c r="J274" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="K274" t="inlineStr"/>
+        <v>97.8</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9632,17 +9542,17 @@
         <v>-227025.1911999999</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>97.5</v>
       </c>
       <c r="J275" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L275" t="n">
@@ -9673,17 +9583,17 @@
         <v>-231706.9758999999</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>97.5</v>
       </c>
       <c r="J276" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L276" t="n">
@@ -9714,13 +9624,13 @@
         <v>-229955.5822999999</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>97.3</v>
       </c>
       <c r="J277" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9755,13 +9665,13 @@
         <v>-229945.5822999999</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>97.8</v>
       </c>
       <c r="J278" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9796,13 +9706,13 @@
         <v>-237945.5822999999</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>97.90000000000001</v>
       </c>
       <c r="J279" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -9837,13 +9747,13 @@
         <v>-236997.7674999999</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>97.40000000000001</v>
       </c>
       <c r="J280" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -9878,13 +9788,13 @@
         <v>-236987.7674999999</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>97.8</v>
       </c>
       <c r="J281" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -9919,13 +9829,13 @@
         <v>-236987.7674999999</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>97.90000000000001</v>
       </c>
       <c r="J282" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -9960,13 +9870,13 @@
         <v>-237897.4304999999</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>97.90000000000001</v>
       </c>
       <c r="J283" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10001,13 +9911,13 @@
         <v>-237897.4304999999</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>97.5</v>
       </c>
       <c r="J284" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10042,13 +9952,13 @@
         <v>-237897.4304999999</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>97.5</v>
       </c>
       <c r="J285" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10083,13 +9993,13 @@
         <v>-244897.4304999999</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>97.5</v>
       </c>
       <c r="J286" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10124,13 +10034,13 @@
         <v>-244887.4304999999</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>97.40000000000001</v>
       </c>
       <c r="J287" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10165,13 +10075,13 @@
         <v>-261887.4304999999</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>97.90000000000001</v>
       </c>
       <c r="J288" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10206,13 +10116,13 @@
         <v>-312539.9328</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>97.3</v>
       </c>
       <c r="J289" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10247,13 +10157,13 @@
         <v>-312539.9328</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>96.40000000000001</v>
       </c>
       <c r="J290" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10288,13 +10198,13 @@
         <v>-311982.9638</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>96.40000000000001</v>
       </c>
       <c r="J291" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10329,13 +10239,13 @@
         <v>-312532.1768</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>97.59999999999999</v>
       </c>
       <c r="J292" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10348,6 +10258,6 @@
       <c r="M292" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest ELF.xlsx
+++ b/BackTest/2019-10-19 BackTest ELF.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>43289.8193</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>42887.39309999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>50109.6419</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>50109.6419</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>50109.6419</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>50109.6419</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>46778.9627</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>56678.9627</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>56678.9627</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>56678.9627</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>56678.9627</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>55772.51319999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>49251.7377</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>48845.3992</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>44478.1706</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>47585.1445</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>46317.57199999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>61237.29239999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>51939.53829999999</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>51939.53829999999</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>52329.96089999999</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-55750.5935</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-55103.0971</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-55103.0971</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-55103.0971</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-141364.4335</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-141364.4335</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-146349.174</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-146349.174</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-146349.174</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-146349.174</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-158804.6724</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-158881.3797</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-156310.0853</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-86704.28760000001</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-86704.28760000001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-86704.28760000001</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-86704.28760000001</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-86704.28760000001</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-86704.28760000001</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-51657.23830000001</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-84032.20370000001</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-84032.20370000001</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-85077.93260000001</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-84298.41250000002</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-102703.05</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-101377.3401</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-99477.34010000002</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-108156.5059</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-109502.6069</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-109502.6069</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-108532.9219</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-44553.61310000002</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-49432.29620000003</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-148155.3415</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-135487.7311</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-140976.2557</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-140976.2557</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-163508.397</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-162607.1807</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-162556.8045</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-163023.1475</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-162584.218</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-165934.218</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-193276.2989</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-193276.2989</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-194160.2236</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-203831.2236</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-195458.6352</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8932,10 +8932,14 @@
         <v>-219277.4308</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="J259" t="n">
+        <v>97.3</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
@@ -8968,8 +8972,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9001,8 +9011,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9101,11 +9117,9 @@
         <v>-220980.7607</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>97.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
         <v>97.40000000000001</v>
       </c>
@@ -9142,11 +9156,9 @@
         <v>-220980.7607</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>97.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
         <v>97.40000000000001</v>
       </c>
@@ -9220,11 +9232,9 @@
         <v>-221167.2348</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>98.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
         <v>97.8</v>
       </c>
@@ -9339,11 +9349,9 @@
         <v>-223245.6315</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>98.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
         <v>97.8</v>
       </c>
@@ -9419,11 +9427,9 @@
         <v>-223640.4878999999</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>97.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
         <v>97.8</v>
       </c>
@@ -9460,11 +9466,9 @@
         <v>-224127.7553999999</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>98.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
         <v>97.8</v>
       </c>
@@ -9501,11 +9505,9 @@
         <v>-227025.1911999999</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>97.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
         <v>97.8</v>
       </c>
@@ -9542,11 +9544,9 @@
         <v>-227025.1911999999</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>97.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
         <v>97.8</v>
       </c>
@@ -9583,11 +9583,9 @@
         <v>-231706.9758999999</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>97.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
         <v>97.8</v>
       </c>
@@ -9624,11 +9622,9 @@
         <v>-229955.5822999999</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>97.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
         <v>97.8</v>
       </c>
@@ -9665,11 +9661,9 @@
         <v>-229945.5822999999</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>97.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
         <v>97.8</v>
       </c>
@@ -9706,11 +9700,9 @@
         <v>-237945.5822999999</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>97.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
         <v>97.8</v>
       </c>
@@ -9747,11 +9739,9 @@
         <v>-236997.7674999999</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>97.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
         <v>97.8</v>
       </c>
@@ -9788,11 +9778,9 @@
         <v>-236987.7674999999</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>97.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
         <v>97.8</v>
       </c>
@@ -9829,11 +9817,9 @@
         <v>-236987.7674999999</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>97.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
         <v>97.8</v>
       </c>
@@ -9870,11 +9856,9 @@
         <v>-237897.4304999999</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>97.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
         <v>97.8</v>
       </c>
@@ -9911,11 +9895,9 @@
         <v>-237897.4304999999</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>97.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
         <v>97.8</v>
       </c>
@@ -9952,11 +9934,9 @@
         <v>-237897.4304999999</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>97.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
         <v>97.8</v>
       </c>
@@ -9993,11 +9973,9 @@
         <v>-244897.4304999999</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>97.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
         <v>97.8</v>
       </c>
@@ -10034,11 +10012,9 @@
         <v>-244887.4304999999</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>97.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
         <v>97.8</v>
       </c>
@@ -10075,11 +10051,9 @@
         <v>-261887.4304999999</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>97.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
         <v>97.8</v>
       </c>
@@ -10116,11 +10090,9 @@
         <v>-312539.9328</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>97.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
         <v>97.8</v>
       </c>
@@ -10258,6 +10230,6 @@
       <c r="M292" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest ELF.xlsx
+++ b/BackTest/2019-10-19 BackTest ELF.xlsx
@@ -451,7 +451,7 @@
         <v>43289.8193</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>42887.39309999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>50109.6419</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>50109.6419</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>50109.6419</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>50109.6419</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>46778.9627</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>56678.9627</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>56678.9627</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>56678.9627</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>56678.9627</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>55772.51319999999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>49251.7377</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>48845.3992</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>46317.57199999999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>61237.29239999999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-12998.9923</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-12888.9923</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-55103.0971</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-55103.0971</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-55103.0971</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-55103.0971</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-141364.4335</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-141364.4335</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-86704.28760000001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-86704.28760000001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-86704.28760000001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-31580.24570000001</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-31580.24570000001</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-31580.24570000001</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-31580.24570000001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-31565.43200000001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-41799.58440000001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-18533.64740000002</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-25583.16370000002</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-26930.52370000002</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-30001.16870000002</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8932,14 +8932,10 @@
         <v>-219277.4308</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="J259" t="n">
-        <v>97.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
@@ -8972,14 +8968,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9011,14 +9001,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9080,14 +9064,10 @@
         <v>-221631.5275</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="J263" t="n">
-        <v>97.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
@@ -9120,948 +9100,858 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="C265" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="D265" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="E265" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="F265" t="n">
+        <v>5881.1996</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-220980.7607</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="C266" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="D266" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="E266" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="F266" t="n">
+        <v>10</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-220970.7607</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="C267" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D267" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="E267" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="F267" t="n">
+        <v>196.4741</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-221167.2348</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C268" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="D268" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="E268" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="K264" t="inlineStr">
+      <c r="F268" t="n">
+        <v>1496.275</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-222663.5098</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="C269" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="D269" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="E269" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="F269" t="n">
+        <v>592.1217</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-223255.6315</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="C270" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="D270" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="E270" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="F270" t="n">
+        <v>10</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-223245.6315</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="C271" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="D271" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="E271" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="F271" t="n">
+        <v>404.8564</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-223650.4878999999</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="C272" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="D272" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="E272" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="F272" t="n">
+        <v>10</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-223640.4878999999</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="C273" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="D273" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="E273" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="F273" t="n">
+        <v>487.2675</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-224127.7553999999</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C274" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D274" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E274" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F274" t="n">
+        <v>2897.4358</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-227025.1911999999</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C275" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D275" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E275" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F275" t="n">
+        <v>4640.5184</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-227025.1911999999</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C276" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="D276" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E276" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="F276" t="n">
+        <v>4681.7847</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-231706.9758999999</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="C277" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="D277" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="E277" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="F277" t="n">
+        <v>1751.3936</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-229955.5822999999</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="C278" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="D278" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="E278" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="F278" t="n">
+        <v>10</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-229945.5822999999</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="C279" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="D279" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="E279" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="F279" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-237945.5822999999</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="C280" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="D280" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="E280" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="F280" t="n">
+        <v>947.8148</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-236997.7674999999</v>
+      </c>
+      <c r="H280" t="n">
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="J280" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="C281" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="D281" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="E281" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="F281" t="n">
+        <v>10</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-236987.7674999999</v>
+      </c>
+      <c r="H281" t="n">
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="J281" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="K281" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="C265" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="D265" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="E265" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="F265" t="n">
-        <v>5881.1996</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-220980.7607</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="C282" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="D282" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="E282" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="F282" t="n">
+        <v>680.6588</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-236987.7674999999</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="K265" t="inlineStr">
+      <c r="K282" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="C266" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="D266" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="E266" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="F266" t="n">
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C283" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D283" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E283" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F283" t="n">
+        <v>909.663</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-237897.4304999999</v>
+      </c>
+      <c r="H283" t="n">
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="J283" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C284" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D284" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E284" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F284" t="n">
+        <v>799.6961</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-237897.4304999999</v>
+      </c>
+      <c r="H284" t="n">
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="J284" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C285" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D285" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E285" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F285" t="n">
+        <v>399.9999</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-237897.4304999999</v>
+      </c>
+      <c r="H285" t="n">
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="J285" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="C286" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="D286" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="E286" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="F286" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-244897.4304999999</v>
+      </c>
+      <c r="H286" t="n">
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="J286" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="C287" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="D287" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="E287" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="F287" t="n">
         <v>10</v>
       </c>
-      <c r="G266" t="n">
-        <v>-220970.7607</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="J266" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="C267" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="D267" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="E267" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="F267" t="n">
-        <v>196.4741</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-221167.2348</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K267" t="inlineStr">
+      <c r="G287" t="n">
+        <v>-244887.4304999999</v>
+      </c>
+      <c r="H287" t="n">
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="J287" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="C288" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="D288" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="E288" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="F288" t="n">
+        <v>17000</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-261887.4304999999</v>
+      </c>
+      <c r="H288" t="n">
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="J288" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="K288" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="C268" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="D268" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="E268" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="F268" t="n">
-        <v>1496.275</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-222663.5098</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="C269" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="D269" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="E269" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="F269" t="n">
-        <v>592.1217</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-223255.6315</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="C270" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="D270" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="E270" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="F270" t="n">
-        <v>10</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-223245.6315</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="C271" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="D271" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="E271" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="F271" t="n">
-        <v>404.8564</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-223650.4878999999</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="C272" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="D272" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="E272" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="F272" t="n">
-        <v>10</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-223640.4878999999</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="C273" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="D273" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="E273" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="F273" t="n">
-        <v>487.2675</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-224127.7553999999</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="C274" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="D274" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="E274" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="F274" t="n">
-        <v>2897.4358</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-227025.1911999999</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="C275" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="D275" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="E275" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="F275" t="n">
-        <v>4640.5184</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-227025.1911999999</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="C276" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="D276" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="E276" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="F276" t="n">
-        <v>4681.7847</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-231706.9758999999</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="C277" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="D277" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="E277" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="F277" t="n">
-        <v>1751.3936</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-229955.5822999999</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="C278" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="D278" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="E278" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="F278" t="n">
-        <v>10</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-229945.5822999999</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="C279" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="D279" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="E279" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="F279" t="n">
-        <v>8000</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-237945.5822999999</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="C280" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="D280" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="E280" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="F280" t="n">
-        <v>947.8148</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-236997.7674999999</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="C281" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="D281" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="E281" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="F281" t="n">
-        <v>10</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-236987.7674999999</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="C282" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="D282" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="E282" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="F282" t="n">
-        <v>680.6588</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-236987.7674999999</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="C283" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="D283" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="E283" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="F283" t="n">
-        <v>909.663</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-237897.4304999999</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="C284" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="D284" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="E284" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="F284" t="n">
-        <v>799.6961</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-237897.4304999999</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="C285" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="D285" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="E285" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="F285" t="n">
-        <v>399.9999</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-237897.4304999999</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="C286" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="D286" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="E286" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="F286" t="n">
-        <v>7000</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-244897.4304999999</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="C287" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="D287" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="E287" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="F287" t="n">
-        <v>10</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-244887.4304999999</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="C288" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="D288" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="E288" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="F288" t="n">
-        <v>17000</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-261887.4304999999</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10090,11 +9980,13 @@
         <v>-312539.9328</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>97.3</v>
+      </c>
       <c r="J289" t="n">
-        <v>97.8</v>
+        <v>97.5</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10135,7 +10027,7 @@
         <v>96.40000000000001</v>
       </c>
       <c r="J290" t="n">
-        <v>97.8</v>
+        <v>97.5</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10176,7 +10068,7 @@
         <v>96.40000000000001</v>
       </c>
       <c r="J291" t="n">
-        <v>97.8</v>
+        <v>97.5</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10217,7 +10109,7 @@
         <v>97.59999999999999</v>
       </c>
       <c r="J292" t="n">
-        <v>97.8</v>
+        <v>97.5</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>

--- a/BackTest/2019-10-19 BackTest ELF.xlsx
+++ b/BackTest/2019-10-19 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M292"/>
+  <dimension ref="A1:L292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>3051.86</v>
       </c>
       <c r="G2" t="n">
-        <v>43289.8193</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>402.4262</v>
       </c>
       <c r="G3" t="n">
-        <v>42887.39309999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>7222.2488</v>
       </c>
       <c r="G4" t="n">
-        <v>50109.6419</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1750</v>
       </c>
       <c r="G5" t="n">
-        <v>50109.6419</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>11400</v>
       </c>
       <c r="G6" t="n">
-        <v>50109.6419</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>8350</v>
       </c>
       <c r="G7" t="n">
-        <v>50109.6419</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>3330.6792</v>
       </c>
       <c r="G8" t="n">
-        <v>46778.9627</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>9900</v>
       </c>
       <c r="G9" t="n">
-        <v>56678.9627</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>4600</v>
       </c>
       <c r="G10" t="n">
-        <v>56678.9627</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>8150</v>
       </c>
       <c r="G11" t="n">
-        <v>56678.9627</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>19750</v>
       </c>
       <c r="G12" t="n">
-        <v>56678.9627</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>906.4494999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>55772.51319999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>6520.7755</v>
       </c>
       <c r="G14" t="n">
-        <v>49251.7377</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,19 @@
         <v>406.3385</v>
       </c>
       <c r="G15" t="n">
-        <v>48845.3992</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>98.7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>98.7</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +867,23 @@
         <v>3867.1176</v>
       </c>
       <c r="G16" t="n">
-        <v>44978.2816</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>98</v>
+      </c>
+      <c r="I16" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +905,23 @@
         <v>500.111</v>
       </c>
       <c r="G17" t="n">
-        <v>44478.1706</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>97.90000000000001</v>
+      </c>
+      <c r="I17" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +943,23 @@
         <v>3106.9739</v>
       </c>
       <c r="G18" t="n">
-        <v>47585.1445</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>97.8</v>
+      </c>
+      <c r="I18" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +981,23 @@
         <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>47585.1445</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>97.90000000000001</v>
+      </c>
+      <c r="I19" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1019,23 @@
         <v>517.6608</v>
       </c>
       <c r="G20" t="n">
-        <v>47585.1445</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>97.90000000000001</v>
+      </c>
+      <c r="I20" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1057,23 @@
         <v>150</v>
       </c>
       <c r="G21" t="n">
-        <v>47585.1445</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>97.90000000000001</v>
+      </c>
+      <c r="I21" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1095,23 @@
         <v>1389.8653</v>
       </c>
       <c r="G22" t="n">
-        <v>47585.1445</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>97.90000000000001</v>
+      </c>
+      <c r="I22" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1133,23 @@
         <v>1000</v>
       </c>
       <c r="G23" t="n">
-        <v>48585.1445</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>97.90000000000001</v>
+      </c>
+      <c r="I23" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1171,23 @@
         <v>2000</v>
       </c>
       <c r="G24" t="n">
-        <v>46585.1445</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>98.2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1209,23 @@
         <v>1328</v>
       </c>
       <c r="G25" t="n">
-        <v>47913.1445</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>98.09999999999999</v>
+      </c>
+      <c r="I25" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1247,23 @@
         <v>125.061</v>
       </c>
       <c r="G26" t="n">
-        <v>47788.0835</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>98.7</v>
+      </c>
+      <c r="I26" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1285,23 @@
         <v>103.969</v>
       </c>
       <c r="G27" t="n">
-        <v>47892.0525</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>98.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1323,23 @@
         <v>3138.0035</v>
       </c>
       <c r="G28" t="n">
-        <v>51030.056</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>98.40000000000001</v>
+      </c>
+      <c r="I28" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1361,23 @@
         <v>190.7714</v>
       </c>
       <c r="G29" t="n">
-        <v>51220.82739999999</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>98.7</v>
+      </c>
+      <c r="I29" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1399,23 @@
         <v>67.4119</v>
       </c>
       <c r="G30" t="n">
-        <v>51220.82739999999</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>98.90000000000001</v>
+      </c>
+      <c r="I30" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1437,21 @@
         <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>51230.82739999999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1473,23 @@
         <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>51240.82739999999</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>99</v>
+      </c>
+      <c r="I32" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1511,23 @@
         <v>20</v>
       </c>
       <c r="G33" t="n">
-        <v>51240.82739999999</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>99.09999999999999</v>
+      </c>
+      <c r="I33" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1549,23 @@
         <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>51240.82739999999</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>99.09999999999999</v>
+      </c>
+      <c r="I34" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1587,23 @@
         <v>4923.2554</v>
       </c>
       <c r="G35" t="n">
-        <v>46317.57199999999</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>99.09999999999999</v>
+      </c>
+      <c r="I35" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1625,23 @@
         <v>14919.7204</v>
       </c>
       <c r="G36" t="n">
-        <v>61237.29239999999</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>98.90000000000001</v>
+      </c>
+      <c r="I36" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1663,23 @@
         <v>632.9161</v>
       </c>
       <c r="G37" t="n">
-        <v>61870.20849999999</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>99.09999999999999</v>
+      </c>
+      <c r="I37" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1701,23 @@
         <v>39.8493</v>
       </c>
       <c r="G38" t="n">
-        <v>61910.0578</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>99.5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1739,23 @@
         <v>1726.8197</v>
       </c>
       <c r="G39" t="n">
-        <v>60183.2381</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>99.59999999999999</v>
+      </c>
+      <c r="I39" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1777,23 @@
         <v>2843.0551</v>
       </c>
       <c r="G40" t="n">
-        <v>57340.183</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>99.09999999999999</v>
+      </c>
+      <c r="I40" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1815,23 @@
         <v>1502.4518</v>
       </c>
       <c r="G41" t="n">
-        <v>55837.73119999999</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>99</v>
+      </c>
+      <c r="I41" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1853,23 @@
         <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>55837.73119999999</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>98.7</v>
+      </c>
+      <c r="I42" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1891,23 @@
         <v>997</v>
       </c>
       <c r="G43" t="n">
-        <v>54840.73119999999</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>98.7</v>
+      </c>
+      <c r="I43" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1929,23 @@
         <v>6346.7292</v>
       </c>
       <c r="G44" t="n">
-        <v>48494.00199999999</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>98.40000000000001</v>
+      </c>
+      <c r="I44" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1967,23 @@
         <v>4845.3677</v>
       </c>
       <c r="G45" t="n">
-        <v>53339.3697</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>97.8</v>
+      </c>
+      <c r="I45" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +2005,23 @@
         <v>1000</v>
       </c>
       <c r="G46" t="n">
-        <v>54339.3697</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>98.90000000000001</v>
+      </c>
+      <c r="I46" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +2043,23 @@
         <v>349.6995</v>
       </c>
       <c r="G47" t="n">
-        <v>53989.67019999999</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>99</v>
+      </c>
+      <c r="I47" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2081,23 @@
         <v>2050.1319</v>
       </c>
       <c r="G48" t="n">
-        <v>51939.53829999999</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>98.59999999999999</v>
+      </c>
+      <c r="I48" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2119,23 @@
         <v>10000</v>
       </c>
       <c r="G49" t="n">
-        <v>51939.53829999999</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>98.5</v>
+      </c>
+      <c r="I49" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2157,23 @@
         <v>3187.7385</v>
       </c>
       <c r="G50" t="n">
-        <v>51939.53829999999</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>98.5</v>
+      </c>
+      <c r="I50" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2195,23 @@
         <v>390.4226</v>
       </c>
       <c r="G51" t="n">
-        <v>52329.96089999999</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>98.5</v>
+      </c>
+      <c r="I51" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2233,23 @@
         <v>108498.5544</v>
       </c>
       <c r="G52" t="n">
-        <v>-56168.5935</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>98.8</v>
+      </c>
+      <c r="I52" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2271,23 @@
         <v>418</v>
       </c>
       <c r="G53" t="n">
-        <v>-55750.5935</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>98.7</v>
+      </c>
+      <c r="I53" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2309,23 @@
         <v>914.2126</v>
       </c>
       <c r="G54" t="n">
-        <v>-56664.8061</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>99</v>
+      </c>
+      <c r="I54" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2347,23 @@
         <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>-56654.8061</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>98.59999999999999</v>
+      </c>
+      <c r="I55" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2385,23 @@
         <v>6602.3506</v>
       </c>
       <c r="G56" t="n">
-        <v>-56654.8061</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>99</v>
+      </c>
+      <c r="I56" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2423,23 @@
         <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>-56654.8061</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>99</v>
+      </c>
+      <c r="I57" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2461,23 @@
         <v>12712.008</v>
       </c>
       <c r="G58" t="n">
-        <v>-56654.8061</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>99</v>
+      </c>
+      <c r="I58" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2499,23 @@
         <v>7149.1317</v>
       </c>
       <c r="G59" t="n">
-        <v>-49505.6744</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>99</v>
+      </c>
+      <c r="I59" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2537,23 @@
         <v>6531.5539</v>
       </c>
       <c r="G60" t="n">
-        <v>-49505.6744</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>99.09999999999999</v>
+      </c>
+      <c r="I60" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2575,23 @@
         <v>21893.2259</v>
       </c>
       <c r="G61" t="n">
-        <v>-71398.90030000001</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>99.09999999999999</v>
+      </c>
+      <c r="I61" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2613,23 @@
         <v>7129.452</v>
       </c>
       <c r="G62" t="n">
-        <v>-64269.44830000001</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>98.59999999999999</v>
+      </c>
+      <c r="I62" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2651,23 @@
         <v>20563.104</v>
       </c>
       <c r="G63" t="n">
-        <v>-64269.44830000001</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>98.7</v>
+      </c>
+      <c r="I63" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2689,21 @@
         <v>10586.2749</v>
       </c>
       <c r="G64" t="n">
-        <v>-74855.72320000001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2725,21 @@
         <v>909.8126999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>-74855.72320000001</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2761,21 @@
         <v>439</v>
       </c>
       <c r="G66" t="n">
-        <v>-75294.72320000001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2797,21 @@
         <v>507.336</v>
       </c>
       <c r="G67" t="n">
-        <v>-75802.0592</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2833,23 @@
         <v>14542.8304</v>
       </c>
       <c r="G68" t="n">
-        <v>-61259.2288</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>98.3</v>
+      </c>
+      <c r="I68" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2871,23 @@
         <v>989.8912</v>
       </c>
       <c r="G69" t="n">
-        <v>-62249.12</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>98.59999999999999</v>
+      </c>
+      <c r="I69" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2909,21 @@
         <v>494.9456</v>
       </c>
       <c r="G70" t="n">
-        <v>-62249.12</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2945,21 @@
         <v>1000</v>
       </c>
       <c r="G71" t="n">
-        <v>-61249.12</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2981,23 @@
         <v>6517.5362</v>
       </c>
       <c r="G72" t="n">
-        <v>-54731.5838</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>98.2</v>
+      </c>
+      <c r="I72" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +3019,23 @@
         <v>768.8953</v>
       </c>
       <c r="G73" t="n">
-        <v>-54731.5838</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>98.40000000000001</v>
+      </c>
+      <c r="I73" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +3057,23 @@
         <v>2677.0237</v>
       </c>
       <c r="G74" t="n">
-        <v>-57408.6075</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>98.40000000000001</v>
+      </c>
+      <c r="I74" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +3095,23 @@
         <v>1857.7578</v>
       </c>
       <c r="G75" t="n">
-        <v>-57408.6075</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>98.3</v>
+      </c>
+      <c r="I75" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +3133,23 @@
         <v>506</v>
       </c>
       <c r="G76" t="n">
-        <v>-56902.6075</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>98.3</v>
+      </c>
+      <c r="I76" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +3171,23 @@
         <v>128.4109</v>
       </c>
       <c r="G77" t="n">
-        <v>-56774.1966</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>98.59999999999999</v>
+      </c>
+      <c r="I77" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3209,21 @@
         <v>7646.4843</v>
       </c>
       <c r="G78" t="n">
-        <v>-49127.7123</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3245,23 @@
         <v>28304.5059</v>
       </c>
       <c r="G79" t="n">
-        <v>-49127.7123</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>99.2</v>
+      </c>
+      <c r="I79" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3283,23 @@
         <v>21888.3078</v>
       </c>
       <c r="G80" t="n">
-        <v>-27239.4045</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>99.2</v>
+      </c>
+      <c r="I80" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3321,21 @@
         <v>1003.7722</v>
       </c>
       <c r="G81" t="n">
-        <v>-28243.1767</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3357,23 @@
         <v>1000</v>
       </c>
       <c r="G82" t="n">
-        <v>-27243.1767</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>98.90000000000001</v>
+      </c>
+      <c r="I82" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3395,21 @@
         <v>3812.2925</v>
       </c>
       <c r="G83" t="n">
-        <v>-27243.1767</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3431,21 @@
         <v>3208.7275</v>
       </c>
       <c r="G84" t="n">
-        <v>-30451.9042</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3467,21 @@
         <v>28155</v>
       </c>
       <c r="G85" t="n">
-        <v>-30451.9042</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3503,21 @@
         <v>13755.8171</v>
       </c>
       <c r="G86" t="n">
-        <v>-16696.0871</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3539,21 @@
         <v>75009.1875</v>
       </c>
       <c r="G87" t="n">
-        <v>-91705.2746</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3575,21 @@
         <v>43911.9118</v>
       </c>
       <c r="G88" t="n">
-        <v>-91705.2746</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3611,21 @@
         <v>25076.3267</v>
       </c>
       <c r="G89" t="n">
-        <v>-66628.9479</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3647,21 @@
         <v>201271.3065</v>
       </c>
       <c r="G90" t="n">
-        <v>-66628.9479</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3683,21 @@
         <v>50033.7029</v>
       </c>
       <c r="G91" t="n">
-        <v>-66628.9479</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3719,21 @@
         <v>6942.8028</v>
       </c>
       <c r="G92" t="n">
-        <v>-59686.1451</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3755,21 @@
         <v>22509.0098</v>
       </c>
       <c r="G93" t="n">
-        <v>-59686.1451</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3791,21 @@
         <v>35424.843</v>
       </c>
       <c r="G94" t="n">
-        <v>-59686.1451</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3827,21 @@
         <v>36351</v>
       </c>
       <c r="G95" t="n">
-        <v>-59686.1451</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3863,21 @@
         <v>51946.9125</v>
       </c>
       <c r="G96" t="n">
-        <v>-7739.232600000003</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3899,21 @@
         <v>8217.9611</v>
       </c>
       <c r="G97" t="n">
-        <v>-7739.232600000003</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3935,21 @@
         <v>5259.7597</v>
       </c>
       <c r="G98" t="n">
-        <v>-12998.9923</v>
-      </c>
-      <c r="H98" t="n">
         <v>2</v>
       </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1.028434650455927</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3971,15 @@
         <v>110</v>
       </c>
       <c r="G99" t="n">
-        <v>-12888.9923</v>
-      </c>
-      <c r="H99" t="n">
         <v>2</v>
       </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +4001,15 @@
         <v>42214.1048</v>
       </c>
       <c r="G100" t="n">
-        <v>-55103.0971</v>
-      </c>
-      <c r="H100" t="n">
         <v>2</v>
       </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +4031,15 @@
         <v>8936.929599999999</v>
       </c>
       <c r="G101" t="n">
-        <v>-55103.0971</v>
-      </c>
-      <c r="H101" t="n">
         <v>2</v>
       </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +4061,15 @@
         <v>948.4525</v>
       </c>
       <c r="G102" t="n">
-        <v>-55103.0971</v>
-      </c>
-      <c r="H102" t="n">
         <v>2</v>
       </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +4091,15 @@
         <v>51.5178</v>
       </c>
       <c r="G103" t="n">
-        <v>-55103.0971</v>
-      </c>
-      <c r="H103" t="n">
         <v>2</v>
       </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +4121,15 @@
         <v>86261.3364</v>
       </c>
       <c r="G104" t="n">
-        <v>-141364.4335</v>
-      </c>
-      <c r="H104" t="n">
         <v>2</v>
       </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +4151,15 @@
         <v>1948.935</v>
       </c>
       <c r="G105" t="n">
-        <v>-141364.4335</v>
-      </c>
-      <c r="H105" t="n">
         <v>2</v>
       </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +4181,15 @@
         <v>6470.7425</v>
       </c>
       <c r="G106" t="n">
-        <v>-141364.4335</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +4211,15 @@
         <v>4984.7405</v>
       </c>
       <c r="G107" t="n">
-        <v>-146349.174</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +4241,15 @@
         <v>2492.3703</v>
       </c>
       <c r="G108" t="n">
-        <v>-146349.174</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +4271,15 @@
         <v>54.8625</v>
       </c>
       <c r="G109" t="n">
-        <v>-146349.174</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +4301,15 @@
         <v>934.3499</v>
       </c>
       <c r="G110" t="n">
-        <v>-146349.174</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4331,15 @@
         <v>12455.4984</v>
       </c>
       <c r="G111" t="n">
-        <v>-158804.6724</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4361,15 @@
         <v>76.7073</v>
       </c>
       <c r="G112" t="n">
-        <v>-158881.3797</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4391,15 @@
         <v>2571.2944</v>
       </c>
       <c r="G113" t="n">
-        <v>-156310.0853</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4421,15 @@
         <v>69605.7977</v>
       </c>
       <c r="G114" t="n">
-        <v>-86704.28760000001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4451,15 @@
         <v>296.9108</v>
       </c>
       <c r="G115" t="n">
-        <v>-86704.28760000001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4481,15 @@
         <v>4795.5374</v>
       </c>
       <c r="G116" t="n">
-        <v>-86704.28760000001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4511,15 @@
         <v>14784.2178</v>
       </c>
       <c r="G117" t="n">
-        <v>-86704.28760000001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4541,15 @@
         <v>9366.999900000001</v>
       </c>
       <c r="G118" t="n">
-        <v>-86704.28760000001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4571,15 @@
         <v>22966.0172</v>
       </c>
       <c r="G119" t="n">
-        <v>-86704.28760000001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4601,15 @@
         <v>2290</v>
       </c>
       <c r="G120" t="n">
-        <v>-84414.28760000001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4631,15 @@
         <v>2352.9999</v>
       </c>
       <c r="G121" t="n">
-        <v>-86767.28750000001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4661,15 @@
         <v>2492.5072</v>
       </c>
       <c r="G122" t="n">
-        <v>-86767.28750000001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4691,15 @@
         <v>429</v>
       </c>
       <c r="G123" t="n">
-        <v>-86767.28750000001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4721,15 @@
         <v>30276</v>
       </c>
       <c r="G124" t="n">
-        <v>-86767.28750000001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4751,15 @@
         <v>55371.8555</v>
       </c>
       <c r="G125" t="n">
-        <v>-31395.43200000001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4781,15 @@
         <v>184.8137</v>
       </c>
       <c r="G126" t="n">
-        <v>-31580.24570000001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4811,15 @@
         <v>5</v>
       </c>
       <c r="G127" t="n">
-        <v>-31580.24570000001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4841,15 @@
         <v>1500.2181</v>
       </c>
       <c r="G128" t="n">
-        <v>-31580.24570000001</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4871,15 @@
         <v>10074.9979</v>
       </c>
       <c r="G129" t="n">
-        <v>-31580.24570000001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4901,15 @@
         <v>14.8137</v>
       </c>
       <c r="G130" t="n">
-        <v>-31565.43200000001</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4931,15 @@
         <v>10234.1524</v>
       </c>
       <c r="G131" t="n">
-        <v>-41799.58440000001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4961,15 @@
         <v>34.8316</v>
       </c>
       <c r="G132" t="n">
-        <v>-41764.75280000001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4991,15 @@
         <v>2387.0376</v>
       </c>
       <c r="G133" t="n">
-        <v>-44151.79040000001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +5021,15 @@
         <v>507.548</v>
       </c>
       <c r="G134" t="n">
-        <v>-44659.33840000002</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +5051,15 @@
         <v>6997.8999</v>
       </c>
       <c r="G135" t="n">
-        <v>-51657.23830000001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +5081,15 @@
         <v>32374.9654</v>
       </c>
       <c r="G136" t="n">
-        <v>-84032.20370000001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +5111,15 @@
         <v>591.4249</v>
       </c>
       <c r="G137" t="n">
-        <v>-84032.20370000001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +5141,15 @@
         <v>1045.7289</v>
       </c>
       <c r="G138" t="n">
-        <v>-85077.93260000001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +5171,15 @@
         <v>779.5201</v>
       </c>
       <c r="G139" t="n">
-        <v>-84298.41250000002</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +5201,15 @@
         <v>18404.6375</v>
       </c>
       <c r="G140" t="n">
-        <v>-102703.05</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +5231,15 @@
         <v>1325.7099</v>
       </c>
       <c r="G141" t="n">
-        <v>-101377.3401</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +5261,15 @@
         <v>1900</v>
       </c>
       <c r="G142" t="n">
-        <v>-99477.34010000002</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +5291,15 @@
         <v>8679.165800000001</v>
       </c>
       <c r="G143" t="n">
-        <v>-108156.5059</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +5321,15 @@
         <v>1346.101</v>
       </c>
       <c r="G144" t="n">
-        <v>-109502.6069</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +5351,15 @@
         <v>6057.4546</v>
       </c>
       <c r="G145" t="n">
-        <v>-109502.6069</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +5381,15 @@
         <v>1458.9918</v>
       </c>
       <c r="G146" t="n">
-        <v>-108043.6151</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +5411,15 @@
         <v>489.3068</v>
       </c>
       <c r="G147" t="n">
-        <v>-108532.9219</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5441,15 @@
         <v>12000</v>
       </c>
       <c r="G148" t="n">
-        <v>-96532.92190000002</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5471,15 @@
         <v>244.9147</v>
       </c>
       <c r="G149" t="n">
-        <v>-96288.00720000002</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5501,15 @@
         <v>959.0227</v>
       </c>
       <c r="G150" t="n">
-        <v>-97247.02990000002</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5531,15 @@
         <v>4927.6758</v>
       </c>
       <c r="G151" t="n">
-        <v>-102174.7057</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5561,15 @@
         <v>2644.8213</v>
       </c>
       <c r="G152" t="n">
-        <v>-104819.527</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5591,15 @@
         <v>3000</v>
       </c>
       <c r="G153" t="n">
-        <v>-101819.527</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5621,15 @@
         <v>13</v>
       </c>
       <c r="G154" t="n">
-        <v>-101806.527</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5651,15 @@
         <v>1094</v>
       </c>
       <c r="G155" t="n">
-        <v>-101806.527</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5681,15 @@
         <v>25</v>
       </c>
       <c r="G156" t="n">
-        <v>-101806.527</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5711,15 @@
         <v>596.7473</v>
       </c>
       <c r="G157" t="n">
-        <v>-101806.527</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5741,15 @@
         <v>350</v>
       </c>
       <c r="G158" t="n">
-        <v>-101806.527</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5771,15 @@
         <v>500</v>
       </c>
       <c r="G159" t="n">
-        <v>-101806.527</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5801,15 @@
         <v>52</v>
       </c>
       <c r="G160" t="n">
-        <v>-101806.527</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5831,15 @@
         <v>2000</v>
       </c>
       <c r="G161" t="n">
-        <v>-103806.527</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5861,15 @@
         <v>3076.2115</v>
       </c>
       <c r="G162" t="n">
-        <v>-100730.3155</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5891,15 @@
         <v>200</v>
       </c>
       <c r="G163" t="n">
-        <v>-100530.3155</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5921,15 @@
         <v>1874.3766</v>
       </c>
       <c r="G164" t="n">
-        <v>-102404.6921</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5951,15 @@
         <v>7153.2996</v>
       </c>
       <c r="G165" t="n">
-        <v>-95251.39250000002</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5981,15 @@
         <v>535</v>
       </c>
       <c r="G166" t="n">
-        <v>-95251.39250000002</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +6011,15 @@
         <v>450</v>
       </c>
       <c r="G167" t="n">
-        <v>-94801.39250000002</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +6041,15 @@
         <v>49.875</v>
       </c>
       <c r="G168" t="n">
-        <v>-94851.26750000002</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +6071,15 @@
         <v>35799.4809</v>
       </c>
       <c r="G169" t="n">
-        <v>-59051.78660000001</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +6101,15 @@
         <v>8857.4563</v>
       </c>
       <c r="G170" t="n">
-        <v>-67909.24290000001</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +6131,15 @@
         <v>2112.2603</v>
       </c>
       <c r="G171" t="n">
-        <v>-65796.98260000002</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +6161,15 @@
         <v>8925.320100000001</v>
       </c>
       <c r="G172" t="n">
-        <v>-56871.66250000002</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +6191,15 @@
         <v>1658</v>
       </c>
       <c r="G173" t="n">
-        <v>-56871.66250000002</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +6221,15 @@
         <v>6057.4547</v>
       </c>
       <c r="G174" t="n">
-        <v>-56871.66250000002</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +6251,15 @@
         <v>5667.4133</v>
       </c>
       <c r="G175" t="n">
-        <v>-56871.66250000002</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +6281,15 @@
         <v>30.0401</v>
       </c>
       <c r="G176" t="n">
-        <v>-56901.70260000002</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +6311,15 @@
         <v>25743.1876</v>
       </c>
       <c r="G177" t="n">
-        <v>-31158.51500000002</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +6341,15 @@
         <v>3040.0341</v>
       </c>
       <c r="G178" t="n">
-        <v>-34198.54910000002</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +6371,15 @@
         <v>6750.9795</v>
       </c>
       <c r="G179" t="n">
-        <v>-27447.56960000002</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +6401,15 @@
         <v>289.7235</v>
       </c>
       <c r="G180" t="n">
-        <v>-27737.29310000002</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +6431,15 @@
         <v>365.6509</v>
       </c>
       <c r="G181" t="n">
-        <v>-27737.29310000002</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +6461,15 @@
         <v>415.3159</v>
       </c>
       <c r="G182" t="n">
-        <v>-28152.60900000002</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +6491,15 @@
         <v>1895.5394</v>
       </c>
       <c r="G183" t="n">
-        <v>-26257.06960000002</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +6521,15 @@
         <v>2595.6288</v>
       </c>
       <c r="G184" t="n">
-        <v>-28852.69840000002</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6551,15 @@
         <v>4244.7589</v>
       </c>
       <c r="G185" t="n">
-        <v>-28852.69840000002</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6581,15 @@
         <v>1013.2813</v>
       </c>
       <c r="G186" t="n">
-        <v>-29865.97970000001</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6611,15 @@
         <v>1182.2558</v>
       </c>
       <c r="G187" t="n">
-        <v>-29865.97970000001</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6641,15 @@
         <v>2100.9247</v>
       </c>
       <c r="G188" t="n">
-        <v>-29865.97970000001</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6671,15 @@
         <v>545.9325</v>
       </c>
       <c r="G189" t="n">
-        <v>-29320.04720000002</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6701,15 @@
         <v>16718.7434</v>
       </c>
       <c r="G190" t="n">
-        <v>-46038.79060000001</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6731,15 @@
         <v>21427.6397</v>
       </c>
       <c r="G191" t="n">
-        <v>-24611.15090000002</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6761,15 @@
         <v>3150.3</v>
       </c>
       <c r="G192" t="n">
-        <v>-24611.15090000002</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6791,15 @@
         <v>6076.5035</v>
       </c>
       <c r="G193" t="n">
-        <v>-18534.64740000002</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6821,15 @@
         <v>4371.9177</v>
       </c>
       <c r="G194" t="n">
-        <v>-18534.64740000002</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6851,15 @@
         <v>5525.9999</v>
       </c>
       <c r="G195" t="n">
-        <v>-18534.64740000002</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6881,15 @@
         <v>3787.2601</v>
       </c>
       <c r="G196" t="n">
-        <v>-18534.64740000002</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6911,15 @@
         <v>1</v>
       </c>
       <c r="G197" t="n">
-        <v>-18533.64740000002</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6941,15 @@
         <v>3199</v>
       </c>
       <c r="G198" t="n">
-        <v>-18533.64740000002</v>
-      </c>
-      <c r="H198" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6971,15 @@
         <v>7049.5163</v>
       </c>
       <c r="G199" t="n">
-        <v>-25583.16370000002</v>
-      </c>
-      <c r="H199" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +7001,15 @@
         <v>1347.36</v>
       </c>
       <c r="G200" t="n">
-        <v>-26930.52370000002</v>
-      </c>
-      <c r="H200" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +7031,15 @@
         <v>1</v>
       </c>
       <c r="G201" t="n">
-        <v>-26929.52370000002</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +7061,15 @@
         <v>3071.645</v>
       </c>
       <c r="G202" t="n">
-        <v>-30001.16870000002</v>
-      </c>
-      <c r="H202" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +7091,15 @@
         <v>1185.6799</v>
       </c>
       <c r="G203" t="n">
-        <v>-30001.16870000002</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +7121,15 @@
         <v>11</v>
       </c>
       <c r="G204" t="n">
-        <v>-29990.16870000002</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +7151,15 @@
         <v>16266.4166</v>
       </c>
       <c r="G205" t="n">
-        <v>-46256.58530000002</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +7181,15 @@
         <v>1702.9722</v>
       </c>
       <c r="G206" t="n">
-        <v>-44553.61310000002</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +7211,15 @@
         <v>17261.2141</v>
       </c>
       <c r="G207" t="n">
-        <v>-44553.61310000002</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +7241,15 @@
         <v>4878.6831</v>
       </c>
       <c r="G208" t="n">
-        <v>-49432.29620000003</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +7271,15 @@
         <v>98723.0453</v>
       </c>
       <c r="G209" t="n">
-        <v>-148155.3415</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +7301,15 @@
         <v>12667.6104</v>
       </c>
       <c r="G210" t="n">
-        <v>-135487.7311</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +7331,15 @@
         <v>5488.5246</v>
       </c>
       <c r="G211" t="n">
-        <v>-140976.2557</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +7361,15 @@
         <v>12148.7645</v>
       </c>
       <c r="G212" t="n">
-        <v>-140976.2557</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +7391,15 @@
         <v>22532.1413</v>
       </c>
       <c r="G213" t="n">
-        <v>-163508.397</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +7421,15 @@
         <v>901.2163</v>
       </c>
       <c r="G214" t="n">
-        <v>-162607.1807</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +7451,15 @@
         <v>50.3762</v>
       </c>
       <c r="G215" t="n">
-        <v>-162556.8045</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +7481,15 @@
         <v>466.343</v>
       </c>
       <c r="G216" t="n">
-        <v>-163023.1475</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +7511,15 @@
         <v>438.9295</v>
       </c>
       <c r="G217" t="n">
-        <v>-162584.218</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +7541,15 @@
         <v>3350</v>
       </c>
       <c r="G218" t="n">
-        <v>-165934.218</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +7571,15 @@
         <v>27342.0809</v>
       </c>
       <c r="G219" t="n">
-        <v>-193276.2989</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +7601,15 @@
         <v>3170.3318</v>
       </c>
       <c r="G220" t="n">
-        <v>-193276.2989</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7631,15 @@
         <v>883.9247</v>
       </c>
       <c r="G221" t="n">
-        <v>-194160.2236</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7661,15 @@
         <v>9671</v>
       </c>
       <c r="G222" t="n">
-        <v>-203831.2236</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7691,15 @@
         <v>8372.588400000001</v>
       </c>
       <c r="G223" t="n">
-        <v>-195458.6352</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7721,15 @@
         <v>11329.0148</v>
       </c>
       <c r="G224" t="n">
-        <v>-206787.65</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7751,15 @@
         <v>428</v>
       </c>
       <c r="G225" t="n">
-        <v>-207215.65</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7781,15 @@
         <v>1213</v>
       </c>
       <c r="G226" t="n">
-        <v>-208428.65</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7811,15 @@
         <v>2500</v>
       </c>
       <c r="G227" t="n">
-        <v>-205928.65</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7841,15 @@
         <v>34711.767</v>
       </c>
       <c r="G228" t="n">
-        <v>-171216.883</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7871,15 @@
         <v>12081.7332</v>
       </c>
       <c r="G229" t="n">
-        <v>-183298.6162</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7901,15 @@
         <v>11293.7147</v>
       </c>
       <c r="G230" t="n">
-        <v>-183298.6162</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7931,15 @@
         <v>6004.6683</v>
       </c>
       <c r="G231" t="n">
-        <v>-189303.2845</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7961,15 @@
         <v>25706.5352</v>
       </c>
       <c r="G232" t="n">
-        <v>-215009.8197</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7991,15 @@
         <v>28299.9998</v>
       </c>
       <c r="G233" t="n">
-        <v>-215009.8197</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +8021,15 @@
         <v>6097.0509</v>
       </c>
       <c r="G234" t="n">
-        <v>-221106.8706</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +8051,15 @@
         <v>8773.377399999999</v>
       </c>
       <c r="G235" t="n">
-        <v>-212333.4932</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +8081,15 @@
         <v>632.5281</v>
       </c>
       <c r="G236" t="n">
-        <v>-212966.0213</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +8111,15 @@
         <v>470.1736</v>
       </c>
       <c r="G237" t="n">
-        <v>-212966.0213</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +8141,15 @@
         <v>285.9065</v>
       </c>
       <c r="G238" t="n">
-        <v>-213251.9278</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +8171,15 @@
         <v>322.7259</v>
       </c>
       <c r="G239" t="n">
-        <v>-212929.2019</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +8201,15 @@
         <v>124.4561</v>
       </c>
       <c r="G240" t="n">
-        <v>-212804.7458</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +8231,15 @@
         <v>10</v>
       </c>
       <c r="G241" t="n">
-        <v>-212794.7458</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +8261,15 @@
         <v>3188.7538</v>
       </c>
       <c r="G242" t="n">
-        <v>-215983.4996</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +8291,15 @@
         <v>272.4232</v>
       </c>
       <c r="G243" t="n">
-        <v>-216255.9228</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +8321,15 @@
         <v>1000</v>
       </c>
       <c r="G244" t="n">
-        <v>-215255.9228</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +8351,15 @@
         <v>14894.3474</v>
       </c>
       <c r="G245" t="n">
-        <v>-230150.2702</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +8381,15 @@
         <v>10</v>
       </c>
       <c r="G246" t="n">
-        <v>-230140.2702</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +8411,15 @@
         <v>999.9999</v>
       </c>
       <c r="G247" t="n">
-        <v>-230140.2702</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +8441,15 @@
         <v>480.9999</v>
       </c>
       <c r="G248" t="n">
-        <v>-230621.2701</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +8471,15 @@
         <v>3800</v>
       </c>
       <c r="G249" t="n">
-        <v>-226821.2701</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +8501,15 @@
         <v>1354.5759</v>
       </c>
       <c r="G250" t="n">
-        <v>-225466.6942</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +8531,15 @@
         <v>4455.2789</v>
       </c>
       <c r="G251" t="n">
-        <v>-225466.6942</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +8561,15 @@
         <v>227.6272</v>
       </c>
       <c r="G252" t="n">
-        <v>-225239.067</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +8591,15 @@
         <v>10029.6236</v>
       </c>
       <c r="G253" t="n">
-        <v>-215209.4434</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8621,15 @@
         <v>816.2621</v>
       </c>
       <c r="G254" t="n">
-        <v>-216025.7055</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8651,15 @@
         <v>10</v>
       </c>
       <c r="G255" t="n">
-        <v>-216015.7055</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8681,15 @@
         <v>2005.0427</v>
       </c>
       <c r="G256" t="n">
-        <v>-218020.7482</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8711,15 @@
         <v>10</v>
       </c>
       <c r="G257" t="n">
-        <v>-218010.7482</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8741,15 @@
         <v>1276.6826</v>
       </c>
       <c r="G258" t="n">
-        <v>-219287.4308</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8771,15 @@
         <v>10</v>
       </c>
       <c r="G259" t="n">
-        <v>-219277.4308</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8801,15 @@
         <v>106</v>
       </c>
       <c r="G260" t="n">
-        <v>-219277.4308</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +8831,15 @@
         <v>1274.2285</v>
       </c>
       <c r="G261" t="n">
-        <v>-220551.6593</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +8861,15 @@
         <v>1693.7469</v>
       </c>
       <c r="G262" t="n">
-        <v>-222245.4062</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +8891,15 @@
         <v>613.8787</v>
       </c>
       <c r="G263" t="n">
-        <v>-221631.5275</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +8921,15 @@
         <v>650.7668</v>
       </c>
       <c r="G264" t="n">
-        <v>-220980.7607</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,18 +8951,15 @@
         <v>5881.1996</v>
       </c>
       <c r="G265" t="n">
-        <v>-220980.7607</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9160,18 +8981,15 @@
         <v>10</v>
       </c>
       <c r="G266" t="n">
-        <v>-220970.7607</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9193,18 +9011,15 @@
         <v>196.4741</v>
       </c>
       <c r="G267" t="n">
-        <v>-221167.2348</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9226,18 +9041,15 @@
         <v>1496.275</v>
       </c>
       <c r="G268" t="n">
-        <v>-222663.5098</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9259,18 +9071,15 @@
         <v>592.1217</v>
       </c>
       <c r="G269" t="n">
-        <v>-223255.6315</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9292,18 +9101,15 @@
         <v>10</v>
       </c>
       <c r="G270" t="n">
-        <v>-223245.6315</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9325,18 +9131,15 @@
         <v>404.8564</v>
       </c>
       <c r="G271" t="n">
-        <v>-223650.4878999999</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9358,18 +9161,15 @@
         <v>10</v>
       </c>
       <c r="G272" t="n">
-        <v>-223640.4878999999</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9391,18 +9191,15 @@
         <v>487.2675</v>
       </c>
       <c r="G273" t="n">
-        <v>-224127.7553999999</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9424,18 +9221,15 @@
         <v>2897.4358</v>
       </c>
       <c r="G274" t="n">
-        <v>-227025.1911999999</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9457,18 +9251,15 @@
         <v>4640.5184</v>
       </c>
       <c r="G275" t="n">
-        <v>-227025.1911999999</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9490,18 +9281,15 @@
         <v>4681.7847</v>
       </c>
       <c r="G276" t="n">
-        <v>-231706.9758999999</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9523,18 +9311,15 @@
         <v>1751.3936</v>
       </c>
       <c r="G277" t="n">
-        <v>-229955.5822999999</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9556,18 +9341,15 @@
         <v>10</v>
       </c>
       <c r="G278" t="n">
-        <v>-229945.5822999999</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9589,18 +9371,15 @@
         <v>8000</v>
       </c>
       <c r="G279" t="n">
-        <v>-237945.5822999999</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9622,22 +9401,15 @@
         <v>947.8148</v>
       </c>
       <c r="G280" t="n">
-        <v>-236997.7674999999</v>
-      </c>
-      <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="J280" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9659,26 +9431,15 @@
         <v>10</v>
       </c>
       <c r="G281" t="n">
-        <v>-236987.7674999999</v>
-      </c>
-      <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="J281" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9700,24 +9461,15 @@
         <v>680.6588</v>
       </c>
       <c r="G282" t="n">
-        <v>-236987.7674999999</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9739,22 +9491,15 @@
         <v>909.663</v>
       </c>
       <c r="G283" t="n">
-        <v>-237897.4304999999</v>
-      </c>
-      <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="J283" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9776,26 +9521,15 @@
         <v>799.6961</v>
       </c>
       <c r="G284" t="n">
-        <v>-237897.4304999999</v>
-      </c>
-      <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="J284" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9817,26 +9551,15 @@
         <v>399.9999</v>
       </c>
       <c r="G285" t="n">
-        <v>-237897.4304999999</v>
-      </c>
-      <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="J285" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9858,22 +9581,15 @@
         <v>7000</v>
       </c>
       <c r="G286" t="n">
-        <v>-244897.4304999999</v>
-      </c>
-      <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="J286" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9895,26 +9611,15 @@
         <v>10</v>
       </c>
       <c r="G287" t="n">
-        <v>-244887.4304999999</v>
-      </c>
-      <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="J287" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9936,26 +9641,15 @@
         <v>17000</v>
       </c>
       <c r="G288" t="n">
-        <v>-261887.4304999999</v>
-      </c>
-      <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="J288" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9977,26 +9671,15 @@
         <v>50652.5023</v>
       </c>
       <c r="G289" t="n">
-        <v>-312539.9328</v>
-      </c>
-      <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="J289" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10018,26 +9701,15 @@
         <v>6115.6809</v>
       </c>
       <c r="G290" t="n">
-        <v>-312539.9328</v>
-      </c>
-      <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="J290" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10059,26 +9731,15 @@
         <v>556.9690000000001</v>
       </c>
       <c r="G291" t="n">
-        <v>-311982.9638</v>
-      </c>
-      <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="J291" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10100,26 +9761,15 @@
         <v>549.213</v>
       </c>
       <c r="G292" t="n">
-        <v>-312532.1768</v>
-      </c>
-      <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="J292" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
